--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Desktop\4.sem\IT-Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE29E17F-A255-44F5-8B81-C228E0939B0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36891596-32B3-45D1-999B-B297785BE311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
   <si>
     <t>Name:</t>
   </si>
@@ -152,6 +152,36 @@
   <si>
     <t>Customer Relationship Management solutions AND "open source"</t>
   </si>
+  <si>
+    <t>customer relationship management software solution</t>
+  </si>
+  <si>
+    <t>customer relationship management AND "crm implementation"</t>
+  </si>
+  <si>
+    <t>Journal nicht im Ranking enthalten</t>
+  </si>
+  <si>
+    <t>zu viel unbrauchbares</t>
+  </si>
+  <si>
+    <t>customer relationship management AND "crm systems" AND "open source"</t>
+  </si>
+  <si>
+    <t>framework for customer relationship management AND "Event Management"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer relationship management model AND "CRM solution" </t>
+  </si>
+  <si>
+    <t>zu sehr eingeschränkt</t>
+  </si>
+  <si>
+    <t>communication technology on customer relationship management</t>
+  </si>
+  <si>
+    <t>customer relationship management AND "key components"</t>
+  </si>
 </sst>
 </file>
 
@@ -170,23 +200,27 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4522,8 +4556,8 @@
   </sheetPr>
   <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4621,7 +4655,7 @@
         <v>3910</v>
       </c>
       <c r="E12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>10</v>
@@ -4852,7 +4886,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="15">
-        <v>43544</v>
+        <v>43543</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>36</v>
@@ -4868,59 +4902,135 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="15">
+        <v>43547</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1340000</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="15">
+        <v>43547</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4820</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="15">
+        <v>43547</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="15">
+        <v>43547</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="7">
+        <v>32</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="15">
+        <v>43547</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="7">
+        <v>18</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>43547</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="7">
+        <v>75</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="15">
+        <v>43547</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5700</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -4975,10 +5085,16 @@
     <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/" xr:uid="{B5F8B7C0-0066-476E-956D-ACBB50D5F29E}"/>
     <hyperlink ref="A23" r:id="rId9" xr:uid="{215A6281-22D1-41B5-82DA-B66958A01496}"/>
     <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/" xr:uid="{F7BC3736-693B-481A-96FA-9B0C2713AA44}"/>
+    <hyperlink ref="A25" r:id="rId11" xr:uid="{C48FED01-4418-4EDD-B999-D34ED3DEEDF5}"/>
+    <hyperlink ref="A26" r:id="rId12" xr:uid="{016852AF-3EF8-4A18-83BD-9E109E65E922}"/>
+    <hyperlink ref="A27" r:id="rId13" xr:uid="{11C3A422-177F-422C-8BA2-C528C02BEA11}"/>
+    <hyperlink ref="A28" r:id="rId14" xr:uid="{5952C5A5-E903-475D-9E30-4B41D2C180BF}"/>
+    <hyperlink ref="A29" r:id="rId15" xr:uid="{9C307AF7-A80C-4AD9-ACD6-3AA112E28B30}"/>
+    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at" xr:uid="{58416EBB-3A87-4937-BD72-753F6038922F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36891596-32B3-45D1-999B-B297785BE311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Merisa" sheetId="2" r:id="rId4"/>
     <sheet name="Milos" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="72">
   <si>
     <t>Name:</t>
   </si>
@@ -181,17 +180,83 @@
   </si>
   <si>
     <t>customer relationship management AND "key components"</t>
+  </si>
+  <si>
+    <t>non-profit sector</t>
+  </si>
+  <si>
+    <t>keine Rede von Software</t>
+  </si>
+  <si>
+    <t>keine Relevanz zum Thema</t>
+  </si>
+  <si>
+    <t>software for/in non profit sector</t>
+  </si>
+  <si>
+    <t>open source software</t>
+  </si>
+  <si>
+    <t>open source CRM software</t>
+  </si>
+  <si>
+    <t>make or buy software</t>
+  </si>
+  <si>
+    <t>make or buy CRM software</t>
+  </si>
+  <si>
+    <t>Article: The emergance of openness in open-source projects</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Customer relationship management and firm performance</t>
+  </si>
+  <si>
+    <t>Article: Factors affecting the buy vs build decision in large Australian organizations</t>
+  </si>
+  <si>
+    <t>open soruce software</t>
+  </si>
+  <si>
+    <t>Article: Reuse in Open Source Software</t>
+  </si>
+  <si>
+    <t>Article: Open Source Software and Firm productivity</t>
+  </si>
+  <si>
+    <t>Article: The Promise of Research on Open source software</t>
+  </si>
+  <si>
+    <t>non profit sector</t>
+  </si>
+  <si>
+    <t>software in non profit sector</t>
+  </si>
+  <si>
+    <t>Jurnal of Information Technology</t>
+  </si>
+  <si>
+    <t>Information System Research</t>
+  </si>
+  <si>
+    <t>Jurnal of Management Information Systems</t>
+  </si>
+  <si>
+    <t>misquarterly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -233,6 +298,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -265,12 +336,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -302,10 +555,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,7 +610,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -374,7 +649,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -413,7 +688,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -456,7 +731,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -495,7 +770,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,7 +1090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -825,11 +1100,11 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="67.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -845,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1017,7 +1292,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1025,7 +1300,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1033,7 +1308,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1041,7 +1316,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1049,7 +1324,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1057,7 +1332,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1065,7 +1340,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1073,7 +1348,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1088,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1098,12 +1373,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="61.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1566,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1299,7 +1574,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1307,7 +1582,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1315,7 +1590,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1323,7 +1598,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1331,7 +1606,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1339,7 +1614,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1347,7 +1622,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1362,24 +1637,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="122.5546875" customWidth="1"/>
+    <col min="1" max="1" width="36.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="35.36328125" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="132.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1415,7 +1690,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1436,198 +1711,425 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6">
+        <v>23636</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1889</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="12">
+        <v>11683</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="12">
+        <v>71</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="12">
+        <v>33822</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="12">
+        <v>138</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="12">
+        <v>375</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="12">
+        <v>43</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="12">
+        <v>130</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="12">
+        <v>105</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="12">
+        <v>267</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="12">
+        <v>15</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1445</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="7">
+        <v>551</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1727</v>
+      </c>
+      <c r="E24" s="22">
+        <v>3</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="13"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="29" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="36"/>
       <c r="C27" s="13"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A28" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1652</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5">
+        <v>43543</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="5">
+        <v>43543</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="7">
+        <v>152</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="7">
+        <v>9268</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="13"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13"/>
@@ -1635,7 +2137,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="13"/>
@@ -1643,7 +2145,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
@@ -1651,2921 +2153,2922 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C232" s="8"/>
     </row>
-    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C233" s="8"/>
     </row>
-    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C234" s="8"/>
     </row>
-    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C235" s="8"/>
     </row>
-    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C238" s="8"/>
     </row>
-    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C239" s="8"/>
     </row>
-    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C240" s="8"/>
     </row>
-    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C243" s="8"/>
     </row>
-    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C244" s="8"/>
     </row>
-    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C245" s="8"/>
     </row>
-    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C246" s="8"/>
     </row>
-    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C247" s="8"/>
     </row>
-    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C250" s="8"/>
     </row>
-    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C251" s="8"/>
     </row>
-    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C252" s="8"/>
     </row>
-    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C253" s="8"/>
     </row>
-    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C254" s="8"/>
     </row>
-    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C255" s="8"/>
     </row>
-    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C256" s="8"/>
     </row>
-    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C259" s="8"/>
     </row>
-    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C260" s="8"/>
     </row>
-    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C264" s="8"/>
     </row>
-    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C280" s="8"/>
     </row>
-    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C282" s="8"/>
     </row>
-    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C284" s="8"/>
     </row>
-    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C286" s="8"/>
     </row>
-    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C287" s="8"/>
     </row>
-    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C288" s="8"/>
     </row>
-    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C289" s="8"/>
     </row>
-    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C290" s="8"/>
     </row>
-    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C292" s="8"/>
     </row>
-    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C293" s="8"/>
     </row>
-    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C296" s="8"/>
     </row>
-    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C297" s="8"/>
     </row>
-    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C298" s="8"/>
     </row>
-    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C299" s="8"/>
     </row>
-    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C300" s="8"/>
     </row>
-    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C301" s="8"/>
     </row>
-    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C302" s="8"/>
     </row>
-    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C303" s="8"/>
     </row>
-    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C304" s="8"/>
     </row>
-    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C305" s="8"/>
     </row>
-    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C306" s="8"/>
     </row>
-    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C307" s="8"/>
     </row>
-    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C308" s="8"/>
     </row>
-    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C309" s="8"/>
     </row>
-    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C310" s="8"/>
     </row>
-    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C311" s="8"/>
     </row>
-    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C312" s="8"/>
     </row>
-    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C313" s="8"/>
     </row>
-    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C314" s="8"/>
     </row>
-    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C315" s="8"/>
     </row>
-    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C316" s="8"/>
     </row>
-    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C317" s="8"/>
     </row>
-    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C318" s="8"/>
     </row>
-    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C319" s="8"/>
     </row>
-    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C320" s="8"/>
     </row>
-    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C321" s="8"/>
     </row>
-    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C322" s="8"/>
     </row>
-    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C323" s="8"/>
     </row>
-    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C324" s="8"/>
     </row>
-    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C325" s="8"/>
     </row>
-    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C326" s="8"/>
     </row>
-    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C327" s="8"/>
     </row>
-    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C328" s="8"/>
     </row>
-    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C329" s="8"/>
     </row>
-    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C330" s="8"/>
     </row>
-    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C331" s="8"/>
     </row>
-    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C332" s="8"/>
     </row>
-    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C333" s="8"/>
     </row>
-    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C336" s="8"/>
     </row>
-    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C337" s="8"/>
     </row>
-    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C338" s="8"/>
     </row>
-    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C339" s="8"/>
     </row>
-    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C340" s="8"/>
     </row>
-    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C341" s="8"/>
     </row>
-    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C342" s="8"/>
     </row>
-    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C343" s="8"/>
     </row>
-    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C346" s="8"/>
     </row>
-    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C347" s="8"/>
     </row>
-    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C348" s="8"/>
     </row>
-    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C349" s="8"/>
     </row>
-    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C350" s="8"/>
     </row>
-    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C351" s="8"/>
     </row>
-    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C352" s="8"/>
     </row>
-    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C353" s="8"/>
     </row>
-    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C356" s="8"/>
     </row>
-    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C357" s="8"/>
     </row>
-    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C358" s="8"/>
     </row>
-    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C359" s="8"/>
     </row>
-    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C361" s="8"/>
     </row>
-    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C362" s="8"/>
     </row>
-    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C363" s="8"/>
     </row>
-    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C364" s="8"/>
     </row>
-    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C365" s="8"/>
     </row>
-    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C366" s="8"/>
     </row>
-    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C367" s="8"/>
     </row>
-    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C368" s="8"/>
     </row>
-    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C369" s="8"/>
     </row>
-    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C370" s="8"/>
     </row>
-    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C371" s="8"/>
     </row>
-    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C372" s="8"/>
     </row>
-    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C373" s="8"/>
     </row>
-    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C374" s="8"/>
     </row>
-    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C375" s="8"/>
     </row>
-    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C376" s="8"/>
     </row>
-    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C377" s="8"/>
     </row>
-    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C378" s="8"/>
     </row>
-    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C379" s="8"/>
     </row>
-    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C380" s="8"/>
     </row>
-    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C381" s="8"/>
     </row>
-    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C382" s="8"/>
     </row>
-    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C383" s="8"/>
     </row>
-    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C384" s="8"/>
     </row>
-    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C385" s="8"/>
     </row>
-    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C386" s="8"/>
     </row>
-    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C387" s="8"/>
     </row>
-    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C388" s="8"/>
     </row>
-    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C389" s="8"/>
     </row>
-    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C390" s="8"/>
     </row>
-    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C392" s="8"/>
     </row>
-    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C393" s="8"/>
     </row>
-    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C394" s="8"/>
     </row>
-    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C395" s="8"/>
     </row>
-    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C396" s="8"/>
     </row>
-    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C397" s="8"/>
     </row>
-    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C398" s="8"/>
     </row>
-    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C399" s="8"/>
     </row>
-    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C402" s="8"/>
     </row>
-    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C403" s="8"/>
     </row>
-    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C404" s="8"/>
     </row>
-    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C405" s="8"/>
     </row>
-    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C406" s="8"/>
     </row>
-    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C407" s="8"/>
     </row>
-    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C410" s="8"/>
     </row>
-    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C411" s="8"/>
     </row>
-    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C412" s="8"/>
     </row>
-    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C413" s="8"/>
     </row>
-    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C414" s="8"/>
     </row>
-    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C415" s="8"/>
     </row>
-    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C416" s="8"/>
     </row>
-    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C417" s="8"/>
     </row>
-    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C418" s="8"/>
     </row>
-    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C419" s="8"/>
     </row>
-    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C420" s="8"/>
     </row>
-    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C421" s="8"/>
     </row>
-    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C422" s="8"/>
     </row>
-    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C423" s="8"/>
     </row>
-    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C424" s="8"/>
     </row>
-    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C425" s="8"/>
     </row>
-    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C426" s="8"/>
     </row>
-    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C427" s="8"/>
     </row>
-    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C428" s="8"/>
     </row>
-    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C429" s="8"/>
     </row>
-    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C430" s="8"/>
     </row>
-    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C431" s="8"/>
     </row>
-    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C432" s="8"/>
     </row>
-    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C433" s="8"/>
     </row>
-    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C434" s="8"/>
     </row>
-    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C435" s="8"/>
     </row>
-    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C436" s="8"/>
     </row>
-    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C437" s="8"/>
     </row>
-    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C438" s="8"/>
     </row>
-    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C439" s="8"/>
     </row>
-    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C440" s="8"/>
     </row>
-    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C441" s="8"/>
     </row>
-    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C442" s="8"/>
     </row>
-    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C443" s="8"/>
     </row>
-    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C444" s="8"/>
     </row>
-    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C445" s="8"/>
     </row>
-    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C446" s="8"/>
     </row>
-    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C447" s="8"/>
     </row>
-    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C448" s="8"/>
     </row>
-    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C449" s="8"/>
     </row>
-    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C450" s="8"/>
     </row>
-    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C451" s="8"/>
     </row>
-    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C452" s="8"/>
     </row>
-    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C453" s="8"/>
     </row>
-    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C454" s="8"/>
     </row>
-    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C455" s="8"/>
     </row>
-    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C456" s="8"/>
     </row>
-    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C457" s="8"/>
     </row>
-    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C458" s="8"/>
     </row>
-    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C459" s="8"/>
     </row>
-    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C460" s="8"/>
     </row>
-    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C461" s="8"/>
     </row>
-    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C462" s="8"/>
     </row>
-    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C463" s="8"/>
     </row>
-    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C464" s="8"/>
     </row>
-    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C465" s="8"/>
     </row>
-    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C466" s="8"/>
     </row>
-    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C467" s="8"/>
     </row>
-    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C468" s="8"/>
     </row>
-    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C469" s="8"/>
     </row>
-    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C472" s="8"/>
     </row>
-    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C473" s="8"/>
     </row>
-    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C474" s="8"/>
     </row>
-    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C475" s="8"/>
     </row>
-    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C476" s="8"/>
     </row>
-    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C477" s="8"/>
     </row>
-    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C479" s="8"/>
     </row>
-    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C480" s="8"/>
     </row>
-    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C535" s="8"/>
     </row>
-    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C536" s="8"/>
     </row>
-    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C537" s="8"/>
     </row>
-    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C538" s="8"/>
     </row>
-    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C539" s="8"/>
     </row>
-    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C540" s="8"/>
     </row>
-    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C541" s="8"/>
     </row>
-    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C542" s="8"/>
     </row>
-    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C543" s="8"/>
     </row>
-    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C544" s="8"/>
     </row>
-    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C545" s="8"/>
     </row>
-    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C546" s="8"/>
     </row>
-    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C547" s="8"/>
     </row>
-    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C548" s="8"/>
     </row>
-    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C549" s="8"/>
     </row>
-    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C550" s="8"/>
     </row>
-    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C551" s="8"/>
     </row>
-    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C552" s="8"/>
     </row>
-    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C553" s="8"/>
     </row>
-    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C554" s="8"/>
     </row>
-    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C555" s="8"/>
     </row>
-    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C556" s="8"/>
     </row>
-    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C557" s="8"/>
     </row>
-    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C558" s="8"/>
     </row>
-    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C559" s="8"/>
     </row>
-    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C560" s="8"/>
     </row>
-    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C561" s="8"/>
     </row>
-    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C562" s="8"/>
     </row>
-    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C563" s="8"/>
     </row>
-    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C564" s="8"/>
     </row>
-    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C565" s="8"/>
     </row>
-    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C566" s="8"/>
     </row>
-    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C567" s="8"/>
     </row>
-    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C568" s="8"/>
     </row>
-    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C569" s="8"/>
     </row>
-    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C570" s="8"/>
     </row>
-    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C571" s="8"/>
     </row>
-    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C572" s="8"/>
     </row>
-    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C573" s="8"/>
     </row>
-    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C574" s="8"/>
     </row>
-    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C575" s="8"/>
     </row>
-    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C576" s="8"/>
     </row>
-    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C577" s="8"/>
     </row>
-    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C578" s="8"/>
     </row>
-    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C579" s="8"/>
     </row>
-    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C580" s="8"/>
     </row>
-    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C581" s="8"/>
     </row>
-    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C582" s="8"/>
     </row>
-    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C583" s="8"/>
     </row>
-    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C584" s="8"/>
     </row>
-    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C585" s="8"/>
     </row>
-    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C586" s="8"/>
     </row>
-    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C587" s="8"/>
     </row>
-    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C588" s="8"/>
     </row>
-    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C589" s="8"/>
     </row>
-    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C590" s="8"/>
     </row>
-    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C591" s="8"/>
     </row>
-    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C592" s="8"/>
     </row>
-    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C593" s="8"/>
     </row>
-    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C594" s="8"/>
     </row>
-    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C595" s="8"/>
     </row>
-    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C596" s="8"/>
     </row>
-    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C597" s="8"/>
     </row>
-    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C598" s="8"/>
     </row>
-    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C599" s="8"/>
     </row>
-    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C600" s="8"/>
     </row>
-    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C601" s="8"/>
     </row>
-    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C602" s="8"/>
     </row>
-    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C603" s="8"/>
     </row>
-    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C604" s="8"/>
     </row>
-    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C605" s="8"/>
     </row>
-    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C606" s="8"/>
     </row>
-    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C607" s="8"/>
     </row>
-    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C608" s="8"/>
     </row>
-    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C609" s="8"/>
     </row>
-    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C610" s="8"/>
     </row>
-    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C611" s="8"/>
     </row>
-    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C612" s="8"/>
     </row>
-    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C613" s="8"/>
     </row>
-    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C614" s="8"/>
     </row>
-    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C615" s="8"/>
     </row>
-    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C616" s="8"/>
     </row>
-    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C617" s="8"/>
     </row>
-    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C618" s="8"/>
     </row>
-    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C619" s="8"/>
     </row>
-    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C620" s="8"/>
     </row>
-    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C621" s="8"/>
     </row>
-    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C622" s="8"/>
     </row>
-    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C623" s="8"/>
     </row>
-    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C624" s="8"/>
     </row>
-    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C625" s="8"/>
     </row>
-    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C626" s="8"/>
     </row>
-    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C627" s="8"/>
     </row>
-    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C628" s="8"/>
     </row>
-    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C629" s="8"/>
     </row>
-    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C630" s="8"/>
     </row>
-    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C631" s="8"/>
     </row>
-    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C632" s="8"/>
     </row>
-    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C633" s="8"/>
     </row>
-    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C634" s="8"/>
     </row>
-    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C635" s="8"/>
     </row>
-    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C636" s="8"/>
     </row>
-    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C637" s="8"/>
     </row>
-    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C638" s="8"/>
     </row>
-    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C639" s="8"/>
     </row>
-    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C640" s="8"/>
     </row>
-    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C641" s="8"/>
     </row>
-    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C642" s="8"/>
     </row>
-    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C643" s="8"/>
     </row>
-    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C644" s="8"/>
     </row>
-    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C645" s="8"/>
     </row>
-    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C646" s="8"/>
     </row>
-    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C647" s="8"/>
     </row>
-    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C648" s="8"/>
     </row>
-    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C649" s="8"/>
     </row>
-    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C650" s="8"/>
     </row>
-    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C651" s="8"/>
     </row>
-    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C652" s="8"/>
     </row>
-    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C653" s="8"/>
     </row>
-    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C654" s="8"/>
     </row>
-    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C655" s="8"/>
     </row>
-    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C656" s="8"/>
     </row>
-    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C657" s="8"/>
     </row>
-    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C658" s="8"/>
     </row>
-    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C659" s="8"/>
     </row>
-    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C660" s="8"/>
     </row>
-    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C661" s="8"/>
     </row>
-    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C662" s="8"/>
     </row>
-    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C663" s="8"/>
     </row>
-    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C664" s="8"/>
     </row>
-    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C665" s="8"/>
     </row>
-    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C666" s="8"/>
     </row>
-    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C667" s="8"/>
     </row>
-    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C668" s="8"/>
     </row>
-    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C669" s="8"/>
     </row>
-    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C670" s="8"/>
     </row>
-    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C671" s="8"/>
     </row>
-    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C672" s="8"/>
     </row>
-    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C673" s="8"/>
     </row>
-    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C674" s="8"/>
     </row>
-    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C675" s="8"/>
     </row>
-    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C676" s="8"/>
     </row>
-    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C677" s="8"/>
     </row>
-    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C678" s="8"/>
     </row>
-    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C679" s="8"/>
     </row>
-    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C680" s="8"/>
     </row>
-    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C681" s="8"/>
     </row>
-    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C682" s="8"/>
     </row>
-    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C683" s="8"/>
     </row>
-    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C684" s="8"/>
     </row>
-    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C685" s="8"/>
     </row>
-    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C686" s="8"/>
     </row>
-    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C687" s="8"/>
     </row>
-    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C688" s="8"/>
     </row>
-    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C689" s="8"/>
     </row>
-    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C690" s="8"/>
     </row>
-    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C691" s="8"/>
     </row>
-    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C692" s="8"/>
     </row>
-    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C693" s="8"/>
     </row>
-    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C694" s="8"/>
     </row>
-    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C695" s="8"/>
     </row>
-    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C696" s="8"/>
     </row>
-    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C697" s="8"/>
     </row>
-    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C698" s="8"/>
     </row>
-    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C699" s="8"/>
     </row>
-    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C700" s="8"/>
     </row>
-    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C701" s="8"/>
     </row>
-    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C702" s="8"/>
     </row>
-    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C703" s="8"/>
     </row>
-    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C704" s="8"/>
     </row>
-    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C705" s="8"/>
     </row>
-    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C706" s="8"/>
     </row>
-    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C707" s="8"/>
     </row>
-    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C708" s="8"/>
     </row>
-    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C709" s="8"/>
     </row>
-    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C710" s="8"/>
     </row>
-    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C711" s="8"/>
     </row>
-    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C712" s="8"/>
     </row>
-    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C713" s="8"/>
     </row>
-    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C714" s="8"/>
     </row>
-    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C715" s="8"/>
     </row>
-    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C716" s="8"/>
     </row>
-    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C717" s="8"/>
     </row>
-    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C718" s="8"/>
     </row>
-    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C719" s="8"/>
     </row>
-    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C720" s="8"/>
     </row>
-    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C721" s="8"/>
     </row>
-    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C722" s="8"/>
     </row>
-    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C723" s="8"/>
     </row>
-    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C724" s="8"/>
     </row>
-    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C725" s="8"/>
     </row>
-    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C726" s="8"/>
     </row>
-    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C727" s="8"/>
     </row>
-    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C728" s="8"/>
     </row>
-    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C729" s="8"/>
     </row>
-    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C730" s="8"/>
     </row>
-    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C731" s="8"/>
     </row>
-    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C732" s="8"/>
     </row>
-    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C733" s="8"/>
     </row>
-    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C734" s="8"/>
     </row>
-    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C735" s="8"/>
     </row>
-    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C736" s="8"/>
     </row>
-    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C737" s="8"/>
     </row>
-    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C738" s="8"/>
     </row>
-    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C739" s="8"/>
     </row>
-    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C740" s="8"/>
     </row>
-    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C741" s="8"/>
     </row>
-    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C742" s="8"/>
     </row>
-    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C743" s="8"/>
     </row>
-    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C744" s="8"/>
     </row>
-    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C745" s="8"/>
     </row>
-    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C746" s="8"/>
     </row>
-    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C747" s="8"/>
     </row>
-    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C748" s="8"/>
     </row>
-    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C749" s="8"/>
     </row>
-    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C750" s="8"/>
     </row>
-    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C751" s="8"/>
     </row>
-    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C752" s="8"/>
     </row>
-    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C753" s="8"/>
     </row>
-    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C754" s="8"/>
     </row>
-    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C755" s="8"/>
     </row>
-    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C756" s="8"/>
     </row>
-    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C757" s="8"/>
     </row>
-    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C758" s="8"/>
     </row>
-    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C759" s="8"/>
     </row>
-    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C760" s="8"/>
     </row>
-    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C761" s="8"/>
     </row>
-    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C762" s="8"/>
     </row>
-    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C763" s="8"/>
     </row>
-    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C764" s="8"/>
     </row>
-    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C765" s="8"/>
     </row>
-    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C766" s="8"/>
     </row>
-    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C767" s="8"/>
     </row>
-    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C768" s="8"/>
     </row>
-    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C769" s="8"/>
     </row>
-    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C770" s="8"/>
     </row>
-    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C771" s="8"/>
     </row>
-    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C772" s="8"/>
     </row>
-    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C773" s="8"/>
     </row>
-    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C774" s="8"/>
     </row>
-    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C775" s="8"/>
     </row>
-    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C776" s="8"/>
     </row>
-    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C777" s="8"/>
     </row>
-    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C778" s="8"/>
     </row>
-    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C779" s="8"/>
     </row>
-    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C780" s="8"/>
     </row>
-    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C781" s="8"/>
     </row>
-    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C782" s="8"/>
     </row>
-    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C783" s="8"/>
     </row>
-    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C784" s="8"/>
     </row>
-    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C785" s="8"/>
     </row>
-    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C786" s="8"/>
     </row>
-    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C787" s="8"/>
     </row>
-    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C788" s="8"/>
     </row>
-    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C789" s="8"/>
     </row>
-    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C790" s="8"/>
     </row>
-    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C791" s="8"/>
     </row>
-    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C792" s="8"/>
     </row>
-    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C793" s="8"/>
     </row>
-    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C794" s="8"/>
     </row>
-    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C795" s="8"/>
     </row>
-    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C796" s="8"/>
     </row>
-    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C797" s="8"/>
     </row>
-    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C798" s="8"/>
     </row>
-    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C799" s="8"/>
     </row>
-    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C800" s="8"/>
     </row>
-    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C801" s="8"/>
     </row>
-    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C802" s="8"/>
     </row>
-    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C803" s="8"/>
     </row>
-    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C804" s="8"/>
     </row>
-    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C805" s="8"/>
     </row>
-    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C806" s="8"/>
     </row>
-    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C807" s="8"/>
     </row>
-    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C808" s="8"/>
     </row>
-    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C809" s="8"/>
     </row>
-    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C810" s="8"/>
     </row>
-    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C811" s="8"/>
     </row>
-    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C812" s="8"/>
     </row>
-    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C813" s="8"/>
     </row>
-    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C814" s="8"/>
     </row>
-    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C815" s="8"/>
     </row>
-    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C816" s="8"/>
     </row>
-    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C817" s="8"/>
     </row>
-    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C818" s="8"/>
     </row>
-    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C819" s="8"/>
     </row>
-    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C820" s="8"/>
     </row>
-    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C821" s="8"/>
     </row>
-    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C822" s="8"/>
     </row>
-    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C823" s="8"/>
     </row>
-    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C824" s="8"/>
     </row>
-    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C825" s="8"/>
     </row>
-    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C826" s="8"/>
     </row>
-    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C827" s="8"/>
     </row>
-    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C828" s="8"/>
     </row>
-    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C829" s="8"/>
     </row>
-    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C830" s="8"/>
     </row>
-    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C831" s="8"/>
     </row>
-    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C832" s="8"/>
     </row>
-    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C833" s="8"/>
     </row>
-    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C834" s="8"/>
     </row>
-    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C835" s="8"/>
     </row>
-    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C836" s="8"/>
     </row>
-    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C837" s="8"/>
     </row>
-    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C838" s="8"/>
     </row>
-    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C839" s="8"/>
     </row>
-    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C840" s="8"/>
     </row>
-    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C841" s="8"/>
     </row>
-    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C842" s="8"/>
     </row>
-    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C843" s="8"/>
     </row>
-    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C844" s="8"/>
     </row>
-    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C845" s="8"/>
     </row>
-    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C846" s="8"/>
     </row>
-    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C847" s="8"/>
     </row>
-    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C848" s="8"/>
     </row>
-    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C849" s="8"/>
     </row>
-    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C850" s="8"/>
     </row>
-    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C851" s="8"/>
     </row>
-    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C852" s="8"/>
     </row>
-    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C853" s="8"/>
     </row>
-    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C854" s="8"/>
     </row>
-    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C855" s="8"/>
     </row>
-    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C856" s="8"/>
     </row>
-    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C857" s="8"/>
     </row>
-    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C858" s="8"/>
     </row>
-    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C859" s="8"/>
     </row>
-    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C860" s="8"/>
     </row>
-    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C861" s="8"/>
     </row>
-    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C862" s="8"/>
     </row>
-    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C863" s="8"/>
     </row>
-    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C864" s="8"/>
     </row>
-    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C865" s="8"/>
     </row>
-    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C866" s="8"/>
     </row>
-    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C867" s="8"/>
     </row>
-    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C868" s="8"/>
     </row>
-    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C869" s="8"/>
     </row>
-    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C870" s="8"/>
     </row>
-    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C871" s="8"/>
     </row>
-    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C872" s="8"/>
     </row>
-    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C873" s="8"/>
     </row>
-    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C874" s="8"/>
     </row>
-    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C875" s="8"/>
     </row>
-    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C876" s="8"/>
     </row>
-    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C877" s="8"/>
     </row>
-    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C878" s="8"/>
     </row>
-    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C879" s="8"/>
     </row>
-    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C880" s="8"/>
     </row>
-    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C881" s="8"/>
     </row>
-    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C882" s="8"/>
     </row>
-    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C883" s="8"/>
     </row>
-    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C884" s="8"/>
     </row>
-    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C885" s="8"/>
     </row>
-    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C886" s="8"/>
     </row>
-    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C887" s="8"/>
     </row>
-    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C888" s="8"/>
     </row>
-    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C889" s="8"/>
     </row>
-    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C890" s="8"/>
     </row>
-    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C891" s="8"/>
     </row>
-    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C892" s="8"/>
     </row>
-    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C893" s="8"/>
     </row>
-    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C894" s="8"/>
     </row>
-    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C895" s="8"/>
     </row>
-    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C896" s="8"/>
     </row>
-    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C897" s="8"/>
     </row>
-    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C898" s="8"/>
     </row>
-    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C899" s="8"/>
     </row>
-    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C900" s="8"/>
     </row>
-    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C901" s="8"/>
     </row>
-    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C902" s="8"/>
     </row>
-    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C903" s="8"/>
     </row>
-    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C904" s="8"/>
     </row>
-    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C905" s="8"/>
     </row>
-    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C906" s="8"/>
     </row>
-    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C907" s="8"/>
     </row>
-    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C908" s="8"/>
     </row>
-    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C909" s="8"/>
     </row>
-    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C910" s="8"/>
     </row>
-    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C911" s="8"/>
     </row>
-    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C912" s="8"/>
     </row>
-    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C913" s="8"/>
     </row>
-    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C914" s="8"/>
     </row>
-    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C915" s="8"/>
     </row>
-    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C916" s="8"/>
     </row>
-    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C917" s="8"/>
     </row>
-    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C918" s="8"/>
     </row>
-    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C919" s="8"/>
     </row>
-    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C920" s="8"/>
     </row>
-    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C921" s="8"/>
     </row>
-    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C922" s="8"/>
     </row>
-    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C923" s="8"/>
     </row>
-    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C924" s="8"/>
     </row>
-    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C925" s="8"/>
     </row>
-    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C926" s="8"/>
     </row>
-    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C927" s="8"/>
     </row>
-    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C928" s="8"/>
     </row>
-    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C929" s="8"/>
     </row>
-    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C930" s="8"/>
     </row>
-    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C931" s="8"/>
     </row>
-    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C932" s="8"/>
     </row>
-    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C933" s="8"/>
     </row>
-    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C934" s="8"/>
     </row>
-    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C935" s="8"/>
     </row>
-    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C936" s="8"/>
     </row>
-    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C937" s="8"/>
     </row>
-    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C938" s="8"/>
     </row>
-    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C939" s="8"/>
     </row>
-    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C940" s="8"/>
     </row>
-    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C941" s="8"/>
     </row>
-    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C942" s="8"/>
     </row>
-    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C943" s="8"/>
     </row>
-    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C944" s="8"/>
     </row>
-    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C945" s="8"/>
     </row>
-    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C946" s="8"/>
     </row>
-    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C947" s="8"/>
     </row>
-    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C948" s="8"/>
     </row>
-    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C949" s="8"/>
     </row>
-    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C950" s="8"/>
     </row>
-    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C951" s="8"/>
     </row>
-    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C952" s="8"/>
     </row>
-    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C953" s="8"/>
     </row>
-    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C954" s="8"/>
     </row>
-    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C955" s="8"/>
     </row>
-    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C956" s="8"/>
     </row>
-    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C957" s="8"/>
     </row>
-    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C958" s="8"/>
     </row>
-    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C959" s="8"/>
     </row>
-    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C960" s="8"/>
     </row>
-    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C961" s="8"/>
     </row>
-    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C962" s="8"/>
     </row>
-    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C963" s="8"/>
     </row>
-    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C964" s="8"/>
     </row>
-    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C965" s="8"/>
     </row>
-    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C966" s="8"/>
     </row>
-    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C967" s="8"/>
     </row>
-    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C968" s="8"/>
     </row>
-    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C969" s="8"/>
     </row>
-    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C970" s="8"/>
     </row>
-    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C971" s="8"/>
     </row>
-    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C972" s="8"/>
     </row>
-    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C973" s="8"/>
     </row>
-    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C974" s="8"/>
     </row>
-    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C975" s="8"/>
     </row>
-    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C976" s="8"/>
     </row>
-    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C977" s="8"/>
     </row>
-    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C978" s="8"/>
     </row>
-    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C979" s="8"/>
     </row>
-    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C980" s="8"/>
     </row>
-    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C981" s="8"/>
     </row>
-    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C982" s="8"/>
     </row>
-    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C983" s="8"/>
     </row>
-    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C984" s="8"/>
     </row>
-    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C985" s="8"/>
     </row>
-    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C986" s="8"/>
     </row>
-    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C987" s="8"/>
     </row>
-    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C988" s="8"/>
     </row>
-    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C989" s="8"/>
     </row>
-    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C990" s="8"/>
     </row>
-    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C991" s="8"/>
     </row>
-    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C992" s="8"/>
     </row>
-    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C993" s="8"/>
     </row>
-    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C994" s="8"/>
     </row>
-    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C995" s="8"/>
     </row>
-    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C996" s="8"/>
     </row>
-    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C997" s="8"/>
     </row>
-    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C998" s="8"/>
     </row>
-    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C999" s="8"/>
     </row>
-    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C1000" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="71.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="57.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4581,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -4977,7 +5480,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -4997,7 +5500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -5015,7 +5518,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -5033,7 +5536,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5041,7 +5544,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -5049,7 +5552,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5057,7 +5560,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5065,7 +5568,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5075,22 +5578,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A13" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A14" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/" xr:uid="{C6AB1660-1E37-4BDC-89F5-2B0331ED6873}"/>
-    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/" xr:uid="{76E2B199-7625-4655-8CA8-F4AA1558FC07}"/>
-    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/" xr:uid="{B5F8B7C0-0066-476E-956D-ACBB50D5F29E}"/>
-    <hyperlink ref="A23" r:id="rId9" xr:uid="{215A6281-22D1-41B5-82DA-B66958A01496}"/>
-    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/" xr:uid="{F7BC3736-693B-481A-96FA-9B0C2713AA44}"/>
-    <hyperlink ref="A25" r:id="rId11" xr:uid="{C48FED01-4418-4EDD-B999-D34ED3DEEDF5}"/>
-    <hyperlink ref="A26" r:id="rId12" xr:uid="{016852AF-3EF8-4A18-83BD-9E109E65E922}"/>
-    <hyperlink ref="A27" r:id="rId13" xr:uid="{11C3A422-177F-422C-8BA2-C528C02BEA11}"/>
-    <hyperlink ref="A28" r:id="rId14" xr:uid="{5952C5A5-E903-475D-9E30-4B41D2C180BF}"/>
-    <hyperlink ref="A29" r:id="rId15" xr:uid="{9C307AF7-A80C-4AD9-ACD6-3AA112E28B30}"/>
-    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at" xr:uid="{58416EBB-3A87-4937-BD72-753F6038922F}"/>
+    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A12" r:id="rId3"/>
+    <hyperlink ref="A13" r:id="rId4"/>
+    <hyperlink ref="A14" r:id="rId5"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A23" r:id="rId9"/>
+    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A25" r:id="rId11"/>
+    <hyperlink ref="A26" r:id="rId12"/>
+    <hyperlink ref="A27" r:id="rId13"/>
+    <hyperlink ref="A28" r:id="rId14"/>
+    <hyperlink ref="A29" r:id="rId15"/>
+    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
@@ -5099,7 +5602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5109,12 +5612,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="56.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5131,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5303,7 +5806,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -5311,7 +5814,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -5319,7 +5822,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -5327,7 +5830,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5335,7 +5838,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -5343,7 +5846,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5351,7 +5854,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5359,7 +5862,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A4457D-CEFA-4058-ABE9-09B36B85C467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,6 @@
     <sheet name="Milos" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -251,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
@@ -579,8 +573,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -610,7 +604,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -649,7 +643,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -688,7 +682,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -731,7 +725,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -770,7 +764,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,7 +1084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1100,11 +1094,11 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="67.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1120,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1292,7 +1286,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1300,7 +1294,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1308,7 +1302,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1316,7 +1310,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1324,7 +1318,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1332,7 +1326,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1340,7 +1334,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1348,7 +1342,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1363,7 +1357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1373,12 +1367,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="61.6328125" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1566,7 +1560,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1574,7 +1568,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1582,7 +1576,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1590,7 +1584,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1598,7 +1592,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1606,7 +1600,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1614,7 +1608,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1622,7 +1616,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1637,24 +1631,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="35.36328125" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="132.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="132.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1690,7 +1684,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>69</v>
       </c>
@@ -2069,7 +2063,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>69</v>
       </c>
@@ -2081,7 +2075,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
@@ -2101,7 +2095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>70</v>
       </c>
@@ -2121,7 +2115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="15"/>
       <c r="C33" s="13"/>
@@ -2129,7 +2123,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13"/>
@@ -2137,7 +2131,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="13"/>
@@ -2145,7 +2139,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
@@ -2153,2896 +2147,2896 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C232" s="8"/>
     </row>
-    <row r="233" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C233" s="8"/>
     </row>
-    <row r="234" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C234" s="8"/>
     </row>
-    <row r="235" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C235" s="8"/>
     </row>
-    <row r="236" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C238" s="8"/>
     </row>
-    <row r="239" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C239" s="8"/>
     </row>
-    <row r="240" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C240" s="8"/>
     </row>
-    <row r="241" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C243" s="8"/>
     </row>
-    <row r="244" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C244" s="8"/>
     </row>
-    <row r="245" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C245" s="8"/>
     </row>
-    <row r="246" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C246" s="8"/>
     </row>
-    <row r="247" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C247" s="8"/>
     </row>
-    <row r="248" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C250" s="8"/>
     </row>
-    <row r="251" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C251" s="8"/>
     </row>
-    <row r="252" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C252" s="8"/>
     </row>
-    <row r="253" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C253" s="8"/>
     </row>
-    <row r="254" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C254" s="8"/>
     </row>
-    <row r="255" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C255" s="8"/>
     </row>
-    <row r="256" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C256" s="8"/>
     </row>
-    <row r="257" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C259" s="8"/>
     </row>
-    <row r="260" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C260" s="8"/>
     </row>
-    <row r="261" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C264" s="8"/>
     </row>
-    <row r="265" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C280" s="8"/>
     </row>
-    <row r="281" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C282" s="8"/>
     </row>
-    <row r="283" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C284" s="8"/>
     </row>
-    <row r="285" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C286" s="8"/>
     </row>
-    <row r="287" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C287" s="8"/>
     </row>
-    <row r="288" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C288" s="8"/>
     </row>
-    <row r="289" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C289" s="8"/>
     </row>
-    <row r="290" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C290" s="8"/>
     </row>
-    <row r="291" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C292" s="8"/>
     </row>
-    <row r="293" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C293" s="8"/>
     </row>
-    <row r="294" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C296" s="8"/>
     </row>
-    <row r="297" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C297" s="8"/>
     </row>
-    <row r="298" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C298" s="8"/>
     </row>
-    <row r="299" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C299" s="8"/>
     </row>
-    <row r="300" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C300" s="8"/>
     </row>
-    <row r="301" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C301" s="8"/>
     </row>
-    <row r="302" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C302" s="8"/>
     </row>
-    <row r="303" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C303" s="8"/>
     </row>
-    <row r="304" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C304" s="8"/>
     </row>
-    <row r="305" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C305" s="8"/>
     </row>
-    <row r="306" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C306" s="8"/>
     </row>
-    <row r="307" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C307" s="8"/>
     </row>
-    <row r="308" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C308" s="8"/>
     </row>
-    <row r="309" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C309" s="8"/>
     </row>
-    <row r="310" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C310" s="8"/>
     </row>
-    <row r="311" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C311" s="8"/>
     </row>
-    <row r="312" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C312" s="8"/>
     </row>
-    <row r="313" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C313" s="8"/>
     </row>
-    <row r="314" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C314" s="8"/>
     </row>
-    <row r="315" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C315" s="8"/>
     </row>
-    <row r="316" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C316" s="8"/>
     </row>
-    <row r="317" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C317" s="8"/>
     </row>
-    <row r="318" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C318" s="8"/>
     </row>
-    <row r="319" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C319" s="8"/>
     </row>
-    <row r="320" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C320" s="8"/>
     </row>
-    <row r="321" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C321" s="8"/>
     </row>
-    <row r="322" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C322" s="8"/>
     </row>
-    <row r="323" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C323" s="8"/>
     </row>
-    <row r="324" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C324" s="8"/>
     </row>
-    <row r="325" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C325" s="8"/>
     </row>
-    <row r="326" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C326" s="8"/>
     </row>
-    <row r="327" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C327" s="8"/>
     </row>
-    <row r="328" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C328" s="8"/>
     </row>
-    <row r="329" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C329" s="8"/>
     </row>
-    <row r="330" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C330" s="8"/>
     </row>
-    <row r="331" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C331" s="8"/>
     </row>
-    <row r="332" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C332" s="8"/>
     </row>
-    <row r="333" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C333" s="8"/>
     </row>
-    <row r="334" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C336" s="8"/>
     </row>
-    <row r="337" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C337" s="8"/>
     </row>
-    <row r="338" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C338" s="8"/>
     </row>
-    <row r="339" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C339" s="8"/>
     </row>
-    <row r="340" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C340" s="8"/>
     </row>
-    <row r="341" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C341" s="8"/>
     </row>
-    <row r="342" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C342" s="8"/>
     </row>
-    <row r="343" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C343" s="8"/>
     </row>
-    <row r="344" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C346" s="8"/>
     </row>
-    <row r="347" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C347" s="8"/>
     </row>
-    <row r="348" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C348" s="8"/>
     </row>
-    <row r="349" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C349" s="8"/>
     </row>
-    <row r="350" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C350" s="8"/>
     </row>
-    <row r="351" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C351" s="8"/>
     </row>
-    <row r="352" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C352" s="8"/>
     </row>
-    <row r="353" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C353" s="8"/>
     </row>
-    <row r="354" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C356" s="8"/>
     </row>
-    <row r="357" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C357" s="8"/>
     </row>
-    <row r="358" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C358" s="8"/>
     </row>
-    <row r="359" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C359" s="8"/>
     </row>
-    <row r="360" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C361" s="8"/>
     </row>
-    <row r="362" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C362" s="8"/>
     </row>
-    <row r="363" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C363" s="8"/>
     </row>
-    <row r="364" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C364" s="8"/>
     </row>
-    <row r="365" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C365" s="8"/>
     </row>
-    <row r="366" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C366" s="8"/>
     </row>
-    <row r="367" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C367" s="8"/>
     </row>
-    <row r="368" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C368" s="8"/>
     </row>
-    <row r="369" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C369" s="8"/>
     </row>
-    <row r="370" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C370" s="8"/>
     </row>
-    <row r="371" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C371" s="8"/>
     </row>
-    <row r="372" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C372" s="8"/>
     </row>
-    <row r="373" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C373" s="8"/>
     </row>
-    <row r="374" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C374" s="8"/>
     </row>
-    <row r="375" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C375" s="8"/>
     </row>
-    <row r="376" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C376" s="8"/>
     </row>
-    <row r="377" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C377" s="8"/>
     </row>
-    <row r="378" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C378" s="8"/>
     </row>
-    <row r="379" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C379" s="8"/>
     </row>
-    <row r="380" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C380" s="8"/>
     </row>
-    <row r="381" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C381" s="8"/>
     </row>
-    <row r="382" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C382" s="8"/>
     </row>
-    <row r="383" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C383" s="8"/>
     </row>
-    <row r="384" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C384" s="8"/>
     </row>
-    <row r="385" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C385" s="8"/>
     </row>
-    <row r="386" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C386" s="8"/>
     </row>
-    <row r="387" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C387" s="8"/>
     </row>
-    <row r="388" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C388" s="8"/>
     </row>
-    <row r="389" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C389" s="8"/>
     </row>
-    <row r="390" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C390" s="8"/>
     </row>
-    <row r="391" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C392" s="8"/>
     </row>
-    <row r="393" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C393" s="8"/>
     </row>
-    <row r="394" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C394" s="8"/>
     </row>
-    <row r="395" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C395" s="8"/>
     </row>
-    <row r="396" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C396" s="8"/>
     </row>
-    <row r="397" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C397" s="8"/>
     </row>
-    <row r="398" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C398" s="8"/>
     </row>
-    <row r="399" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C399" s="8"/>
     </row>
-    <row r="400" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C402" s="8"/>
     </row>
-    <row r="403" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C403" s="8"/>
     </row>
-    <row r="404" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C404" s="8"/>
     </row>
-    <row r="405" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C405" s="8"/>
     </row>
-    <row r="406" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C406" s="8"/>
     </row>
-    <row r="407" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C407" s="8"/>
     </row>
-    <row r="408" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C410" s="8"/>
     </row>
-    <row r="411" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C411" s="8"/>
     </row>
-    <row r="412" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C412" s="8"/>
     </row>
-    <row r="413" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C413" s="8"/>
     </row>
-    <row r="414" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C414" s="8"/>
     </row>
-    <row r="415" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C415" s="8"/>
     </row>
-    <row r="416" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C416" s="8"/>
     </row>
-    <row r="417" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C417" s="8"/>
     </row>
-    <row r="418" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C418" s="8"/>
     </row>
-    <row r="419" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C419" s="8"/>
     </row>
-    <row r="420" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C420" s="8"/>
     </row>
-    <row r="421" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C421" s="8"/>
     </row>
-    <row r="422" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C422" s="8"/>
     </row>
-    <row r="423" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C423" s="8"/>
     </row>
-    <row r="424" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C424" s="8"/>
     </row>
-    <row r="425" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C425" s="8"/>
     </row>
-    <row r="426" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C426" s="8"/>
     </row>
-    <row r="427" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C427" s="8"/>
     </row>
-    <row r="428" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C428" s="8"/>
     </row>
-    <row r="429" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C429" s="8"/>
     </row>
-    <row r="430" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C430" s="8"/>
     </row>
-    <row r="431" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C431" s="8"/>
     </row>
-    <row r="432" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C432" s="8"/>
     </row>
-    <row r="433" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C433" s="8"/>
     </row>
-    <row r="434" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C434" s="8"/>
     </row>
-    <row r="435" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C435" s="8"/>
     </row>
-    <row r="436" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C436" s="8"/>
     </row>
-    <row r="437" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C437" s="8"/>
     </row>
-    <row r="438" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C438" s="8"/>
     </row>
-    <row r="439" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C439" s="8"/>
     </row>
-    <row r="440" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C440" s="8"/>
     </row>
-    <row r="441" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C441" s="8"/>
     </row>
-    <row r="442" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C442" s="8"/>
     </row>
-    <row r="443" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C443" s="8"/>
     </row>
-    <row r="444" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C444" s="8"/>
     </row>
-    <row r="445" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C445" s="8"/>
     </row>
-    <row r="446" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C446" s="8"/>
     </row>
-    <row r="447" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C447" s="8"/>
     </row>
-    <row r="448" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C448" s="8"/>
     </row>
-    <row r="449" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C449" s="8"/>
     </row>
-    <row r="450" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C450" s="8"/>
     </row>
-    <row r="451" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C451" s="8"/>
     </row>
-    <row r="452" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C452" s="8"/>
     </row>
-    <row r="453" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C453" s="8"/>
     </row>
-    <row r="454" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C454" s="8"/>
     </row>
-    <row r="455" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C455" s="8"/>
     </row>
-    <row r="456" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C456" s="8"/>
     </row>
-    <row r="457" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C457" s="8"/>
     </row>
-    <row r="458" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C458" s="8"/>
     </row>
-    <row r="459" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C459" s="8"/>
     </row>
-    <row r="460" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C460" s="8"/>
     </row>
-    <row r="461" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C461" s="8"/>
     </row>
-    <row r="462" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C462" s="8"/>
     </row>
-    <row r="463" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C463" s="8"/>
     </row>
-    <row r="464" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C464" s="8"/>
     </row>
-    <row r="465" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C465" s="8"/>
     </row>
-    <row r="466" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C466" s="8"/>
     </row>
-    <row r="467" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C467" s="8"/>
     </row>
-    <row r="468" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C468" s="8"/>
     </row>
-    <row r="469" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C469" s="8"/>
     </row>
-    <row r="470" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C472" s="8"/>
     </row>
-    <row r="473" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C473" s="8"/>
     </row>
-    <row r="474" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C474" s="8"/>
     </row>
-    <row r="475" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C475" s="8"/>
     </row>
-    <row r="476" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C476" s="8"/>
     </row>
-    <row r="477" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C477" s="8"/>
     </row>
-    <row r="478" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C479" s="8"/>
     </row>
-    <row r="480" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C480" s="8"/>
     </row>
-    <row r="481" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C535" s="8"/>
     </row>
-    <row r="536" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C536" s="8"/>
     </row>
-    <row r="537" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C537" s="8"/>
     </row>
-    <row r="538" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C538" s="8"/>
     </row>
-    <row r="539" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C539" s="8"/>
     </row>
-    <row r="540" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C540" s="8"/>
     </row>
-    <row r="541" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C541" s="8"/>
     </row>
-    <row r="542" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C542" s="8"/>
     </row>
-    <row r="543" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C543" s="8"/>
     </row>
-    <row r="544" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C544" s="8"/>
     </row>
-    <row r="545" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C545" s="8"/>
     </row>
-    <row r="546" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C546" s="8"/>
     </row>
-    <row r="547" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C547" s="8"/>
     </row>
-    <row r="548" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C548" s="8"/>
     </row>
-    <row r="549" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C549" s="8"/>
     </row>
-    <row r="550" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C550" s="8"/>
     </row>
-    <row r="551" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C551" s="8"/>
     </row>
-    <row r="552" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C552" s="8"/>
     </row>
-    <row r="553" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C553" s="8"/>
     </row>
-    <row r="554" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C554" s="8"/>
     </row>
-    <row r="555" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C555" s="8"/>
     </row>
-    <row r="556" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C556" s="8"/>
     </row>
-    <row r="557" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C557" s="8"/>
     </row>
-    <row r="558" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C558" s="8"/>
     </row>
-    <row r="559" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C559" s="8"/>
     </row>
-    <row r="560" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C560" s="8"/>
     </row>
-    <row r="561" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C561" s="8"/>
     </row>
-    <row r="562" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C562" s="8"/>
     </row>
-    <row r="563" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C563" s="8"/>
     </row>
-    <row r="564" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C564" s="8"/>
     </row>
-    <row r="565" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C565" s="8"/>
     </row>
-    <row r="566" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C566" s="8"/>
     </row>
-    <row r="567" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C567" s="8"/>
     </row>
-    <row r="568" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C568" s="8"/>
     </row>
-    <row r="569" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C569" s="8"/>
     </row>
-    <row r="570" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C570" s="8"/>
     </row>
-    <row r="571" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C571" s="8"/>
     </row>
-    <row r="572" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C572" s="8"/>
     </row>
-    <row r="573" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C573" s="8"/>
     </row>
-    <row r="574" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C574" s="8"/>
     </row>
-    <row r="575" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C575" s="8"/>
     </row>
-    <row r="576" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C576" s="8"/>
     </row>
-    <row r="577" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C577" s="8"/>
     </row>
-    <row r="578" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C578" s="8"/>
     </row>
-    <row r="579" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C579" s="8"/>
     </row>
-    <row r="580" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C580" s="8"/>
     </row>
-    <row r="581" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C581" s="8"/>
     </row>
-    <row r="582" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C582" s="8"/>
     </row>
-    <row r="583" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C583" s="8"/>
     </row>
-    <row r="584" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C584" s="8"/>
     </row>
-    <row r="585" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C585" s="8"/>
     </row>
-    <row r="586" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C586" s="8"/>
     </row>
-    <row r="587" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C587" s="8"/>
     </row>
-    <row r="588" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C588" s="8"/>
     </row>
-    <row r="589" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C589" s="8"/>
     </row>
-    <row r="590" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C590" s="8"/>
     </row>
-    <row r="591" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C591" s="8"/>
     </row>
-    <row r="592" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C592" s="8"/>
     </row>
-    <row r="593" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C593" s="8"/>
     </row>
-    <row r="594" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C594" s="8"/>
     </row>
-    <row r="595" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C595" s="8"/>
     </row>
-    <row r="596" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C596" s="8"/>
     </row>
-    <row r="597" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C597" s="8"/>
     </row>
-    <row r="598" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C598" s="8"/>
     </row>
-    <row r="599" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C599" s="8"/>
     </row>
-    <row r="600" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C600" s="8"/>
     </row>
-    <row r="601" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C601" s="8"/>
     </row>
-    <row r="602" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C602" s="8"/>
     </row>
-    <row r="603" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C603" s="8"/>
     </row>
-    <row r="604" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C604" s="8"/>
     </row>
-    <row r="605" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C605" s="8"/>
     </row>
-    <row r="606" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C606" s="8"/>
     </row>
-    <row r="607" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C607" s="8"/>
     </row>
-    <row r="608" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C608" s="8"/>
     </row>
-    <row r="609" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C609" s="8"/>
     </row>
-    <row r="610" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C610" s="8"/>
     </row>
-    <row r="611" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C611" s="8"/>
     </row>
-    <row r="612" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C612" s="8"/>
     </row>
-    <row r="613" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C613" s="8"/>
     </row>
-    <row r="614" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C614" s="8"/>
     </row>
-    <row r="615" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C615" s="8"/>
     </row>
-    <row r="616" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C616" s="8"/>
     </row>
-    <row r="617" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C617" s="8"/>
     </row>
-    <row r="618" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C618" s="8"/>
     </row>
-    <row r="619" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C619" s="8"/>
     </row>
-    <row r="620" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C620" s="8"/>
     </row>
-    <row r="621" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C621" s="8"/>
     </row>
-    <row r="622" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C622" s="8"/>
     </row>
-    <row r="623" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C623" s="8"/>
     </row>
-    <row r="624" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C624" s="8"/>
     </row>
-    <row r="625" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C625" s="8"/>
     </row>
-    <row r="626" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C626" s="8"/>
     </row>
-    <row r="627" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C627" s="8"/>
     </row>
-    <row r="628" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C628" s="8"/>
     </row>
-    <row r="629" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C629" s="8"/>
     </row>
-    <row r="630" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C630" s="8"/>
     </row>
-    <row r="631" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C631" s="8"/>
     </row>
-    <row r="632" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C632" s="8"/>
     </row>
-    <row r="633" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C633" s="8"/>
     </row>
-    <row r="634" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C634" s="8"/>
     </row>
-    <row r="635" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C635" s="8"/>
     </row>
-    <row r="636" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C636" s="8"/>
     </row>
-    <row r="637" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C637" s="8"/>
     </row>
-    <row r="638" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C638" s="8"/>
     </row>
-    <row r="639" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C639" s="8"/>
     </row>
-    <row r="640" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C640" s="8"/>
     </row>
-    <row r="641" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C641" s="8"/>
     </row>
-    <row r="642" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C642" s="8"/>
     </row>
-    <row r="643" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C643" s="8"/>
     </row>
-    <row r="644" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C644" s="8"/>
     </row>
-    <row r="645" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C645" s="8"/>
     </row>
-    <row r="646" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C646" s="8"/>
     </row>
-    <row r="647" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C647" s="8"/>
     </row>
-    <row r="648" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C648" s="8"/>
     </row>
-    <row r="649" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C649" s="8"/>
     </row>
-    <row r="650" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C650" s="8"/>
     </row>
-    <row r="651" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C651" s="8"/>
     </row>
-    <row r="652" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C652" s="8"/>
     </row>
-    <row r="653" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C653" s="8"/>
     </row>
-    <row r="654" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C654" s="8"/>
     </row>
-    <row r="655" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C655" s="8"/>
     </row>
-    <row r="656" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C656" s="8"/>
     </row>
-    <row r="657" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C657" s="8"/>
     </row>
-    <row r="658" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C658" s="8"/>
     </row>
-    <row r="659" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C659" s="8"/>
     </row>
-    <row r="660" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C660" s="8"/>
     </row>
-    <row r="661" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C661" s="8"/>
     </row>
-    <row r="662" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C662" s="8"/>
     </row>
-    <row r="663" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C663" s="8"/>
     </row>
-    <row r="664" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C664" s="8"/>
     </row>
-    <row r="665" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C665" s="8"/>
     </row>
-    <row r="666" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C666" s="8"/>
     </row>
-    <row r="667" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C667" s="8"/>
     </row>
-    <row r="668" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C668" s="8"/>
     </row>
-    <row r="669" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C669" s="8"/>
     </row>
-    <row r="670" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C670" s="8"/>
     </row>
-    <row r="671" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C671" s="8"/>
     </row>
-    <row r="672" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C672" s="8"/>
     </row>
-    <row r="673" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C673" s="8"/>
     </row>
-    <row r="674" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C674" s="8"/>
     </row>
-    <row r="675" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C675" s="8"/>
     </row>
-    <row r="676" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C676" s="8"/>
     </row>
-    <row r="677" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C677" s="8"/>
     </row>
-    <row r="678" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C678" s="8"/>
     </row>
-    <row r="679" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C679" s="8"/>
     </row>
-    <row r="680" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C680" s="8"/>
     </row>
-    <row r="681" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C681" s="8"/>
     </row>
-    <row r="682" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C682" s="8"/>
     </row>
-    <row r="683" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C683" s="8"/>
     </row>
-    <row r="684" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C684" s="8"/>
     </row>
-    <row r="685" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C685" s="8"/>
     </row>
-    <row r="686" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C686" s="8"/>
     </row>
-    <row r="687" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C687" s="8"/>
     </row>
-    <row r="688" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C688" s="8"/>
     </row>
-    <row r="689" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C689" s="8"/>
     </row>
-    <row r="690" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C690" s="8"/>
     </row>
-    <row r="691" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C691" s="8"/>
     </row>
-    <row r="692" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C692" s="8"/>
     </row>
-    <row r="693" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C693" s="8"/>
     </row>
-    <row r="694" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C694" s="8"/>
     </row>
-    <row r="695" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C695" s="8"/>
     </row>
-    <row r="696" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C696" s="8"/>
     </row>
-    <row r="697" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C697" s="8"/>
     </row>
-    <row r="698" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C698" s="8"/>
     </row>
-    <row r="699" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C699" s="8"/>
     </row>
-    <row r="700" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C700" s="8"/>
     </row>
-    <row r="701" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C701" s="8"/>
     </row>
-    <row r="702" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C702" s="8"/>
     </row>
-    <row r="703" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C703" s="8"/>
     </row>
-    <row r="704" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C704" s="8"/>
     </row>
-    <row r="705" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C705" s="8"/>
     </row>
-    <row r="706" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C706" s="8"/>
     </row>
-    <row r="707" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C707" s="8"/>
     </row>
-    <row r="708" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C708" s="8"/>
     </row>
-    <row r="709" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C709" s="8"/>
     </row>
-    <row r="710" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C710" s="8"/>
     </row>
-    <row r="711" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C711" s="8"/>
     </row>
-    <row r="712" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C712" s="8"/>
     </row>
-    <row r="713" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C713" s="8"/>
     </row>
-    <row r="714" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C714" s="8"/>
     </row>
-    <row r="715" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C715" s="8"/>
     </row>
-    <row r="716" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C716" s="8"/>
     </row>
-    <row r="717" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C717" s="8"/>
     </row>
-    <row r="718" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C718" s="8"/>
     </row>
-    <row r="719" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C719" s="8"/>
     </row>
-    <row r="720" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C720" s="8"/>
     </row>
-    <row r="721" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C721" s="8"/>
     </row>
-    <row r="722" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C722" s="8"/>
     </row>
-    <row r="723" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C723" s="8"/>
     </row>
-    <row r="724" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C724" s="8"/>
     </row>
-    <row r="725" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C725" s="8"/>
     </row>
-    <row r="726" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C726" s="8"/>
     </row>
-    <row r="727" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C727" s="8"/>
     </row>
-    <row r="728" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C728" s="8"/>
     </row>
-    <row r="729" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C729" s="8"/>
     </row>
-    <row r="730" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C730" s="8"/>
     </row>
-    <row r="731" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C731" s="8"/>
     </row>
-    <row r="732" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C732" s="8"/>
     </row>
-    <row r="733" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C733" s="8"/>
     </row>
-    <row r="734" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C734" s="8"/>
     </row>
-    <row r="735" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C735" s="8"/>
     </row>
-    <row r="736" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C736" s="8"/>
     </row>
-    <row r="737" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C737" s="8"/>
     </row>
-    <row r="738" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C738" s="8"/>
     </row>
-    <row r="739" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C739" s="8"/>
     </row>
-    <row r="740" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C740" s="8"/>
     </row>
-    <row r="741" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C741" s="8"/>
     </row>
-    <row r="742" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C742" s="8"/>
     </row>
-    <row r="743" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C743" s="8"/>
     </row>
-    <row r="744" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C744" s="8"/>
     </row>
-    <row r="745" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C745" s="8"/>
     </row>
-    <row r="746" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C746" s="8"/>
     </row>
-    <row r="747" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C747" s="8"/>
     </row>
-    <row r="748" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C748" s="8"/>
     </row>
-    <row r="749" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C749" s="8"/>
     </row>
-    <row r="750" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C750" s="8"/>
     </row>
-    <row r="751" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C751" s="8"/>
     </row>
-    <row r="752" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C752" s="8"/>
     </row>
-    <row r="753" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C753" s="8"/>
     </row>
-    <row r="754" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C754" s="8"/>
     </row>
-    <row r="755" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C755" s="8"/>
     </row>
-    <row r="756" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C756" s="8"/>
     </row>
-    <row r="757" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C757" s="8"/>
     </row>
-    <row r="758" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C758" s="8"/>
     </row>
-    <row r="759" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C759" s="8"/>
     </row>
-    <row r="760" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C760" s="8"/>
     </row>
-    <row r="761" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C761" s="8"/>
     </row>
-    <row r="762" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C762" s="8"/>
     </row>
-    <row r="763" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C763" s="8"/>
     </row>
-    <row r="764" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C764" s="8"/>
     </row>
-    <row r="765" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C765" s="8"/>
     </row>
-    <row r="766" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C766" s="8"/>
     </row>
-    <row r="767" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C767" s="8"/>
     </row>
-    <row r="768" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C768" s="8"/>
     </row>
-    <row r="769" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C769" s="8"/>
     </row>
-    <row r="770" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C770" s="8"/>
     </row>
-    <row r="771" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C771" s="8"/>
     </row>
-    <row r="772" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C772" s="8"/>
     </row>
-    <row r="773" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C773" s="8"/>
     </row>
-    <row r="774" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C774" s="8"/>
     </row>
-    <row r="775" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C775" s="8"/>
     </row>
-    <row r="776" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C776" s="8"/>
     </row>
-    <row r="777" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C777" s="8"/>
     </row>
-    <row r="778" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C778" s="8"/>
     </row>
-    <row r="779" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C779" s="8"/>
     </row>
-    <row r="780" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C780" s="8"/>
     </row>
-    <row r="781" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C781" s="8"/>
     </row>
-    <row r="782" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C782" s="8"/>
     </row>
-    <row r="783" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C783" s="8"/>
     </row>
-    <row r="784" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C784" s="8"/>
     </row>
-    <row r="785" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C785" s="8"/>
     </row>
-    <row r="786" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C786" s="8"/>
     </row>
-    <row r="787" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C787" s="8"/>
     </row>
-    <row r="788" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C788" s="8"/>
     </row>
-    <row r="789" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C789" s="8"/>
     </row>
-    <row r="790" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C790" s="8"/>
     </row>
-    <row r="791" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C791" s="8"/>
     </row>
-    <row r="792" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C792" s="8"/>
     </row>
-    <row r="793" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C793" s="8"/>
     </row>
-    <row r="794" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C794" s="8"/>
     </row>
-    <row r="795" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C795" s="8"/>
     </row>
-    <row r="796" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C796" s="8"/>
     </row>
-    <row r="797" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C797" s="8"/>
     </row>
-    <row r="798" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C798" s="8"/>
     </row>
-    <row r="799" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C799" s="8"/>
     </row>
-    <row r="800" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C800" s="8"/>
     </row>
-    <row r="801" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C801" s="8"/>
     </row>
-    <row r="802" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C802" s="8"/>
     </row>
-    <row r="803" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C803" s="8"/>
     </row>
-    <row r="804" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C804" s="8"/>
     </row>
-    <row r="805" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C805" s="8"/>
     </row>
-    <row r="806" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C806" s="8"/>
     </row>
-    <row r="807" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C807" s="8"/>
     </row>
-    <row r="808" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C808" s="8"/>
     </row>
-    <row r="809" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C809" s="8"/>
     </row>
-    <row r="810" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C810" s="8"/>
     </row>
-    <row r="811" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C811" s="8"/>
     </row>
-    <row r="812" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C812" s="8"/>
     </row>
-    <row r="813" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C813" s="8"/>
     </row>
-    <row r="814" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C814" s="8"/>
     </row>
-    <row r="815" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C815" s="8"/>
     </row>
-    <row r="816" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C816" s="8"/>
     </row>
-    <row r="817" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C817" s="8"/>
     </row>
-    <row r="818" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C818" s="8"/>
     </row>
-    <row r="819" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C819" s="8"/>
     </row>
-    <row r="820" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C820" s="8"/>
     </row>
-    <row r="821" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C821" s="8"/>
     </row>
-    <row r="822" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C822" s="8"/>
     </row>
-    <row r="823" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C823" s="8"/>
     </row>
-    <row r="824" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C824" s="8"/>
     </row>
-    <row r="825" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C825" s="8"/>
     </row>
-    <row r="826" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C826" s="8"/>
     </row>
-    <row r="827" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C827" s="8"/>
     </row>
-    <row r="828" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C828" s="8"/>
     </row>
-    <row r="829" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C829" s="8"/>
     </row>
-    <row r="830" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C830" s="8"/>
     </row>
-    <row r="831" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C831" s="8"/>
     </row>
-    <row r="832" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C832" s="8"/>
     </row>
-    <row r="833" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C833" s="8"/>
     </row>
-    <row r="834" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C834" s="8"/>
     </row>
-    <row r="835" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C835" s="8"/>
     </row>
-    <row r="836" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C836" s="8"/>
     </row>
-    <row r="837" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C837" s="8"/>
     </row>
-    <row r="838" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C838" s="8"/>
     </row>
-    <row r="839" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C839" s="8"/>
     </row>
-    <row r="840" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C840" s="8"/>
     </row>
-    <row r="841" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C841" s="8"/>
     </row>
-    <row r="842" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C842" s="8"/>
     </row>
-    <row r="843" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C843" s="8"/>
     </row>
-    <row r="844" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C844" s="8"/>
     </row>
-    <row r="845" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C845" s="8"/>
     </row>
-    <row r="846" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C846" s="8"/>
     </row>
-    <row r="847" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C847" s="8"/>
     </row>
-    <row r="848" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C848" s="8"/>
     </row>
-    <row r="849" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C849" s="8"/>
     </row>
-    <row r="850" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C850" s="8"/>
     </row>
-    <row r="851" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C851" s="8"/>
     </row>
-    <row r="852" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C852" s="8"/>
     </row>
-    <row r="853" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C853" s="8"/>
     </row>
-    <row r="854" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C854" s="8"/>
     </row>
-    <row r="855" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C855" s="8"/>
     </row>
-    <row r="856" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C856" s="8"/>
     </row>
-    <row r="857" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C857" s="8"/>
     </row>
-    <row r="858" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C858" s="8"/>
     </row>
-    <row r="859" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C859" s="8"/>
     </row>
-    <row r="860" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C860" s="8"/>
     </row>
-    <row r="861" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C861" s="8"/>
     </row>
-    <row r="862" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C862" s="8"/>
     </row>
-    <row r="863" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C863" s="8"/>
     </row>
-    <row r="864" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C864" s="8"/>
     </row>
-    <row r="865" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C865" s="8"/>
     </row>
-    <row r="866" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C866" s="8"/>
     </row>
-    <row r="867" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C867" s="8"/>
     </row>
-    <row r="868" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C868" s="8"/>
     </row>
-    <row r="869" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C869" s="8"/>
     </row>
-    <row r="870" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C870" s="8"/>
     </row>
-    <row r="871" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C871" s="8"/>
     </row>
-    <row r="872" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C872" s="8"/>
     </row>
-    <row r="873" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C873" s="8"/>
     </row>
-    <row r="874" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C874" s="8"/>
     </row>
-    <row r="875" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C875" s="8"/>
     </row>
-    <row r="876" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C876" s="8"/>
     </row>
-    <row r="877" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C877" s="8"/>
     </row>
-    <row r="878" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C878" s="8"/>
     </row>
-    <row r="879" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C879" s="8"/>
     </row>
-    <row r="880" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C880" s="8"/>
     </row>
-    <row r="881" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C881" s="8"/>
     </row>
-    <row r="882" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C882" s="8"/>
     </row>
-    <row r="883" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C883" s="8"/>
     </row>
-    <row r="884" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C884" s="8"/>
     </row>
-    <row r="885" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C885" s="8"/>
     </row>
-    <row r="886" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C886" s="8"/>
     </row>
-    <row r="887" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C887" s="8"/>
     </row>
-    <row r="888" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C888" s="8"/>
     </row>
-    <row r="889" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C889" s="8"/>
     </row>
-    <row r="890" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C890" s="8"/>
     </row>
-    <row r="891" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C891" s="8"/>
     </row>
-    <row r="892" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C892" s="8"/>
     </row>
-    <row r="893" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C893" s="8"/>
     </row>
-    <row r="894" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C894" s="8"/>
     </row>
-    <row r="895" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C895" s="8"/>
     </row>
-    <row r="896" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C896" s="8"/>
     </row>
-    <row r="897" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C897" s="8"/>
     </row>
-    <row r="898" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C898" s="8"/>
     </row>
-    <row r="899" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C899" s="8"/>
     </row>
-    <row r="900" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C900" s="8"/>
     </row>
-    <row r="901" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C901" s="8"/>
     </row>
-    <row r="902" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C902" s="8"/>
     </row>
-    <row r="903" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C903" s="8"/>
     </row>
-    <row r="904" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C904" s="8"/>
     </row>
-    <row r="905" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C905" s="8"/>
     </row>
-    <row r="906" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C906" s="8"/>
     </row>
-    <row r="907" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C907" s="8"/>
     </row>
-    <row r="908" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C908" s="8"/>
     </row>
-    <row r="909" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C909" s="8"/>
     </row>
-    <row r="910" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C910" s="8"/>
     </row>
-    <row r="911" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C911" s="8"/>
     </row>
-    <row r="912" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C912" s="8"/>
     </row>
-    <row r="913" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C913" s="8"/>
     </row>
-    <row r="914" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C914" s="8"/>
     </row>
-    <row r="915" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C915" s="8"/>
     </row>
-    <row r="916" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C916" s="8"/>
     </row>
-    <row r="917" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C917" s="8"/>
     </row>
-    <row r="918" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C918" s="8"/>
     </row>
-    <row r="919" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C919" s="8"/>
     </row>
-    <row r="920" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C920" s="8"/>
     </row>
-    <row r="921" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C921" s="8"/>
     </row>
-    <row r="922" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C922" s="8"/>
     </row>
-    <row r="923" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C923" s="8"/>
     </row>
-    <row r="924" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C924" s="8"/>
     </row>
-    <row r="925" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C925" s="8"/>
     </row>
-    <row r="926" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C926" s="8"/>
     </row>
-    <row r="927" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C927" s="8"/>
     </row>
-    <row r="928" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C928" s="8"/>
     </row>
-    <row r="929" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C929" s="8"/>
     </row>
-    <row r="930" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C930" s="8"/>
     </row>
-    <row r="931" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C931" s="8"/>
     </row>
-    <row r="932" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C932" s="8"/>
     </row>
-    <row r="933" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C933" s="8"/>
     </row>
-    <row r="934" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C934" s="8"/>
     </row>
-    <row r="935" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C935" s="8"/>
     </row>
-    <row r="936" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C936" s="8"/>
     </row>
-    <row r="937" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C937" s="8"/>
     </row>
-    <row r="938" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C938" s="8"/>
     </row>
-    <row r="939" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C939" s="8"/>
     </row>
-    <row r="940" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C940" s="8"/>
     </row>
-    <row r="941" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C941" s="8"/>
     </row>
-    <row r="942" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C942" s="8"/>
     </row>
-    <row r="943" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C943" s="8"/>
     </row>
-    <row r="944" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C944" s="8"/>
     </row>
-    <row r="945" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C945" s="8"/>
     </row>
-    <row r="946" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C946" s="8"/>
     </row>
-    <row r="947" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C947" s="8"/>
     </row>
-    <row r="948" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C948" s="8"/>
     </row>
-    <row r="949" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C949" s="8"/>
     </row>
-    <row r="950" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C950" s="8"/>
     </row>
-    <row r="951" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C951" s="8"/>
     </row>
-    <row r="952" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C952" s="8"/>
     </row>
-    <row r="953" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C953" s="8"/>
     </row>
-    <row r="954" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C954" s="8"/>
     </row>
-    <row r="955" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C955" s="8"/>
     </row>
-    <row r="956" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C956" s="8"/>
     </row>
-    <row r="957" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C957" s="8"/>
     </row>
-    <row r="958" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C958" s="8"/>
     </row>
-    <row r="959" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C959" s="8"/>
     </row>
-    <row r="960" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C960" s="8"/>
     </row>
-    <row r="961" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C961" s="8"/>
     </row>
-    <row r="962" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C962" s="8"/>
     </row>
-    <row r="963" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C963" s="8"/>
     </row>
-    <row r="964" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C964" s="8"/>
     </row>
-    <row r="965" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C965" s="8"/>
     </row>
-    <row r="966" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C966" s="8"/>
     </row>
-    <row r="967" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C967" s="8"/>
     </row>
-    <row r="968" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C968" s="8"/>
     </row>
-    <row r="969" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C969" s="8"/>
     </row>
-    <row r="970" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C970" s="8"/>
     </row>
-    <row r="971" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C971" s="8"/>
     </row>
-    <row r="972" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C972" s="8"/>
     </row>
-    <row r="973" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C973" s="8"/>
     </row>
-    <row r="974" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C974" s="8"/>
     </row>
-    <row r="975" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C975" s="8"/>
     </row>
-    <row r="976" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C976" s="8"/>
     </row>
-    <row r="977" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C977" s="8"/>
     </row>
-    <row r="978" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C978" s="8"/>
     </row>
-    <row r="979" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C979" s="8"/>
     </row>
-    <row r="980" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C980" s="8"/>
     </row>
-    <row r="981" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C981" s="8"/>
     </row>
-    <row r="982" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C982" s="8"/>
     </row>
-    <row r="983" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C983" s="8"/>
     </row>
-    <row r="984" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C984" s="8"/>
     </row>
-    <row r="985" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C985" s="8"/>
     </row>
-    <row r="986" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C986" s="8"/>
     </row>
-    <row r="987" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C987" s="8"/>
     </row>
-    <row r="988" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C988" s="8"/>
     </row>
-    <row r="989" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C989" s="8"/>
     </row>
-    <row r="990" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C990" s="8"/>
     </row>
-    <row r="991" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C991" s="8"/>
     </row>
-    <row r="992" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C992" s="8"/>
     </row>
-    <row r="993" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C993" s="8"/>
     </row>
-    <row r="994" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C994" s="8"/>
     </row>
-    <row r="995" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C995" s="8"/>
     </row>
-    <row r="996" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C996" s="8"/>
     </row>
-    <row r="997" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C997" s="8"/>
     </row>
-    <row r="998" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C998" s="8"/>
     </row>
-    <row r="999" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C999" s="8"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1000" s="8"/>
     </row>
   </sheetData>
@@ -5053,7 +5047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5063,12 +5057,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="71.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="57.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5084,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5480,7 +5474,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -5500,7 +5494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -5518,7 +5512,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -5536,7 +5530,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5544,7 +5538,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -5552,7 +5546,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5560,7 +5554,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5568,7 +5562,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5578,22 +5572,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A11" r:id="rId2"/>
-    <hyperlink ref="A12" r:id="rId3"/>
-    <hyperlink ref="A13" r:id="rId4"/>
-    <hyperlink ref="A14" r:id="rId5"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A23" r:id="rId9"/>
-    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A25" r:id="rId11"/>
-    <hyperlink ref="A26" r:id="rId12"/>
-    <hyperlink ref="A27" r:id="rId13"/>
-    <hyperlink ref="A28" r:id="rId14"/>
-    <hyperlink ref="A29" r:id="rId15"/>
-    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A11" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A13" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="A23" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="A25" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="A26" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="A27" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="A28" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="A29" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
@@ -5602,7 +5596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5612,12 +5606,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="56.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5634,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5806,7 +5800,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -5814,7 +5808,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -5822,7 +5816,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -5830,7 +5824,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5838,7 +5832,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -5846,7 +5840,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5854,7 +5848,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5862,7 +5856,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\ue-ce-2018-phase-2-Qualitätssicherung\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36891596-32B3-45D1-999B-B297785BE311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A332952-A432-4C34-A073-11E9712B1B6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="70">
   <si>
     <t>Name:</t>
   </si>
@@ -181,6 +181,66 @@
   </si>
   <si>
     <t>customer relationship management AND "key components"</t>
+  </si>
+  <si>
+    <t>Non profit organizations AND non profit organization</t>
+  </si>
+  <si>
+    <t>Non proft sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non profit sector software </t>
+  </si>
+  <si>
+    <t>Keine Rede von Software</t>
+  </si>
+  <si>
+    <t>Zu ungenau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Service Journal </t>
+  </si>
+  <si>
+    <t>Non profit sector</t>
+  </si>
+  <si>
+    <t>Keine Relevanz zum Thema</t>
+  </si>
+  <si>
+    <t>Kein Zugang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non profit sector </t>
+  </si>
+  <si>
+    <t>IEEE-Computer</t>
+  </si>
+  <si>
+    <t>IEEE - TSE</t>
+  </si>
+  <si>
+    <t>SIAM</t>
+  </si>
+  <si>
+    <t>Information and organization</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>GoogleSchlolar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACM DL </t>
+  </si>
+  <si>
+    <t>CRM softwrare NPO</t>
+  </si>
+  <si>
+    <t>GoogleSchlolar (Journal of knowledge management)</t>
   </si>
 </sst>
 </file>
@@ -234,12 +294,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -270,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -302,6 +368,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4556,8 +4624,8 @@
   </sheetPr>
   <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5103,17 +5171,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:F36"/>
+  <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
   </cols>
@@ -5152,203 +5220,457 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4">
+        <v>43551</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6">
+        <v>117000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="4">
+        <v>43551</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="12">
+        <v>170000</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="4">
+        <v>43551</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="12">
+        <v>36000</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12">
+        <v>752</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="12">
+        <v>4552</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="12">
+        <v>384</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="12">
+        <v>23000</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="12">
+        <v>14000</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="12">
+        <v>11500</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="7">
+        <v>54000</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4400</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="7">
+        <v>148</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="C22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="C24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7">
+        <v>62</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="C26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="7">
+        <v>21</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="7">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1700</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="C29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1700</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1700</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="7">
+        <v>29000</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="C32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="7">
+        <v>627000</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="7">
+        <v>837</v>
+      </c>
+      <c r="E34" s="20">
+        <v>1</v>
+      </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -5367,8 +5689,30 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" display="http://www.elsevier.com/locate/datak " xr:uid="{C02AE80B-EC0B-48DF-A2CA-4A5CEE611318}"/>
+    <hyperlink ref="A17" r:id="rId2" display="http://www.elsevier.com/locate/datak " xr:uid="{527EAEF8-4303-45A8-8048-324858630BD9}"/>
+    <hyperlink ref="A16" r:id="rId3" display="http://www.elsevier.com/locate/datak " xr:uid="{8C694CCA-0E0D-4C9D-9D70-7A16A40BAA89}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\ue-ce-2018-phase-2-Qualitätssicherung\IT_Projekt_SS19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A332952-A432-4C34-A073-11E9712B1B6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D77A260-5E55-4447-962D-71F5A193DFF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1437,7 +1437,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5173,8 +5173,8 @@
   </sheetPr>
   <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5283,7 +5283,9 @@
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <v>43551</v>
+      </c>
       <c r="C13" s="12" t="s">
         <v>50</v>
       </c>
@@ -5301,7 +5303,9 @@
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4">
+        <v>43551</v>
+      </c>
       <c r="C14" s="12" t="s">
         <v>52</v>
       </c>
@@ -5319,7 +5323,9 @@
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4">
+        <v>43551</v>
+      </c>
       <c r="C15" s="12" t="s">
         <v>56</v>
       </c>
@@ -5337,7 +5343,9 @@
       <c r="A16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4">
+        <v>43551</v>
+      </c>
       <c r="C16" s="12" t="s">
         <v>50</v>
       </c>
@@ -5355,7 +5363,9 @@
       <c r="A17" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4">
+        <v>43551</v>
+      </c>
       <c r="C17" s="12" t="s">
         <v>52</v>
       </c>
@@ -5373,7 +5383,9 @@
       <c r="A18" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <v>43551</v>
+      </c>
       <c r="C18" s="7" t="s">
         <v>59</v>
       </c>
@@ -5391,7 +5403,9 @@
       <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4">
+        <v>43551</v>
+      </c>
       <c r="C19" s="12" t="s">
         <v>50</v>
       </c>
@@ -5409,7 +5423,9 @@
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="4">
+        <v>43551</v>
+      </c>
       <c r="C20" s="12" t="s">
         <v>52</v>
       </c>
@@ -5427,7 +5443,9 @@
       <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="4">
+        <v>43551</v>
+      </c>
       <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
@@ -5445,7 +5463,9 @@
       <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="4">
+        <v>43551</v>
+      </c>
       <c r="C22" s="12" t="s">
         <v>52</v>
       </c>
@@ -5463,7 +5483,9 @@
       <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="4">
+        <v>43551</v>
+      </c>
       <c r="C23" s="7" t="s">
         <v>50</v>
       </c>
@@ -5481,7 +5503,9 @@
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="4">
+        <v>43551</v>
+      </c>
       <c r="C24" s="12" t="s">
         <v>52</v>
       </c>
@@ -5499,7 +5523,9 @@
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="4">
+        <v>43552</v>
+      </c>
       <c r="C25" s="7" t="s">
         <v>50</v>
       </c>
@@ -5517,7 +5543,9 @@
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="4">
+        <v>43552</v>
+      </c>
       <c r="C26" s="12" t="s">
         <v>52</v>
       </c>
@@ -5535,7 +5563,9 @@
       <c r="A27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="4">
+        <v>43552</v>
+      </c>
       <c r="C27" s="7" t="s">
         <v>59</v>
       </c>
@@ -5553,7 +5583,9 @@
       <c r="A28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="4">
+        <v>43552</v>
+      </c>
       <c r="C28" s="7" t="s">
         <v>50</v>
       </c>
@@ -5571,7 +5603,9 @@
       <c r="A29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="4">
+        <v>43552</v>
+      </c>
       <c r="C29" s="12" t="s">
         <v>52</v>
       </c>
@@ -5589,7 +5623,9 @@
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="4">
+        <v>43552</v>
+      </c>
       <c r="C30" s="7" t="s">
         <v>59</v>
       </c>
@@ -5607,7 +5643,9 @@
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="4">
+        <v>43552</v>
+      </c>
       <c r="C31" s="7" t="s">
         <v>50</v>
       </c>
@@ -5625,7 +5663,9 @@
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="4">
+        <v>43552</v>
+      </c>
       <c r="C32" s="12" t="s">
         <v>52</v>
       </c>
@@ -5643,7 +5683,9 @@
       <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="4">
+        <v>43552</v>
+      </c>
       <c r="C33" s="7" t="s">
         <v>59</v>
       </c>
@@ -5661,7 +5703,9 @@
       <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="4">
+        <v>43552</v>
+      </c>
       <c r="C34" s="7" t="s">
         <v>68</v>
       </c>
@@ -5675,7 +5719,7 @@
     </row>
     <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -5683,7 +5727,7 @@
     </row>
     <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -5691,7 +5735,7 @@
     </row>
     <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\ue-ce-2018-phase-2-Qualitätssicherung\IT_Projekt_SS19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A332952-A432-4C34-A073-11E9712B1B6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Merisa" sheetId="2" r:id="rId4"/>
     <sheet name="Milos" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>Name:</t>
   </si>
@@ -241,12 +240,78 @@
   </si>
   <si>
     <t>GoogleSchlolar (Journal of knowledge management)</t>
+  </si>
+  <si>
+    <t>misquarterly</t>
+  </si>
+  <si>
+    <t>non-profit sector</t>
+  </si>
+  <si>
+    <t>keine Rede von Software</t>
+  </si>
+  <si>
+    <t>software for/in non profit sector</t>
+  </si>
+  <si>
+    <t>keine Relevanz zum Thema</t>
+  </si>
+  <si>
+    <t>open source software</t>
+  </si>
+  <si>
+    <t>open source CRM software</t>
+  </si>
+  <si>
+    <t>make or buy software</t>
+  </si>
+  <si>
+    <t>make or buy CRM software</t>
+  </si>
+  <si>
+    <t>Jurnal of Information Technology</t>
+  </si>
+  <si>
+    <t>Article: The emergance of openness in open-source projects</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Customer relationship management and firm performance</t>
+  </si>
+  <si>
+    <t>Article: Factors affecting the buy vs build decision in large Australian organizations</t>
+  </si>
+  <si>
+    <t>Information System Research</t>
+  </si>
+  <si>
+    <t>open soruce software</t>
+  </si>
+  <si>
+    <t>Article: Reuse in Open Source Software</t>
+  </si>
+  <si>
+    <t>Article: Open Source Software and Firm productivity</t>
+  </si>
+  <si>
+    <t>Article: The Promise of Research on Open source software</t>
+  </si>
+  <si>
+    <t>Jurnal of Management Information Systems</t>
+  </si>
+  <si>
+    <t>non profit sector</t>
+  </si>
+  <si>
+    <t>software in non profit sector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
@@ -372,8 +437,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,7 +468,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -442,7 +507,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -481,7 +546,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -524,7 +589,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -563,7 +628,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -883,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -893,11 +958,11 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="67.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -913,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1150,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1093,7 +1158,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1101,7 +1166,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1109,7 +1174,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1117,7 +1182,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1125,7 +1190,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1133,7 +1198,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1141,7 +1206,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1156,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1166,12 +1231,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="61.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1424,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1367,7 +1432,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1375,7 +1440,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1383,7 +1448,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1391,7 +1456,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1399,7 +1464,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1407,7 +1472,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1415,7 +1480,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1430,24 +1495,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="35.36328125" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="122.5546875" customWidth="1"/>
+    <col min="6" max="6" width="122.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,7 +1548,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1504,124 +1569,304 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="6">
+        <v>23636</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1889</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="12">
+        <v>11683</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="12">
+        <v>71</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="12">
+        <v>33822</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="12">
+        <v>138</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="12">
+        <v>375</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="12">
+        <v>43</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="12">
+        <v>130</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="12">
+        <v>105</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="12">
+        <v>267</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="12">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1445</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="7">
+        <v>551</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1727</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -1629,7 +1874,9 @@
       <c r="C25" s="13"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -1637,7 +1884,9 @@
       <c r="C26" s="13"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -1648,46 +1897,90 @@
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1652</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="15">
+        <v>43543</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="15">
+        <v>43543</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="7">
+        <v>152</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="7">
+        <v>9268</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="13"/>
@@ -1695,7 +1988,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13"/>
@@ -1703,7 +1996,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="13"/>
@@ -1711,7 +2004,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
@@ -1719,2896 +2012,2896 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C232" s="8"/>
     </row>
-    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C233" s="8"/>
     </row>
-    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C234" s="8"/>
     </row>
-    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C235" s="8"/>
     </row>
-    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C238" s="8"/>
     </row>
-    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C239" s="8"/>
     </row>
-    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C240" s="8"/>
     </row>
-    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C243" s="8"/>
     </row>
-    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C244" s="8"/>
     </row>
-    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C245" s="8"/>
     </row>
-    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C246" s="8"/>
     </row>
-    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C247" s="8"/>
     </row>
-    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C250" s="8"/>
     </row>
-    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C251" s="8"/>
     </row>
-    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C252" s="8"/>
     </row>
-    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C253" s="8"/>
     </row>
-    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C254" s="8"/>
     </row>
-    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C255" s="8"/>
     </row>
-    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C256" s="8"/>
     </row>
-    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C259" s="8"/>
     </row>
-    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C260" s="8"/>
     </row>
-    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C264" s="8"/>
     </row>
-    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C280" s="8"/>
     </row>
-    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C282" s="8"/>
     </row>
-    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C284" s="8"/>
     </row>
-    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C286" s="8"/>
     </row>
-    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C287" s="8"/>
     </row>
-    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C288" s="8"/>
     </row>
-    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C289" s="8"/>
     </row>
-    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C290" s="8"/>
     </row>
-    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C292" s="8"/>
     </row>
-    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C293" s="8"/>
     </row>
-    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C296" s="8"/>
     </row>
-    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C297" s="8"/>
     </row>
-    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C298" s="8"/>
     </row>
-    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C299" s="8"/>
     </row>
-    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C300" s="8"/>
     </row>
-    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C301" s="8"/>
     </row>
-    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C302" s="8"/>
     </row>
-    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C303" s="8"/>
     </row>
-    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C304" s="8"/>
     </row>
-    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C305" s="8"/>
     </row>
-    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C306" s="8"/>
     </row>
-    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C307" s="8"/>
     </row>
-    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C308" s="8"/>
     </row>
-    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C309" s="8"/>
     </row>
-    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C310" s="8"/>
     </row>
-    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C311" s="8"/>
     </row>
-    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C312" s="8"/>
     </row>
-    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C313" s="8"/>
     </row>
-    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C314" s="8"/>
     </row>
-    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C315" s="8"/>
     </row>
-    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C316" s="8"/>
     </row>
-    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C317" s="8"/>
     </row>
-    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C318" s="8"/>
     </row>
-    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C319" s="8"/>
     </row>
-    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C320" s="8"/>
     </row>
-    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C321" s="8"/>
     </row>
-    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C322" s="8"/>
     </row>
-    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C323" s="8"/>
     </row>
-    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C324" s="8"/>
     </row>
-    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C325" s="8"/>
     </row>
-    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C326" s="8"/>
     </row>
-    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C327" s="8"/>
     </row>
-    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C328" s="8"/>
     </row>
-    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C329" s="8"/>
     </row>
-    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C330" s="8"/>
     </row>
-    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C331" s="8"/>
     </row>
-    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C332" s="8"/>
     </row>
-    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C333" s="8"/>
     </row>
-    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C336" s="8"/>
     </row>
-    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C337" s="8"/>
     </row>
-    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C338" s="8"/>
     </row>
-    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C339" s="8"/>
     </row>
-    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C340" s="8"/>
     </row>
-    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C341" s="8"/>
     </row>
-    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C342" s="8"/>
     </row>
-    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C343" s="8"/>
     </row>
-    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C346" s="8"/>
     </row>
-    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C347" s="8"/>
     </row>
-    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C348" s="8"/>
     </row>
-    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C349" s="8"/>
     </row>
-    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C350" s="8"/>
     </row>
-    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C351" s="8"/>
     </row>
-    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C352" s="8"/>
     </row>
-    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C353" s="8"/>
     </row>
-    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C356" s="8"/>
     </row>
-    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C357" s="8"/>
     </row>
-    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C358" s="8"/>
     </row>
-    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C359" s="8"/>
     </row>
-    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C361" s="8"/>
     </row>
-    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C362" s="8"/>
     </row>
-    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C363" s="8"/>
     </row>
-    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C364" s="8"/>
     </row>
-    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C365" s="8"/>
     </row>
-    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C366" s="8"/>
     </row>
-    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C367" s="8"/>
     </row>
-    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C368" s="8"/>
     </row>
-    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C369" s="8"/>
     </row>
-    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C370" s="8"/>
     </row>
-    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C371" s="8"/>
     </row>
-    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C372" s="8"/>
     </row>
-    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C373" s="8"/>
     </row>
-    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C374" s="8"/>
     </row>
-    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C375" s="8"/>
     </row>
-    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C376" s="8"/>
     </row>
-    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C377" s="8"/>
     </row>
-    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C378" s="8"/>
     </row>
-    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C379" s="8"/>
     </row>
-    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C380" s="8"/>
     </row>
-    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C381" s="8"/>
     </row>
-    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C382" s="8"/>
     </row>
-    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C383" s="8"/>
     </row>
-    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C384" s="8"/>
     </row>
-    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C385" s="8"/>
     </row>
-    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C386" s="8"/>
     </row>
-    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C387" s="8"/>
     </row>
-    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C388" s="8"/>
     </row>
-    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C389" s="8"/>
     </row>
-    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C390" s="8"/>
     </row>
-    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C392" s="8"/>
     </row>
-    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C393" s="8"/>
     </row>
-    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C394" s="8"/>
     </row>
-    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C395" s="8"/>
     </row>
-    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C396" s="8"/>
     </row>
-    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C397" s="8"/>
     </row>
-    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C398" s="8"/>
     </row>
-    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C399" s="8"/>
     </row>
-    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C402" s="8"/>
     </row>
-    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C403" s="8"/>
     </row>
-    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C404" s="8"/>
     </row>
-    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C405" s="8"/>
     </row>
-    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C406" s="8"/>
     </row>
-    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C407" s="8"/>
     </row>
-    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C410" s="8"/>
     </row>
-    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C411" s="8"/>
     </row>
-    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C412" s="8"/>
     </row>
-    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C413" s="8"/>
     </row>
-    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C414" s="8"/>
     </row>
-    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C415" s="8"/>
     </row>
-    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C416" s="8"/>
     </row>
-    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C417" s="8"/>
     </row>
-    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C418" s="8"/>
     </row>
-    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C419" s="8"/>
     </row>
-    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C420" s="8"/>
     </row>
-    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C421" s="8"/>
     </row>
-    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C422" s="8"/>
     </row>
-    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C423" s="8"/>
     </row>
-    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C424" s="8"/>
     </row>
-    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C425" s="8"/>
     </row>
-    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C426" s="8"/>
     </row>
-    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C427" s="8"/>
     </row>
-    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C428" s="8"/>
     </row>
-    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C429" s="8"/>
     </row>
-    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C430" s="8"/>
     </row>
-    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C431" s="8"/>
     </row>
-    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C432" s="8"/>
     </row>
-    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C433" s="8"/>
     </row>
-    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C434" s="8"/>
     </row>
-    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C435" s="8"/>
     </row>
-    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C436" s="8"/>
     </row>
-    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C437" s="8"/>
     </row>
-    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C438" s="8"/>
     </row>
-    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C439" s="8"/>
     </row>
-    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C440" s="8"/>
     </row>
-    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C441" s="8"/>
     </row>
-    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C442" s="8"/>
     </row>
-    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C443" s="8"/>
     </row>
-    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C444" s="8"/>
     </row>
-    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C445" s="8"/>
     </row>
-    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C446" s="8"/>
     </row>
-    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C447" s="8"/>
     </row>
-    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C448" s="8"/>
     </row>
-    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C449" s="8"/>
     </row>
-    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C450" s="8"/>
     </row>
-    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C451" s="8"/>
     </row>
-    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C452" s="8"/>
     </row>
-    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C453" s="8"/>
     </row>
-    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C454" s="8"/>
     </row>
-    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C455" s="8"/>
     </row>
-    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C456" s="8"/>
     </row>
-    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C457" s="8"/>
     </row>
-    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C458" s="8"/>
     </row>
-    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C459" s="8"/>
     </row>
-    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C460" s="8"/>
     </row>
-    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C461" s="8"/>
     </row>
-    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C462" s="8"/>
     </row>
-    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C463" s="8"/>
     </row>
-    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C464" s="8"/>
     </row>
-    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C465" s="8"/>
     </row>
-    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C466" s="8"/>
     </row>
-    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C467" s="8"/>
     </row>
-    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C468" s="8"/>
     </row>
-    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C469" s="8"/>
     </row>
-    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C472" s="8"/>
     </row>
-    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C473" s="8"/>
     </row>
-    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C474" s="8"/>
     </row>
-    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C475" s="8"/>
     </row>
-    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C476" s="8"/>
     </row>
-    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C477" s="8"/>
     </row>
-    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C479" s="8"/>
     </row>
-    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C480" s="8"/>
     </row>
-    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C535" s="8"/>
     </row>
-    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C536" s="8"/>
     </row>
-    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C537" s="8"/>
     </row>
-    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C538" s="8"/>
     </row>
-    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C539" s="8"/>
     </row>
-    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C540" s="8"/>
     </row>
-    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C541" s="8"/>
     </row>
-    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C542" s="8"/>
     </row>
-    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C543" s="8"/>
     </row>
-    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C544" s="8"/>
     </row>
-    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C545" s="8"/>
     </row>
-    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C546" s="8"/>
     </row>
-    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C547" s="8"/>
     </row>
-    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C548" s="8"/>
     </row>
-    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C549" s="8"/>
     </row>
-    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C550" s="8"/>
     </row>
-    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C551" s="8"/>
     </row>
-    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C552" s="8"/>
     </row>
-    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C553" s="8"/>
     </row>
-    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C554" s="8"/>
     </row>
-    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C555" s="8"/>
     </row>
-    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C556" s="8"/>
     </row>
-    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C557" s="8"/>
     </row>
-    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C558" s="8"/>
     </row>
-    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C559" s="8"/>
     </row>
-    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C560" s="8"/>
     </row>
-    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C561" s="8"/>
     </row>
-    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C562" s="8"/>
     </row>
-    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C563" s="8"/>
     </row>
-    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C564" s="8"/>
     </row>
-    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C565" s="8"/>
     </row>
-    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C566" s="8"/>
     </row>
-    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C567" s="8"/>
     </row>
-    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C568" s="8"/>
     </row>
-    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C569" s="8"/>
     </row>
-    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C570" s="8"/>
     </row>
-    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C571" s="8"/>
     </row>
-    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C572" s="8"/>
     </row>
-    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C573" s="8"/>
     </row>
-    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C574" s="8"/>
     </row>
-    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C575" s="8"/>
     </row>
-    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C576" s="8"/>
     </row>
-    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C577" s="8"/>
     </row>
-    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C578" s="8"/>
     </row>
-    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C579" s="8"/>
     </row>
-    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C580" s="8"/>
     </row>
-    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C581" s="8"/>
     </row>
-    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C582" s="8"/>
     </row>
-    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C583" s="8"/>
     </row>
-    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C584" s="8"/>
     </row>
-    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C585" s="8"/>
     </row>
-    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C586" s="8"/>
     </row>
-    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C587" s="8"/>
     </row>
-    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C588" s="8"/>
     </row>
-    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C589" s="8"/>
     </row>
-    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C590" s="8"/>
     </row>
-    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C591" s="8"/>
     </row>
-    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C592" s="8"/>
     </row>
-    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C593" s="8"/>
     </row>
-    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C594" s="8"/>
     </row>
-    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C595" s="8"/>
     </row>
-    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C596" s="8"/>
     </row>
-    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C597" s="8"/>
     </row>
-    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C598" s="8"/>
     </row>
-    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C599" s="8"/>
     </row>
-    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C600" s="8"/>
     </row>
-    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C601" s="8"/>
     </row>
-    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C602" s="8"/>
     </row>
-    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C603" s="8"/>
     </row>
-    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C604" s="8"/>
     </row>
-    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C605" s="8"/>
     </row>
-    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C606" s="8"/>
     </row>
-    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C607" s="8"/>
     </row>
-    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C608" s="8"/>
     </row>
-    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C609" s="8"/>
     </row>
-    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C610" s="8"/>
     </row>
-    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C611" s="8"/>
     </row>
-    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C612" s="8"/>
     </row>
-    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C613" s="8"/>
     </row>
-    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C614" s="8"/>
     </row>
-    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C615" s="8"/>
     </row>
-    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C616" s="8"/>
     </row>
-    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C617" s="8"/>
     </row>
-    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C618" s="8"/>
     </row>
-    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C619" s="8"/>
     </row>
-    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C620" s="8"/>
     </row>
-    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C621" s="8"/>
     </row>
-    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C622" s="8"/>
     </row>
-    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C623" s="8"/>
     </row>
-    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C624" s="8"/>
     </row>
-    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C625" s="8"/>
     </row>
-    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C626" s="8"/>
     </row>
-    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C627" s="8"/>
     </row>
-    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C628" s="8"/>
     </row>
-    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C629" s="8"/>
     </row>
-    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C630" s="8"/>
     </row>
-    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C631" s="8"/>
     </row>
-    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C632" s="8"/>
     </row>
-    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C633" s="8"/>
     </row>
-    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C634" s="8"/>
     </row>
-    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C635" s="8"/>
     </row>
-    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C636" s="8"/>
     </row>
-    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C637" s="8"/>
     </row>
-    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C638" s="8"/>
     </row>
-    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C639" s="8"/>
     </row>
-    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C640" s="8"/>
     </row>
-    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C641" s="8"/>
     </row>
-    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C642" s="8"/>
     </row>
-    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C643" s="8"/>
     </row>
-    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C644" s="8"/>
     </row>
-    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C645" s="8"/>
     </row>
-    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C646" s="8"/>
     </row>
-    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C647" s="8"/>
     </row>
-    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C648" s="8"/>
     </row>
-    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C649" s="8"/>
     </row>
-    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C650" s="8"/>
     </row>
-    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C651" s="8"/>
     </row>
-    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C652" s="8"/>
     </row>
-    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C653" s="8"/>
     </row>
-    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C654" s="8"/>
     </row>
-    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C655" s="8"/>
     </row>
-    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C656" s="8"/>
     </row>
-    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C657" s="8"/>
     </row>
-    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C658" s="8"/>
     </row>
-    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C659" s="8"/>
     </row>
-    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C660" s="8"/>
     </row>
-    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C661" s="8"/>
     </row>
-    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C662" s="8"/>
     </row>
-    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C663" s="8"/>
     </row>
-    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C664" s="8"/>
     </row>
-    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C665" s="8"/>
     </row>
-    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C666" s="8"/>
     </row>
-    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C667" s="8"/>
     </row>
-    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C668" s="8"/>
     </row>
-    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C669" s="8"/>
     </row>
-    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C670" s="8"/>
     </row>
-    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C671" s="8"/>
     </row>
-    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C672" s="8"/>
     </row>
-    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C673" s="8"/>
     </row>
-    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C674" s="8"/>
     </row>
-    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C675" s="8"/>
     </row>
-    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C676" s="8"/>
     </row>
-    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C677" s="8"/>
     </row>
-    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C678" s="8"/>
     </row>
-    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C679" s="8"/>
     </row>
-    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C680" s="8"/>
     </row>
-    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C681" s="8"/>
     </row>
-    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C682" s="8"/>
     </row>
-    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C683" s="8"/>
     </row>
-    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C684" s="8"/>
     </row>
-    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C685" s="8"/>
     </row>
-    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C686" s="8"/>
     </row>
-    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C687" s="8"/>
     </row>
-    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C688" s="8"/>
     </row>
-    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C689" s="8"/>
     </row>
-    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C690" s="8"/>
     </row>
-    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C691" s="8"/>
     </row>
-    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C692" s="8"/>
     </row>
-    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C693" s="8"/>
     </row>
-    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C694" s="8"/>
     </row>
-    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C695" s="8"/>
     </row>
-    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C696" s="8"/>
     </row>
-    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C697" s="8"/>
     </row>
-    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C698" s="8"/>
     </row>
-    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C699" s="8"/>
     </row>
-    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C700" s="8"/>
     </row>
-    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C701" s="8"/>
     </row>
-    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C702" s="8"/>
     </row>
-    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C703" s="8"/>
     </row>
-    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C704" s="8"/>
     </row>
-    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C705" s="8"/>
     </row>
-    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C706" s="8"/>
     </row>
-    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C707" s="8"/>
     </row>
-    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C708" s="8"/>
     </row>
-    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C709" s="8"/>
     </row>
-    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C710" s="8"/>
     </row>
-    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C711" s="8"/>
     </row>
-    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C712" s="8"/>
     </row>
-    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C713" s="8"/>
     </row>
-    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C714" s="8"/>
     </row>
-    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C715" s="8"/>
     </row>
-    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C716" s="8"/>
     </row>
-    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C717" s="8"/>
     </row>
-    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C718" s="8"/>
     </row>
-    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C719" s="8"/>
     </row>
-    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C720" s="8"/>
     </row>
-    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C721" s="8"/>
     </row>
-    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C722" s="8"/>
     </row>
-    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C723" s="8"/>
     </row>
-    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C724" s="8"/>
     </row>
-    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C725" s="8"/>
     </row>
-    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C726" s="8"/>
     </row>
-    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C727" s="8"/>
     </row>
-    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C728" s="8"/>
     </row>
-    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C729" s="8"/>
     </row>
-    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C730" s="8"/>
     </row>
-    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C731" s="8"/>
     </row>
-    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C732" s="8"/>
     </row>
-    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C733" s="8"/>
     </row>
-    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C734" s="8"/>
     </row>
-    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C735" s="8"/>
     </row>
-    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C736" s="8"/>
     </row>
-    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C737" s="8"/>
     </row>
-    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C738" s="8"/>
     </row>
-    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C739" s="8"/>
     </row>
-    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C740" s="8"/>
     </row>
-    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C741" s="8"/>
     </row>
-    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C742" s="8"/>
     </row>
-    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C743" s="8"/>
     </row>
-    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C744" s="8"/>
     </row>
-    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C745" s="8"/>
     </row>
-    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C746" s="8"/>
     </row>
-    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C747" s="8"/>
     </row>
-    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C748" s="8"/>
     </row>
-    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C749" s="8"/>
     </row>
-    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C750" s="8"/>
     </row>
-    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C751" s="8"/>
     </row>
-    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C752" s="8"/>
     </row>
-    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C753" s="8"/>
     </row>
-    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C754" s="8"/>
     </row>
-    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C755" s="8"/>
     </row>
-    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C756" s="8"/>
     </row>
-    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C757" s="8"/>
     </row>
-    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C758" s="8"/>
     </row>
-    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C759" s="8"/>
     </row>
-    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C760" s="8"/>
     </row>
-    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C761" s="8"/>
     </row>
-    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C762" s="8"/>
     </row>
-    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C763" s="8"/>
     </row>
-    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C764" s="8"/>
     </row>
-    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C765" s="8"/>
     </row>
-    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C766" s="8"/>
     </row>
-    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C767" s="8"/>
     </row>
-    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C768" s="8"/>
     </row>
-    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C769" s="8"/>
     </row>
-    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C770" s="8"/>
     </row>
-    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C771" s="8"/>
     </row>
-    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C772" s="8"/>
     </row>
-    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C773" s="8"/>
     </row>
-    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C774" s="8"/>
     </row>
-    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C775" s="8"/>
     </row>
-    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C776" s="8"/>
     </row>
-    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C777" s="8"/>
     </row>
-    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C778" s="8"/>
     </row>
-    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C779" s="8"/>
     </row>
-    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C780" s="8"/>
     </row>
-    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C781" s="8"/>
     </row>
-    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C782" s="8"/>
     </row>
-    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C783" s="8"/>
     </row>
-    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C784" s="8"/>
     </row>
-    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C785" s="8"/>
     </row>
-    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C786" s="8"/>
     </row>
-    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C787" s="8"/>
     </row>
-    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C788" s="8"/>
     </row>
-    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C789" s="8"/>
     </row>
-    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C790" s="8"/>
     </row>
-    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C791" s="8"/>
     </row>
-    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C792" s="8"/>
     </row>
-    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C793" s="8"/>
     </row>
-    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C794" s="8"/>
     </row>
-    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C795" s="8"/>
     </row>
-    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C796" s="8"/>
     </row>
-    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C797" s="8"/>
     </row>
-    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C798" s="8"/>
     </row>
-    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C799" s="8"/>
     </row>
-    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C800" s="8"/>
     </row>
-    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C801" s="8"/>
     </row>
-    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C802" s="8"/>
     </row>
-    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C803" s="8"/>
     </row>
-    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C804" s="8"/>
     </row>
-    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C805" s="8"/>
     </row>
-    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C806" s="8"/>
     </row>
-    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C807" s="8"/>
     </row>
-    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C808" s="8"/>
     </row>
-    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C809" s="8"/>
     </row>
-    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C810" s="8"/>
     </row>
-    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C811" s="8"/>
     </row>
-    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C812" s="8"/>
     </row>
-    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C813" s="8"/>
     </row>
-    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C814" s="8"/>
     </row>
-    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C815" s="8"/>
     </row>
-    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C816" s="8"/>
     </row>
-    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C817" s="8"/>
     </row>
-    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C818" s="8"/>
     </row>
-    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C819" s="8"/>
     </row>
-    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C820" s="8"/>
     </row>
-    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C821" s="8"/>
     </row>
-    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C822" s="8"/>
     </row>
-    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C823" s="8"/>
     </row>
-    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C824" s="8"/>
     </row>
-    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C825" s="8"/>
     </row>
-    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C826" s="8"/>
     </row>
-    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C827" s="8"/>
     </row>
-    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C828" s="8"/>
     </row>
-    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C829" s="8"/>
     </row>
-    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C830" s="8"/>
     </row>
-    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C831" s="8"/>
     </row>
-    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C832" s="8"/>
     </row>
-    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C833" s="8"/>
     </row>
-    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C834" s="8"/>
     </row>
-    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C835" s="8"/>
     </row>
-    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C836" s="8"/>
     </row>
-    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C837" s="8"/>
     </row>
-    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C838" s="8"/>
     </row>
-    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C839" s="8"/>
     </row>
-    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C840" s="8"/>
     </row>
-    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C841" s="8"/>
     </row>
-    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C842" s="8"/>
     </row>
-    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C843" s="8"/>
     </row>
-    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C844" s="8"/>
     </row>
-    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C845" s="8"/>
     </row>
-    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C846" s="8"/>
     </row>
-    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C847" s="8"/>
     </row>
-    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C848" s="8"/>
     </row>
-    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C849" s="8"/>
     </row>
-    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C850" s="8"/>
     </row>
-    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C851" s="8"/>
     </row>
-    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C852" s="8"/>
     </row>
-    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C853" s="8"/>
     </row>
-    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C854" s="8"/>
     </row>
-    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C855" s="8"/>
     </row>
-    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C856" s="8"/>
     </row>
-    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C857" s="8"/>
     </row>
-    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C858" s="8"/>
     </row>
-    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C859" s="8"/>
     </row>
-    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C860" s="8"/>
     </row>
-    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C861" s="8"/>
     </row>
-    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C862" s="8"/>
     </row>
-    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C863" s="8"/>
     </row>
-    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C864" s="8"/>
     </row>
-    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C865" s="8"/>
     </row>
-    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C866" s="8"/>
     </row>
-    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C867" s="8"/>
     </row>
-    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C868" s="8"/>
     </row>
-    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C869" s="8"/>
     </row>
-    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C870" s="8"/>
     </row>
-    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C871" s="8"/>
     </row>
-    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C872" s="8"/>
     </row>
-    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C873" s="8"/>
     </row>
-    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C874" s="8"/>
     </row>
-    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C875" s="8"/>
     </row>
-    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C876" s="8"/>
     </row>
-    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C877" s="8"/>
     </row>
-    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C878" s="8"/>
     </row>
-    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C879" s="8"/>
     </row>
-    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C880" s="8"/>
     </row>
-    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C881" s="8"/>
     </row>
-    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C882" s="8"/>
     </row>
-    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C883" s="8"/>
     </row>
-    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C884" s="8"/>
     </row>
-    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C885" s="8"/>
     </row>
-    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C886" s="8"/>
     </row>
-    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C887" s="8"/>
     </row>
-    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C888" s="8"/>
     </row>
-    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C889" s="8"/>
     </row>
-    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C890" s="8"/>
     </row>
-    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C891" s="8"/>
     </row>
-    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C892" s="8"/>
     </row>
-    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C893" s="8"/>
     </row>
-    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C894" s="8"/>
     </row>
-    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C895" s="8"/>
     </row>
-    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C896" s="8"/>
     </row>
-    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C897" s="8"/>
     </row>
-    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C898" s="8"/>
     </row>
-    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C899" s="8"/>
     </row>
-    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C900" s="8"/>
     </row>
-    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C901" s="8"/>
     </row>
-    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C902" s="8"/>
     </row>
-    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C903" s="8"/>
     </row>
-    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C904" s="8"/>
     </row>
-    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C905" s="8"/>
     </row>
-    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C906" s="8"/>
     </row>
-    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C907" s="8"/>
     </row>
-    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C908" s="8"/>
     </row>
-    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C909" s="8"/>
     </row>
-    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C910" s="8"/>
     </row>
-    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C911" s="8"/>
     </row>
-    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C912" s="8"/>
     </row>
-    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C913" s="8"/>
     </row>
-    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C914" s="8"/>
     </row>
-    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C915" s="8"/>
     </row>
-    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C916" s="8"/>
     </row>
-    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C917" s="8"/>
     </row>
-    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C918" s="8"/>
     </row>
-    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C919" s="8"/>
     </row>
-    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C920" s="8"/>
     </row>
-    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C921" s="8"/>
     </row>
-    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C922" s="8"/>
     </row>
-    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C923" s="8"/>
     </row>
-    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C924" s="8"/>
     </row>
-    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C925" s="8"/>
     </row>
-    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C926" s="8"/>
     </row>
-    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C927" s="8"/>
     </row>
-    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C928" s="8"/>
     </row>
-    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C929" s="8"/>
     </row>
-    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C930" s="8"/>
     </row>
-    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C931" s="8"/>
     </row>
-    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C932" s="8"/>
     </row>
-    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C933" s="8"/>
     </row>
-    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C934" s="8"/>
     </row>
-    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C935" s="8"/>
     </row>
-    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C936" s="8"/>
     </row>
-    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C937" s="8"/>
     </row>
-    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C938" s="8"/>
     </row>
-    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C939" s="8"/>
     </row>
-    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C940" s="8"/>
     </row>
-    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C941" s="8"/>
     </row>
-    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C942" s="8"/>
     </row>
-    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C943" s="8"/>
     </row>
-    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C944" s="8"/>
     </row>
-    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C945" s="8"/>
     </row>
-    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C946" s="8"/>
     </row>
-    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C947" s="8"/>
     </row>
-    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C948" s="8"/>
     </row>
-    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C949" s="8"/>
     </row>
-    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C950" s="8"/>
     </row>
-    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C951" s="8"/>
     </row>
-    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C952" s="8"/>
     </row>
-    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C953" s="8"/>
     </row>
-    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C954" s="8"/>
     </row>
-    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C955" s="8"/>
     </row>
-    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C956" s="8"/>
     </row>
-    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C957" s="8"/>
     </row>
-    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C958" s="8"/>
     </row>
-    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C959" s="8"/>
     </row>
-    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C960" s="8"/>
     </row>
-    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C961" s="8"/>
     </row>
-    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C962" s="8"/>
     </row>
-    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C963" s="8"/>
     </row>
-    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C964" s="8"/>
     </row>
-    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C965" s="8"/>
     </row>
-    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C966" s="8"/>
     </row>
-    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C967" s="8"/>
     </row>
-    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C968" s="8"/>
     </row>
-    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C969" s="8"/>
     </row>
-    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C970" s="8"/>
     </row>
-    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C971" s="8"/>
     </row>
-    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C972" s="8"/>
     </row>
-    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C973" s="8"/>
     </row>
-    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C974" s="8"/>
     </row>
-    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C975" s="8"/>
     </row>
-    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C976" s="8"/>
     </row>
-    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C977" s="8"/>
     </row>
-    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C978" s="8"/>
     </row>
-    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C979" s="8"/>
     </row>
-    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C980" s="8"/>
     </row>
-    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C981" s="8"/>
     </row>
-    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C982" s="8"/>
     </row>
-    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C983" s="8"/>
     </row>
-    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C984" s="8"/>
     </row>
-    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C985" s="8"/>
     </row>
-    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C986" s="8"/>
     </row>
-    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C987" s="8"/>
     </row>
-    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C988" s="8"/>
     </row>
-    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C989" s="8"/>
     </row>
-    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C990" s="8"/>
     </row>
-    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C991" s="8"/>
     </row>
-    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C992" s="8"/>
     </row>
-    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C993" s="8"/>
     </row>
-    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C994" s="8"/>
     </row>
-    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C995" s="8"/>
     </row>
-    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C996" s="8"/>
     </row>
-    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C997" s="8"/>
     </row>
-    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C998" s="8"/>
     </row>
-    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C999" s="8"/>
     </row>
-    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C1000" s="8"/>
     </row>
   </sheetData>
@@ -4618,7 +4911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4628,12 +4921,12 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="71.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="57.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4649,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5045,7 +5338,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -5065,7 +5358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -5083,7 +5376,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -5101,7 +5394,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5109,7 +5402,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -5117,7 +5410,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5125,7 +5418,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5133,7 +5426,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5143,22 +5436,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A13" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A14" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/" xr:uid="{C6AB1660-1E37-4BDC-89F5-2B0331ED6873}"/>
-    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/" xr:uid="{76E2B199-7625-4655-8CA8-F4AA1558FC07}"/>
-    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/" xr:uid="{B5F8B7C0-0066-476E-956D-ACBB50D5F29E}"/>
-    <hyperlink ref="A23" r:id="rId9" xr:uid="{215A6281-22D1-41B5-82DA-B66958A01496}"/>
-    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/" xr:uid="{F7BC3736-693B-481A-96FA-9B0C2713AA44}"/>
-    <hyperlink ref="A25" r:id="rId11" xr:uid="{C48FED01-4418-4EDD-B999-D34ED3DEEDF5}"/>
-    <hyperlink ref="A26" r:id="rId12" xr:uid="{016852AF-3EF8-4A18-83BD-9E109E65E922}"/>
-    <hyperlink ref="A27" r:id="rId13" xr:uid="{11C3A422-177F-422C-8BA2-C528C02BEA11}"/>
-    <hyperlink ref="A28" r:id="rId14" xr:uid="{5952C5A5-E903-475D-9E30-4B41D2C180BF}"/>
-    <hyperlink ref="A29" r:id="rId15" xr:uid="{9C307AF7-A80C-4AD9-ACD6-3AA112E28B30}"/>
-    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at" xr:uid="{58416EBB-3A87-4937-BD72-753F6038922F}"/>
+    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A12" r:id="rId3"/>
+    <hyperlink ref="A13" r:id="rId4"/>
+    <hyperlink ref="A14" r:id="rId5"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A23" r:id="rId9"/>
+    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A25" r:id="rId11"/>
+    <hyperlink ref="A26" r:id="rId12"/>
+    <hyperlink ref="A27" r:id="rId13"/>
+    <hyperlink ref="A28" r:id="rId14"/>
+    <hyperlink ref="A29" r:id="rId15"/>
+    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
@@ -5167,22 +5460,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="65.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.6328125" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="3" max="3" width="65.36328125" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5199,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5603,7 +5896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -5621,7 +5914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -5639,7 +5932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
@@ -5657,7 +5950,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
@@ -5673,7 +5966,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5681,7 +5974,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5689,7 +5982,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -5697,7 +5990,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -5707,9 +6000,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="http://www.elsevier.com/locate/datak " xr:uid="{C02AE80B-EC0B-48DF-A2CA-4A5CEE611318}"/>
-    <hyperlink ref="A17" r:id="rId2" display="http://www.elsevier.com/locate/datak " xr:uid="{527EAEF8-4303-45A8-8048-324858630BD9}"/>
-    <hyperlink ref="A16" r:id="rId3" display="http://www.elsevier.com/locate/datak " xr:uid="{8C694CCA-0E0D-4C9D-9D70-7A16A40BAA89}"/>
+    <hyperlink ref="A18" r:id="rId1" display="http://www.elsevier.com/locate/datak "/>
+    <hyperlink ref="A17" r:id="rId2" display="http://www.elsevier.com/locate/datak "/>
+    <hyperlink ref="A16" r:id="rId3" display="http://www.elsevier.com/locate/datak "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\IT_Projekt_SS19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\ue-ce-2018-phase-2-Qualitätssicherung\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A332952-A432-4C34-A073-11E9712B1B6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Merisa" sheetId="2" r:id="rId4"/>
     <sheet name="Milos" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="70">
   <si>
     <t>Name:</t>
   </si>
@@ -240,78 +241,12 @@
   </si>
   <si>
     <t>GoogleSchlolar (Journal of knowledge management)</t>
-  </si>
-  <si>
-    <t>misquarterly</t>
-  </si>
-  <si>
-    <t>non-profit sector</t>
-  </si>
-  <si>
-    <t>keine Rede von Software</t>
-  </si>
-  <si>
-    <t>software for/in non profit sector</t>
-  </si>
-  <si>
-    <t>keine Relevanz zum Thema</t>
-  </si>
-  <si>
-    <t>open source software</t>
-  </si>
-  <si>
-    <t>open source CRM software</t>
-  </si>
-  <si>
-    <t>make or buy software</t>
-  </si>
-  <si>
-    <t>make or buy CRM software</t>
-  </si>
-  <si>
-    <t>Jurnal of Information Technology</t>
-  </si>
-  <si>
-    <t>Article: The emergance of openness in open-source projects</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>Customer relationship management and firm performance</t>
-  </si>
-  <si>
-    <t>Article: Factors affecting the buy vs build decision in large Australian organizations</t>
-  </si>
-  <si>
-    <t>Information System Research</t>
-  </si>
-  <si>
-    <t>open soruce software</t>
-  </si>
-  <si>
-    <t>Article: Reuse in Open Source Software</t>
-  </si>
-  <si>
-    <t>Article: Open Source Software and Firm productivity</t>
-  </si>
-  <si>
-    <t>Article: The Promise of Research on Open source software</t>
-  </si>
-  <si>
-    <t>Jurnal of Management Information Systems</t>
-  </si>
-  <si>
-    <t>non profit sector</t>
-  </si>
-  <si>
-    <t>software in non profit sector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
@@ -437,8 +372,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,7 +403,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -507,7 +442,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -546,7 +481,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -589,7 +524,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -628,7 +563,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -948,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -958,11 +893,11 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="67.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1150,7 +1085,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1158,7 +1093,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1166,7 +1101,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1174,7 +1109,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1182,7 +1117,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1190,7 +1125,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1198,7 +1133,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1206,7 +1141,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1221,7 +1156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1231,12 +1166,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="61.6328125" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1424,7 +1359,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1432,7 +1367,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1440,7 +1375,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1448,7 +1383,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1456,7 +1391,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1464,7 +1399,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1472,7 +1407,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1480,7 +1415,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1495,24 +1430,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="35.36328125" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="122.54296875" customWidth="1"/>
+    <col min="6" max="6" width="122.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,7 +1483,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1569,304 +1504,124 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="5">
-        <v>43543</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="6">
-        <v>23636</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="5">
-        <v>43543</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1889</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="5">
-        <v>43543</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="12">
-        <v>11683</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="5">
-        <v>43543</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="12">
-        <v>71</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="5">
-        <v>43543</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="12">
-        <v>33822</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="5">
-        <v>43543</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="12">
-        <v>138</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="5">
-        <v>43543</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="12">
-        <v>375</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="5">
-        <v>43543</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="12">
-        <v>43</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="5">
-        <v>43543</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="12">
-        <v>130</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="5">
-        <v>43543</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="12">
-        <v>105</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="5">
-        <v>43543</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="12">
-        <v>267</v>
-      </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>83</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="15">
-        <v>43543</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="12">
-        <v>15</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="15">
-        <v>43543</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1445</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="15">
-        <v>43543</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="7">
-        <v>551</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="15">
-        <v>43543</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1727</v>
-      </c>
-      <c r="E24" s="7">
-        <v>3</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -1874,9 +1629,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -1884,9 +1637,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -1897,90 +1648,46 @@
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="15">
-        <v>43543</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1652</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="15">
-        <v>43543</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="13"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="15">
-        <v>43543</v>
-      </c>
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="13"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="15">
-        <v>43553</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="7">
-        <v>152</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="15">
-        <v>43553</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="7">
-        <v>9268</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="13"/>
@@ -1988,7 +1695,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13"/>
@@ -1996,7 +1703,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="13"/>
@@ -2004,7 +1711,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
@@ -2012,2896 +1719,2896 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C232" s="8"/>
     </row>
-    <row r="233" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C233" s="8"/>
     </row>
-    <row r="234" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C234" s="8"/>
     </row>
-    <row r="235" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C235" s="8"/>
     </row>
-    <row r="236" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C238" s="8"/>
     </row>
-    <row r="239" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C239" s="8"/>
     </row>
-    <row r="240" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C240" s="8"/>
     </row>
-    <row r="241" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C243" s="8"/>
     </row>
-    <row r="244" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C244" s="8"/>
     </row>
-    <row r="245" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C245" s="8"/>
     </row>
-    <row r="246" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C246" s="8"/>
     </row>
-    <row r="247" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C247" s="8"/>
     </row>
-    <row r="248" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C250" s="8"/>
     </row>
-    <row r="251" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C251" s="8"/>
     </row>
-    <row r="252" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C252" s="8"/>
     </row>
-    <row r="253" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C253" s="8"/>
     </row>
-    <row r="254" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C254" s="8"/>
     </row>
-    <row r="255" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C255" s="8"/>
     </row>
-    <row r="256" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C256" s="8"/>
     </row>
-    <row r="257" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C259" s="8"/>
     </row>
-    <row r="260" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C260" s="8"/>
     </row>
-    <row r="261" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C264" s="8"/>
     </row>
-    <row r="265" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C280" s="8"/>
     </row>
-    <row r="281" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C282" s="8"/>
     </row>
-    <row r="283" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C284" s="8"/>
     </row>
-    <row r="285" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C286" s="8"/>
     </row>
-    <row r="287" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C287" s="8"/>
     </row>
-    <row r="288" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C288" s="8"/>
     </row>
-    <row r="289" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C289" s="8"/>
     </row>
-    <row r="290" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C290" s="8"/>
     </row>
-    <row r="291" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C292" s="8"/>
     </row>
-    <row r="293" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C293" s="8"/>
     </row>
-    <row r="294" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C296" s="8"/>
     </row>
-    <row r="297" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C297" s="8"/>
     </row>
-    <row r="298" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C298" s="8"/>
     </row>
-    <row r="299" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C299" s="8"/>
     </row>
-    <row r="300" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C300" s="8"/>
     </row>
-    <row r="301" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C301" s="8"/>
     </row>
-    <row r="302" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C302" s="8"/>
     </row>
-    <row r="303" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C303" s="8"/>
     </row>
-    <row r="304" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C304" s="8"/>
     </row>
-    <row r="305" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C305" s="8"/>
     </row>
-    <row r="306" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C306" s="8"/>
     </row>
-    <row r="307" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C307" s="8"/>
     </row>
-    <row r="308" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C308" s="8"/>
     </row>
-    <row r="309" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C309" s="8"/>
     </row>
-    <row r="310" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C310" s="8"/>
     </row>
-    <row r="311" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C311" s="8"/>
     </row>
-    <row r="312" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C312" s="8"/>
     </row>
-    <row r="313" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C313" s="8"/>
     </row>
-    <row r="314" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C314" s="8"/>
     </row>
-    <row r="315" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C315" s="8"/>
     </row>
-    <row r="316" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C316" s="8"/>
     </row>
-    <row r="317" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C317" s="8"/>
     </row>
-    <row r="318" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C318" s="8"/>
     </row>
-    <row r="319" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C319" s="8"/>
     </row>
-    <row r="320" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C320" s="8"/>
     </row>
-    <row r="321" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C321" s="8"/>
     </row>
-    <row r="322" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C322" s="8"/>
     </row>
-    <row r="323" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C323" s="8"/>
     </row>
-    <row r="324" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C324" s="8"/>
     </row>
-    <row r="325" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C325" s="8"/>
     </row>
-    <row r="326" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C326" s="8"/>
     </row>
-    <row r="327" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C327" s="8"/>
     </row>
-    <row r="328" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C328" s="8"/>
     </row>
-    <row r="329" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C329" s="8"/>
     </row>
-    <row r="330" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C330" s="8"/>
     </row>
-    <row r="331" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C331" s="8"/>
     </row>
-    <row r="332" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C332" s="8"/>
     </row>
-    <row r="333" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C333" s="8"/>
     </row>
-    <row r="334" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C336" s="8"/>
     </row>
-    <row r="337" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C337" s="8"/>
     </row>
-    <row r="338" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C338" s="8"/>
     </row>
-    <row r="339" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C339" s="8"/>
     </row>
-    <row r="340" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C340" s="8"/>
     </row>
-    <row r="341" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C341" s="8"/>
     </row>
-    <row r="342" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C342" s="8"/>
     </row>
-    <row r="343" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C343" s="8"/>
     </row>
-    <row r="344" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C346" s="8"/>
     </row>
-    <row r="347" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C347" s="8"/>
     </row>
-    <row r="348" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C348" s="8"/>
     </row>
-    <row r="349" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C349" s="8"/>
     </row>
-    <row r="350" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C350" s="8"/>
     </row>
-    <row r="351" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C351" s="8"/>
     </row>
-    <row r="352" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C352" s="8"/>
     </row>
-    <row r="353" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C353" s="8"/>
     </row>
-    <row r="354" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C356" s="8"/>
     </row>
-    <row r="357" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C357" s="8"/>
     </row>
-    <row r="358" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C358" s="8"/>
     </row>
-    <row r="359" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C359" s="8"/>
     </row>
-    <row r="360" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C361" s="8"/>
     </row>
-    <row r="362" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C362" s="8"/>
     </row>
-    <row r="363" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C363" s="8"/>
     </row>
-    <row r="364" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C364" s="8"/>
     </row>
-    <row r="365" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C365" s="8"/>
     </row>
-    <row r="366" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C366" s="8"/>
     </row>
-    <row r="367" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C367" s="8"/>
     </row>
-    <row r="368" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C368" s="8"/>
     </row>
-    <row r="369" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C369" s="8"/>
     </row>
-    <row r="370" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C370" s="8"/>
     </row>
-    <row r="371" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C371" s="8"/>
     </row>
-    <row r="372" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C372" s="8"/>
     </row>
-    <row r="373" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C373" s="8"/>
     </row>
-    <row r="374" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C374" s="8"/>
     </row>
-    <row r="375" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C375" s="8"/>
     </row>
-    <row r="376" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C376" s="8"/>
     </row>
-    <row r="377" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C377" s="8"/>
     </row>
-    <row r="378" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C378" s="8"/>
     </row>
-    <row r="379" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C379" s="8"/>
     </row>
-    <row r="380" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C380" s="8"/>
     </row>
-    <row r="381" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C381" s="8"/>
     </row>
-    <row r="382" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C382" s="8"/>
     </row>
-    <row r="383" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C383" s="8"/>
     </row>
-    <row r="384" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C384" s="8"/>
     </row>
-    <row r="385" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C385" s="8"/>
     </row>
-    <row r="386" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C386" s="8"/>
     </row>
-    <row r="387" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C387" s="8"/>
     </row>
-    <row r="388" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C388" s="8"/>
     </row>
-    <row r="389" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C389" s="8"/>
     </row>
-    <row r="390" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C390" s="8"/>
     </row>
-    <row r="391" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C392" s="8"/>
     </row>
-    <row r="393" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C393" s="8"/>
     </row>
-    <row r="394" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C394" s="8"/>
     </row>
-    <row r="395" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C395" s="8"/>
     </row>
-    <row r="396" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C396" s="8"/>
     </row>
-    <row r="397" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C397" s="8"/>
     </row>
-    <row r="398" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C398" s="8"/>
     </row>
-    <row r="399" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C399" s="8"/>
     </row>
-    <row r="400" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C402" s="8"/>
     </row>
-    <row r="403" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C403" s="8"/>
     </row>
-    <row r="404" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C404" s="8"/>
     </row>
-    <row r="405" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C405" s="8"/>
     </row>
-    <row r="406" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C406" s="8"/>
     </row>
-    <row r="407" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C407" s="8"/>
     </row>
-    <row r="408" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C410" s="8"/>
     </row>
-    <row r="411" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C411" s="8"/>
     </row>
-    <row r="412" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C412" s="8"/>
     </row>
-    <row r="413" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C413" s="8"/>
     </row>
-    <row r="414" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C414" s="8"/>
     </row>
-    <row r="415" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C415" s="8"/>
     </row>
-    <row r="416" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C416" s="8"/>
     </row>
-    <row r="417" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C417" s="8"/>
     </row>
-    <row r="418" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C418" s="8"/>
     </row>
-    <row r="419" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C419" s="8"/>
     </row>
-    <row r="420" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C420" s="8"/>
     </row>
-    <row r="421" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C421" s="8"/>
     </row>
-    <row r="422" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C422" s="8"/>
     </row>
-    <row r="423" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C423" s="8"/>
     </row>
-    <row r="424" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C424" s="8"/>
     </row>
-    <row r="425" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C425" s="8"/>
     </row>
-    <row r="426" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C426" s="8"/>
     </row>
-    <row r="427" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C427" s="8"/>
     </row>
-    <row r="428" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C428" s="8"/>
     </row>
-    <row r="429" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C429" s="8"/>
     </row>
-    <row r="430" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C430" s="8"/>
     </row>
-    <row r="431" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C431" s="8"/>
     </row>
-    <row r="432" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C432" s="8"/>
     </row>
-    <row r="433" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C433" s="8"/>
     </row>
-    <row r="434" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C434" s="8"/>
     </row>
-    <row r="435" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C435" s="8"/>
     </row>
-    <row r="436" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C436" s="8"/>
     </row>
-    <row r="437" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C437" s="8"/>
     </row>
-    <row r="438" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C438" s="8"/>
     </row>
-    <row r="439" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C439" s="8"/>
     </row>
-    <row r="440" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C440" s="8"/>
     </row>
-    <row r="441" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C441" s="8"/>
     </row>
-    <row r="442" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C442" s="8"/>
     </row>
-    <row r="443" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C443" s="8"/>
     </row>
-    <row r="444" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C444" s="8"/>
     </row>
-    <row r="445" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C445" s="8"/>
     </row>
-    <row r="446" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C446" s="8"/>
     </row>
-    <row r="447" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C447" s="8"/>
     </row>
-    <row r="448" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C448" s="8"/>
     </row>
-    <row r="449" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C449" s="8"/>
     </row>
-    <row r="450" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C450" s="8"/>
     </row>
-    <row r="451" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C451" s="8"/>
     </row>
-    <row r="452" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C452" s="8"/>
     </row>
-    <row r="453" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C453" s="8"/>
     </row>
-    <row r="454" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C454" s="8"/>
     </row>
-    <row r="455" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C455" s="8"/>
     </row>
-    <row r="456" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C456" s="8"/>
     </row>
-    <row r="457" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C457" s="8"/>
     </row>
-    <row r="458" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C458" s="8"/>
     </row>
-    <row r="459" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C459" s="8"/>
     </row>
-    <row r="460" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C460" s="8"/>
     </row>
-    <row r="461" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C461" s="8"/>
     </row>
-    <row r="462" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C462" s="8"/>
     </row>
-    <row r="463" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C463" s="8"/>
     </row>
-    <row r="464" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C464" s="8"/>
     </row>
-    <row r="465" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C465" s="8"/>
     </row>
-    <row r="466" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C466" s="8"/>
     </row>
-    <row r="467" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C467" s="8"/>
     </row>
-    <row r="468" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C468" s="8"/>
     </row>
-    <row r="469" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C469" s="8"/>
     </row>
-    <row r="470" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C472" s="8"/>
     </row>
-    <row r="473" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C473" s="8"/>
     </row>
-    <row r="474" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C474" s="8"/>
     </row>
-    <row r="475" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C475" s="8"/>
     </row>
-    <row r="476" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C476" s="8"/>
     </row>
-    <row r="477" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C477" s="8"/>
     </row>
-    <row r="478" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C479" s="8"/>
     </row>
-    <row r="480" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C480" s="8"/>
     </row>
-    <row r="481" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C535" s="8"/>
     </row>
-    <row r="536" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C536" s="8"/>
     </row>
-    <row r="537" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C537" s="8"/>
     </row>
-    <row r="538" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C538" s="8"/>
     </row>
-    <row r="539" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C539" s="8"/>
     </row>
-    <row r="540" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C540" s="8"/>
     </row>
-    <row r="541" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C541" s="8"/>
     </row>
-    <row r="542" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C542" s="8"/>
     </row>
-    <row r="543" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C543" s="8"/>
     </row>
-    <row r="544" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C544" s="8"/>
     </row>
-    <row r="545" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C545" s="8"/>
     </row>
-    <row r="546" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C546" s="8"/>
     </row>
-    <row r="547" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C547" s="8"/>
     </row>
-    <row r="548" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C548" s="8"/>
     </row>
-    <row r="549" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C549" s="8"/>
     </row>
-    <row r="550" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C550" s="8"/>
     </row>
-    <row r="551" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C551" s="8"/>
     </row>
-    <row r="552" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C552" s="8"/>
     </row>
-    <row r="553" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C553" s="8"/>
     </row>
-    <row r="554" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C554" s="8"/>
     </row>
-    <row r="555" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C555" s="8"/>
     </row>
-    <row r="556" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C556" s="8"/>
     </row>
-    <row r="557" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C557" s="8"/>
     </row>
-    <row r="558" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C558" s="8"/>
     </row>
-    <row r="559" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C559" s="8"/>
     </row>
-    <row r="560" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C560" s="8"/>
     </row>
-    <row r="561" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C561" s="8"/>
     </row>
-    <row r="562" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C562" s="8"/>
     </row>
-    <row r="563" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C563" s="8"/>
     </row>
-    <row r="564" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C564" s="8"/>
     </row>
-    <row r="565" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C565" s="8"/>
     </row>
-    <row r="566" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C566" s="8"/>
     </row>
-    <row r="567" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C567" s="8"/>
     </row>
-    <row r="568" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C568" s="8"/>
     </row>
-    <row r="569" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C569" s="8"/>
     </row>
-    <row r="570" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C570" s="8"/>
     </row>
-    <row r="571" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C571" s="8"/>
     </row>
-    <row r="572" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C572" s="8"/>
     </row>
-    <row r="573" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C573" s="8"/>
     </row>
-    <row r="574" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C574" s="8"/>
     </row>
-    <row r="575" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C575" s="8"/>
     </row>
-    <row r="576" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C576" s="8"/>
     </row>
-    <row r="577" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C577" s="8"/>
     </row>
-    <row r="578" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C578" s="8"/>
     </row>
-    <row r="579" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C579" s="8"/>
     </row>
-    <row r="580" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C580" s="8"/>
     </row>
-    <row r="581" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C581" s="8"/>
     </row>
-    <row r="582" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C582" s="8"/>
     </row>
-    <row r="583" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C583" s="8"/>
     </row>
-    <row r="584" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C584" s="8"/>
     </row>
-    <row r="585" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C585" s="8"/>
     </row>
-    <row r="586" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C586" s="8"/>
     </row>
-    <row r="587" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C587" s="8"/>
     </row>
-    <row r="588" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C588" s="8"/>
     </row>
-    <row r="589" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C589" s="8"/>
     </row>
-    <row r="590" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C590" s="8"/>
     </row>
-    <row r="591" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C591" s="8"/>
     </row>
-    <row r="592" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C592" s="8"/>
     </row>
-    <row r="593" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C593" s="8"/>
     </row>
-    <row r="594" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C594" s="8"/>
     </row>
-    <row r="595" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C595" s="8"/>
     </row>
-    <row r="596" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C596" s="8"/>
     </row>
-    <row r="597" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C597" s="8"/>
     </row>
-    <row r="598" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C598" s="8"/>
     </row>
-    <row r="599" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C599" s="8"/>
     </row>
-    <row r="600" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C600" s="8"/>
     </row>
-    <row r="601" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C601" s="8"/>
     </row>
-    <row r="602" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C602" s="8"/>
     </row>
-    <row r="603" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C603" s="8"/>
     </row>
-    <row r="604" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C604" s="8"/>
     </row>
-    <row r="605" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C605" s="8"/>
     </row>
-    <row r="606" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C606" s="8"/>
     </row>
-    <row r="607" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C607" s="8"/>
     </row>
-    <row r="608" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C608" s="8"/>
     </row>
-    <row r="609" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C609" s="8"/>
     </row>
-    <row r="610" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C610" s="8"/>
     </row>
-    <row r="611" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C611" s="8"/>
     </row>
-    <row r="612" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C612" s="8"/>
     </row>
-    <row r="613" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C613" s="8"/>
     </row>
-    <row r="614" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C614" s="8"/>
     </row>
-    <row r="615" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C615" s="8"/>
     </row>
-    <row r="616" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C616" s="8"/>
     </row>
-    <row r="617" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C617" s="8"/>
     </row>
-    <row r="618" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C618" s="8"/>
     </row>
-    <row r="619" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C619" s="8"/>
     </row>
-    <row r="620" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C620" s="8"/>
     </row>
-    <row r="621" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C621" s="8"/>
     </row>
-    <row r="622" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C622" s="8"/>
     </row>
-    <row r="623" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C623" s="8"/>
     </row>
-    <row r="624" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C624" s="8"/>
     </row>
-    <row r="625" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C625" s="8"/>
     </row>
-    <row r="626" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C626" s="8"/>
     </row>
-    <row r="627" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C627" s="8"/>
     </row>
-    <row r="628" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C628" s="8"/>
     </row>
-    <row r="629" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C629" s="8"/>
     </row>
-    <row r="630" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C630" s="8"/>
     </row>
-    <row r="631" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C631" s="8"/>
     </row>
-    <row r="632" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C632" s="8"/>
     </row>
-    <row r="633" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C633" s="8"/>
     </row>
-    <row r="634" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C634" s="8"/>
     </row>
-    <row r="635" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C635" s="8"/>
     </row>
-    <row r="636" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C636" s="8"/>
     </row>
-    <row r="637" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C637" s="8"/>
     </row>
-    <row r="638" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C638" s="8"/>
     </row>
-    <row r="639" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C639" s="8"/>
     </row>
-    <row r="640" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C640" s="8"/>
     </row>
-    <row r="641" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C641" s="8"/>
     </row>
-    <row r="642" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C642" s="8"/>
     </row>
-    <row r="643" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C643" s="8"/>
     </row>
-    <row r="644" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C644" s="8"/>
     </row>
-    <row r="645" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C645" s="8"/>
     </row>
-    <row r="646" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C646" s="8"/>
     </row>
-    <row r="647" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C647" s="8"/>
     </row>
-    <row r="648" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C648" s="8"/>
     </row>
-    <row r="649" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C649" s="8"/>
     </row>
-    <row r="650" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C650" s="8"/>
     </row>
-    <row r="651" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C651" s="8"/>
     </row>
-    <row r="652" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C652" s="8"/>
     </row>
-    <row r="653" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C653" s="8"/>
     </row>
-    <row r="654" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C654" s="8"/>
     </row>
-    <row r="655" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C655" s="8"/>
     </row>
-    <row r="656" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C656" s="8"/>
     </row>
-    <row r="657" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C657" s="8"/>
     </row>
-    <row r="658" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C658" s="8"/>
     </row>
-    <row r="659" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C659" s="8"/>
     </row>
-    <row r="660" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C660" s="8"/>
     </row>
-    <row r="661" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C661" s="8"/>
     </row>
-    <row r="662" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C662" s="8"/>
     </row>
-    <row r="663" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C663" s="8"/>
     </row>
-    <row r="664" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C664" s="8"/>
     </row>
-    <row r="665" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C665" s="8"/>
     </row>
-    <row r="666" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C666" s="8"/>
     </row>
-    <row r="667" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C667" s="8"/>
     </row>
-    <row r="668" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C668" s="8"/>
     </row>
-    <row r="669" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C669" s="8"/>
     </row>
-    <row r="670" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C670" s="8"/>
     </row>
-    <row r="671" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C671" s="8"/>
     </row>
-    <row r="672" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C672" s="8"/>
     </row>
-    <row r="673" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C673" s="8"/>
     </row>
-    <row r="674" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C674" s="8"/>
     </row>
-    <row r="675" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C675" s="8"/>
     </row>
-    <row r="676" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C676" s="8"/>
     </row>
-    <row r="677" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C677" s="8"/>
     </row>
-    <row r="678" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C678" s="8"/>
     </row>
-    <row r="679" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C679" s="8"/>
     </row>
-    <row r="680" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C680" s="8"/>
     </row>
-    <row r="681" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C681" s="8"/>
     </row>
-    <row r="682" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C682" s="8"/>
     </row>
-    <row r="683" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C683" s="8"/>
     </row>
-    <row r="684" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C684" s="8"/>
     </row>
-    <row r="685" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C685" s="8"/>
     </row>
-    <row r="686" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C686" s="8"/>
     </row>
-    <row r="687" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C687" s="8"/>
     </row>
-    <row r="688" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C688" s="8"/>
     </row>
-    <row r="689" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C689" s="8"/>
     </row>
-    <row r="690" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C690" s="8"/>
     </row>
-    <row r="691" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C691" s="8"/>
     </row>
-    <row r="692" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C692" s="8"/>
     </row>
-    <row r="693" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C693" s="8"/>
     </row>
-    <row r="694" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C694" s="8"/>
     </row>
-    <row r="695" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C695" s="8"/>
     </row>
-    <row r="696" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C696" s="8"/>
     </row>
-    <row r="697" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C697" s="8"/>
     </row>
-    <row r="698" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C698" s="8"/>
     </row>
-    <row r="699" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C699" s="8"/>
     </row>
-    <row r="700" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C700" s="8"/>
     </row>
-    <row r="701" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C701" s="8"/>
     </row>
-    <row r="702" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C702" s="8"/>
     </row>
-    <row r="703" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C703" s="8"/>
     </row>
-    <row r="704" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C704" s="8"/>
     </row>
-    <row r="705" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C705" s="8"/>
     </row>
-    <row r="706" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C706" s="8"/>
     </row>
-    <row r="707" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C707" s="8"/>
     </row>
-    <row r="708" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C708" s="8"/>
     </row>
-    <row r="709" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C709" s="8"/>
     </row>
-    <row r="710" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C710" s="8"/>
     </row>
-    <row r="711" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C711" s="8"/>
     </row>
-    <row r="712" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C712" s="8"/>
     </row>
-    <row r="713" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C713" s="8"/>
     </row>
-    <row r="714" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C714" s="8"/>
     </row>
-    <row r="715" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C715" s="8"/>
     </row>
-    <row r="716" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C716" s="8"/>
     </row>
-    <row r="717" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C717" s="8"/>
     </row>
-    <row r="718" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C718" s="8"/>
     </row>
-    <row r="719" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C719" s="8"/>
     </row>
-    <row r="720" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C720" s="8"/>
     </row>
-    <row r="721" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C721" s="8"/>
     </row>
-    <row r="722" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C722" s="8"/>
     </row>
-    <row r="723" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C723" s="8"/>
     </row>
-    <row r="724" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C724" s="8"/>
     </row>
-    <row r="725" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C725" s="8"/>
     </row>
-    <row r="726" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C726" s="8"/>
     </row>
-    <row r="727" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C727" s="8"/>
     </row>
-    <row r="728" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C728" s="8"/>
     </row>
-    <row r="729" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C729" s="8"/>
     </row>
-    <row r="730" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C730" s="8"/>
     </row>
-    <row r="731" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C731" s="8"/>
     </row>
-    <row r="732" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C732" s="8"/>
     </row>
-    <row r="733" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C733" s="8"/>
     </row>
-    <row r="734" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C734" s="8"/>
     </row>
-    <row r="735" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C735" s="8"/>
     </row>
-    <row r="736" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C736" s="8"/>
     </row>
-    <row r="737" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C737" s="8"/>
     </row>
-    <row r="738" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C738" s="8"/>
     </row>
-    <row r="739" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C739" s="8"/>
     </row>
-    <row r="740" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C740" s="8"/>
     </row>
-    <row r="741" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C741" s="8"/>
     </row>
-    <row r="742" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C742" s="8"/>
     </row>
-    <row r="743" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C743" s="8"/>
     </row>
-    <row r="744" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C744" s="8"/>
     </row>
-    <row r="745" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C745" s="8"/>
     </row>
-    <row r="746" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C746" s="8"/>
     </row>
-    <row r="747" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C747" s="8"/>
     </row>
-    <row r="748" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C748" s="8"/>
     </row>
-    <row r="749" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C749" s="8"/>
     </row>
-    <row r="750" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C750" s="8"/>
     </row>
-    <row r="751" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C751" s="8"/>
     </row>
-    <row r="752" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C752" s="8"/>
     </row>
-    <row r="753" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C753" s="8"/>
     </row>
-    <row r="754" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C754" s="8"/>
     </row>
-    <row r="755" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C755" s="8"/>
     </row>
-    <row r="756" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C756" s="8"/>
     </row>
-    <row r="757" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C757" s="8"/>
     </row>
-    <row r="758" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C758" s="8"/>
     </row>
-    <row r="759" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C759" s="8"/>
     </row>
-    <row r="760" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C760" s="8"/>
     </row>
-    <row r="761" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C761" s="8"/>
     </row>
-    <row r="762" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C762" s="8"/>
     </row>
-    <row r="763" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C763" s="8"/>
     </row>
-    <row r="764" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C764" s="8"/>
     </row>
-    <row r="765" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C765" s="8"/>
     </row>
-    <row r="766" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C766" s="8"/>
     </row>
-    <row r="767" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C767" s="8"/>
     </row>
-    <row r="768" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C768" s="8"/>
     </row>
-    <row r="769" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C769" s="8"/>
     </row>
-    <row r="770" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C770" s="8"/>
     </row>
-    <row r="771" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C771" s="8"/>
     </row>
-    <row r="772" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C772" s="8"/>
     </row>
-    <row r="773" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C773" s="8"/>
     </row>
-    <row r="774" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C774" s="8"/>
     </row>
-    <row r="775" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C775" s="8"/>
     </row>
-    <row r="776" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C776" s="8"/>
     </row>
-    <row r="777" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C777" s="8"/>
     </row>
-    <row r="778" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C778" s="8"/>
     </row>
-    <row r="779" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C779" s="8"/>
     </row>
-    <row r="780" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C780" s="8"/>
     </row>
-    <row r="781" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C781" s="8"/>
     </row>
-    <row r="782" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C782" s="8"/>
     </row>
-    <row r="783" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C783" s="8"/>
     </row>
-    <row r="784" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C784" s="8"/>
     </row>
-    <row r="785" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C785" s="8"/>
     </row>
-    <row r="786" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C786" s="8"/>
     </row>
-    <row r="787" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C787" s="8"/>
     </row>
-    <row r="788" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C788" s="8"/>
     </row>
-    <row r="789" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C789" s="8"/>
     </row>
-    <row r="790" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C790" s="8"/>
     </row>
-    <row r="791" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C791" s="8"/>
     </row>
-    <row r="792" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C792" s="8"/>
     </row>
-    <row r="793" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C793" s="8"/>
     </row>
-    <row r="794" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C794" s="8"/>
     </row>
-    <row r="795" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C795" s="8"/>
     </row>
-    <row r="796" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C796" s="8"/>
     </row>
-    <row r="797" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C797" s="8"/>
     </row>
-    <row r="798" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C798" s="8"/>
     </row>
-    <row r="799" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C799" s="8"/>
     </row>
-    <row r="800" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C800" s="8"/>
     </row>
-    <row r="801" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C801" s="8"/>
     </row>
-    <row r="802" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C802" s="8"/>
     </row>
-    <row r="803" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C803" s="8"/>
     </row>
-    <row r="804" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C804" s="8"/>
     </row>
-    <row r="805" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C805" s="8"/>
     </row>
-    <row r="806" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C806" s="8"/>
     </row>
-    <row r="807" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C807" s="8"/>
     </row>
-    <row r="808" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C808" s="8"/>
     </row>
-    <row r="809" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C809" s="8"/>
     </row>
-    <row r="810" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C810" s="8"/>
     </row>
-    <row r="811" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C811" s="8"/>
     </row>
-    <row r="812" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C812" s="8"/>
     </row>
-    <row r="813" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C813" s="8"/>
     </row>
-    <row r="814" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C814" s="8"/>
     </row>
-    <row r="815" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C815" s="8"/>
     </row>
-    <row r="816" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C816" s="8"/>
     </row>
-    <row r="817" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C817" s="8"/>
     </row>
-    <row r="818" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C818" s="8"/>
     </row>
-    <row r="819" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C819" s="8"/>
     </row>
-    <row r="820" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C820" s="8"/>
     </row>
-    <row r="821" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C821" s="8"/>
     </row>
-    <row r="822" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C822" s="8"/>
     </row>
-    <row r="823" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C823" s="8"/>
     </row>
-    <row r="824" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C824" s="8"/>
     </row>
-    <row r="825" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C825" s="8"/>
     </row>
-    <row r="826" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C826" s="8"/>
     </row>
-    <row r="827" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C827" s="8"/>
     </row>
-    <row r="828" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C828" s="8"/>
     </row>
-    <row r="829" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C829" s="8"/>
     </row>
-    <row r="830" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C830" s="8"/>
     </row>
-    <row r="831" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C831" s="8"/>
     </row>
-    <row r="832" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C832" s="8"/>
     </row>
-    <row r="833" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C833" s="8"/>
     </row>
-    <row r="834" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C834" s="8"/>
     </row>
-    <row r="835" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C835" s="8"/>
     </row>
-    <row r="836" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C836" s="8"/>
     </row>
-    <row r="837" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C837" s="8"/>
     </row>
-    <row r="838" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C838" s="8"/>
     </row>
-    <row r="839" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C839" s="8"/>
     </row>
-    <row r="840" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C840" s="8"/>
     </row>
-    <row r="841" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C841" s="8"/>
     </row>
-    <row r="842" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C842" s="8"/>
     </row>
-    <row r="843" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C843" s="8"/>
     </row>
-    <row r="844" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C844" s="8"/>
     </row>
-    <row r="845" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C845" s="8"/>
     </row>
-    <row r="846" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C846" s="8"/>
     </row>
-    <row r="847" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C847" s="8"/>
     </row>
-    <row r="848" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C848" s="8"/>
     </row>
-    <row r="849" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C849" s="8"/>
     </row>
-    <row r="850" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C850" s="8"/>
     </row>
-    <row r="851" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C851" s="8"/>
     </row>
-    <row r="852" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C852" s="8"/>
     </row>
-    <row r="853" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C853" s="8"/>
     </row>
-    <row r="854" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C854" s="8"/>
     </row>
-    <row r="855" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C855" s="8"/>
     </row>
-    <row r="856" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C856" s="8"/>
     </row>
-    <row r="857" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C857" s="8"/>
     </row>
-    <row r="858" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C858" s="8"/>
     </row>
-    <row r="859" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C859" s="8"/>
     </row>
-    <row r="860" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C860" s="8"/>
     </row>
-    <row r="861" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C861" s="8"/>
     </row>
-    <row r="862" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C862" s="8"/>
     </row>
-    <row r="863" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C863" s="8"/>
     </row>
-    <row r="864" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C864" s="8"/>
     </row>
-    <row r="865" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C865" s="8"/>
     </row>
-    <row r="866" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C866" s="8"/>
     </row>
-    <row r="867" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C867" s="8"/>
     </row>
-    <row r="868" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C868" s="8"/>
     </row>
-    <row r="869" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C869" s="8"/>
     </row>
-    <row r="870" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C870" s="8"/>
     </row>
-    <row r="871" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C871" s="8"/>
     </row>
-    <row r="872" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C872" s="8"/>
     </row>
-    <row r="873" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C873" s="8"/>
     </row>
-    <row r="874" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C874" s="8"/>
     </row>
-    <row r="875" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C875" s="8"/>
     </row>
-    <row r="876" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C876" s="8"/>
     </row>
-    <row r="877" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C877" s="8"/>
     </row>
-    <row r="878" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C878" s="8"/>
     </row>
-    <row r="879" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C879" s="8"/>
     </row>
-    <row r="880" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C880" s="8"/>
     </row>
-    <row r="881" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C881" s="8"/>
     </row>
-    <row r="882" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C882" s="8"/>
     </row>
-    <row r="883" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C883" s="8"/>
     </row>
-    <row r="884" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C884" s="8"/>
     </row>
-    <row r="885" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C885" s="8"/>
     </row>
-    <row r="886" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C886" s="8"/>
     </row>
-    <row r="887" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C887" s="8"/>
     </row>
-    <row r="888" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C888" s="8"/>
     </row>
-    <row r="889" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C889" s="8"/>
     </row>
-    <row r="890" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C890" s="8"/>
     </row>
-    <row r="891" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C891" s="8"/>
     </row>
-    <row r="892" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C892" s="8"/>
     </row>
-    <row r="893" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C893" s="8"/>
     </row>
-    <row r="894" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C894" s="8"/>
     </row>
-    <row r="895" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C895" s="8"/>
     </row>
-    <row r="896" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C896" s="8"/>
     </row>
-    <row r="897" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C897" s="8"/>
     </row>
-    <row r="898" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C898" s="8"/>
     </row>
-    <row r="899" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C899" s="8"/>
     </row>
-    <row r="900" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C900" s="8"/>
     </row>
-    <row r="901" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C901" s="8"/>
     </row>
-    <row r="902" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C902" s="8"/>
     </row>
-    <row r="903" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C903" s="8"/>
     </row>
-    <row r="904" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C904" s="8"/>
     </row>
-    <row r="905" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C905" s="8"/>
     </row>
-    <row r="906" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C906" s="8"/>
     </row>
-    <row r="907" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C907" s="8"/>
     </row>
-    <row r="908" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C908" s="8"/>
     </row>
-    <row r="909" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C909" s="8"/>
     </row>
-    <row r="910" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C910" s="8"/>
     </row>
-    <row r="911" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C911" s="8"/>
     </row>
-    <row r="912" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C912" s="8"/>
     </row>
-    <row r="913" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C913" s="8"/>
     </row>
-    <row r="914" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C914" s="8"/>
     </row>
-    <row r="915" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C915" s="8"/>
     </row>
-    <row r="916" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C916" s="8"/>
     </row>
-    <row r="917" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C917" s="8"/>
     </row>
-    <row r="918" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C918" s="8"/>
     </row>
-    <row r="919" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C919" s="8"/>
     </row>
-    <row r="920" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C920" s="8"/>
     </row>
-    <row r="921" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C921" s="8"/>
     </row>
-    <row r="922" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C922" s="8"/>
     </row>
-    <row r="923" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C923" s="8"/>
     </row>
-    <row r="924" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C924" s="8"/>
     </row>
-    <row r="925" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C925" s="8"/>
     </row>
-    <row r="926" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C926" s="8"/>
     </row>
-    <row r="927" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C927" s="8"/>
     </row>
-    <row r="928" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C928" s="8"/>
     </row>
-    <row r="929" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C929" s="8"/>
     </row>
-    <row r="930" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C930" s="8"/>
     </row>
-    <row r="931" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C931" s="8"/>
     </row>
-    <row r="932" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C932" s="8"/>
     </row>
-    <row r="933" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C933" s="8"/>
     </row>
-    <row r="934" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C934" s="8"/>
     </row>
-    <row r="935" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C935" s="8"/>
     </row>
-    <row r="936" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C936" s="8"/>
     </row>
-    <row r="937" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C937" s="8"/>
     </row>
-    <row r="938" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C938" s="8"/>
     </row>
-    <row r="939" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C939" s="8"/>
     </row>
-    <row r="940" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C940" s="8"/>
     </row>
-    <row r="941" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C941" s="8"/>
     </row>
-    <row r="942" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C942" s="8"/>
     </row>
-    <row r="943" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C943" s="8"/>
     </row>
-    <row r="944" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C944" s="8"/>
     </row>
-    <row r="945" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C945" s="8"/>
     </row>
-    <row r="946" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C946" s="8"/>
     </row>
-    <row r="947" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C947" s="8"/>
     </row>
-    <row r="948" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C948" s="8"/>
     </row>
-    <row r="949" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C949" s="8"/>
     </row>
-    <row r="950" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C950" s="8"/>
     </row>
-    <row r="951" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C951" s="8"/>
     </row>
-    <row r="952" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C952" s="8"/>
     </row>
-    <row r="953" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C953" s="8"/>
     </row>
-    <row r="954" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C954" s="8"/>
     </row>
-    <row r="955" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C955" s="8"/>
     </row>
-    <row r="956" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C956" s="8"/>
     </row>
-    <row r="957" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C957" s="8"/>
     </row>
-    <row r="958" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C958" s="8"/>
     </row>
-    <row r="959" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C959" s="8"/>
     </row>
-    <row r="960" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C960" s="8"/>
     </row>
-    <row r="961" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C961" s="8"/>
     </row>
-    <row r="962" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C962" s="8"/>
     </row>
-    <row r="963" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C963" s="8"/>
     </row>
-    <row r="964" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C964" s="8"/>
     </row>
-    <row r="965" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C965" s="8"/>
     </row>
-    <row r="966" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C966" s="8"/>
     </row>
-    <row r="967" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C967" s="8"/>
     </row>
-    <row r="968" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C968" s="8"/>
     </row>
-    <row r="969" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C969" s="8"/>
     </row>
-    <row r="970" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C970" s="8"/>
     </row>
-    <row r="971" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C971" s="8"/>
     </row>
-    <row r="972" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C972" s="8"/>
     </row>
-    <row r="973" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C973" s="8"/>
     </row>
-    <row r="974" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C974" s="8"/>
     </row>
-    <row r="975" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C975" s="8"/>
     </row>
-    <row r="976" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C976" s="8"/>
     </row>
-    <row r="977" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C977" s="8"/>
     </row>
-    <row r="978" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C978" s="8"/>
     </row>
-    <row r="979" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C979" s="8"/>
     </row>
-    <row r="980" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C980" s="8"/>
     </row>
-    <row r="981" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C981" s="8"/>
     </row>
-    <row r="982" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C982" s="8"/>
     </row>
-    <row r="983" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C983" s="8"/>
     </row>
-    <row r="984" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C984" s="8"/>
     </row>
-    <row r="985" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C985" s="8"/>
     </row>
-    <row r="986" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C986" s="8"/>
     </row>
-    <row r="987" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C987" s="8"/>
     </row>
-    <row r="988" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C988" s="8"/>
     </row>
-    <row r="989" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C989" s="8"/>
     </row>
-    <row r="990" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C990" s="8"/>
     </row>
-    <row r="991" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C991" s="8"/>
     </row>
-    <row r="992" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C992" s="8"/>
     </row>
-    <row r="993" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C993" s="8"/>
     </row>
-    <row r="994" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C994" s="8"/>
     </row>
-    <row r="995" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C995" s="8"/>
     </row>
-    <row r="996" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C996" s="8"/>
     </row>
-    <row r="997" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C997" s="8"/>
     </row>
-    <row r="998" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C998" s="8"/>
     </row>
-    <row r="999" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C999" s="8"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1000" s="8"/>
     </row>
   </sheetData>
@@ -4911,7 +4618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4921,12 +4628,12 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="71.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="57.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4942,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5338,7 +5045,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -5358,7 +5065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -5376,7 +5083,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -5394,7 +5101,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5402,7 +5109,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -5410,7 +5117,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5418,7 +5125,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5426,7 +5133,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5436,22 +5143,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A11" r:id="rId2"/>
-    <hyperlink ref="A12" r:id="rId3"/>
-    <hyperlink ref="A13" r:id="rId4"/>
-    <hyperlink ref="A14" r:id="rId5"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A23" r:id="rId9"/>
-    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A25" r:id="rId11"/>
-    <hyperlink ref="A26" r:id="rId12"/>
-    <hyperlink ref="A27" r:id="rId13"/>
-    <hyperlink ref="A28" r:id="rId14"/>
-    <hyperlink ref="A29" r:id="rId15"/>
-    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A13" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/" xr:uid="{C6AB1660-1E37-4BDC-89F5-2B0331ED6873}"/>
+    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/" xr:uid="{76E2B199-7625-4655-8CA8-F4AA1558FC07}"/>
+    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/" xr:uid="{B5F8B7C0-0066-476E-956D-ACBB50D5F29E}"/>
+    <hyperlink ref="A23" r:id="rId9" xr:uid="{215A6281-22D1-41B5-82DA-B66958A01496}"/>
+    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/" xr:uid="{F7BC3736-693B-481A-96FA-9B0C2713AA44}"/>
+    <hyperlink ref="A25" r:id="rId11" xr:uid="{C48FED01-4418-4EDD-B999-D34ED3DEEDF5}"/>
+    <hyperlink ref="A26" r:id="rId12" xr:uid="{016852AF-3EF8-4A18-83BD-9E109E65E922}"/>
+    <hyperlink ref="A27" r:id="rId13" xr:uid="{11C3A422-177F-422C-8BA2-C528C02BEA11}"/>
+    <hyperlink ref="A28" r:id="rId14" xr:uid="{5952C5A5-E903-475D-9E30-4B41D2C180BF}"/>
+    <hyperlink ref="A29" r:id="rId15" xr:uid="{9C307AF7-A80C-4AD9-ACD6-3AA112E28B30}"/>
+    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at" xr:uid="{58416EBB-3A87-4937-BD72-753F6038922F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
@@ -5460,22 +5167,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.6328125" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
-    <col min="3" max="3" width="65.36328125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5492,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5896,7 +5603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -5914,7 +5621,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -5932,7 +5639,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
@@ -5950,7 +5657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
@@ -5966,7 +5673,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5974,7 +5681,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5982,7 +5689,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -5990,7 +5697,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -6000,9 +5707,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="http://www.elsevier.com/locate/datak "/>
-    <hyperlink ref="A17" r:id="rId2" display="http://www.elsevier.com/locate/datak "/>
-    <hyperlink ref="A16" r:id="rId3" display="http://www.elsevier.com/locate/datak "/>
+    <hyperlink ref="A18" r:id="rId1" display="http://www.elsevier.com/locate/datak " xr:uid="{C02AE80B-EC0B-48DF-A2CA-4A5CEE611318}"/>
+    <hyperlink ref="A17" r:id="rId2" display="http://www.elsevier.com/locate/datak " xr:uid="{527EAEF8-4303-45A8-8048-324858630BD9}"/>
+    <hyperlink ref="A16" r:id="rId3" display="http://www.elsevier.com/locate/datak " xr:uid="{8C694CCA-0E0D-4C9D-9D70-7A16A40BAA89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D77A260-5E55-4447-962D-71F5A193DFF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Merisa" sheetId="2" r:id="rId4"/>
     <sheet name="Milos" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>Name:</t>
   </si>
@@ -241,12 +240,78 @@
   </si>
   <si>
     <t>GoogleSchlolar (Journal of knowledge management)</t>
+  </si>
+  <si>
+    <t>misquarterly</t>
+  </si>
+  <si>
+    <t>non-profit sector</t>
+  </si>
+  <si>
+    <t>keine Rede von Software</t>
+  </si>
+  <si>
+    <t>software for/in non profit sector</t>
+  </si>
+  <si>
+    <t>keine Relevanz zum Thema</t>
+  </si>
+  <si>
+    <t>open source software</t>
+  </si>
+  <si>
+    <t>open source CRM software</t>
+  </si>
+  <si>
+    <t>make or buy software</t>
+  </si>
+  <si>
+    <t>make or buy CRM software</t>
+  </si>
+  <si>
+    <t>Jurnal of Information Technology</t>
+  </si>
+  <si>
+    <t>Article: The emergance of openness in open-source projects</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Customer relationship management and firm performance</t>
+  </si>
+  <si>
+    <t>Article: Factors affecting the buy vs build decision in large Australian organizations</t>
+  </si>
+  <si>
+    <t>Information System Research</t>
+  </si>
+  <si>
+    <t>open soruce software</t>
+  </si>
+  <si>
+    <t>Article: Reuse in Open Source Software</t>
+  </si>
+  <si>
+    <t>Article: Open Source Software and Firm productivity</t>
+  </si>
+  <si>
+    <t>Article: The Promise of Research on Open source software</t>
+  </si>
+  <si>
+    <t>Jurnal of Management Information Systems</t>
+  </si>
+  <si>
+    <t>non profit sector</t>
+  </si>
+  <si>
+    <t>software in non profit sector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
@@ -372,8 +437,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,7 +468,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -442,7 +507,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -481,7 +546,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -524,7 +589,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -563,7 +628,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -883,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -893,11 +958,11 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="67.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -913,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1150,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1093,7 +1158,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1101,7 +1166,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1109,7 +1174,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1117,7 +1182,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1125,7 +1190,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1133,7 +1198,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1141,7 +1206,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1156,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1166,12 +1231,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="61.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1424,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1367,7 +1432,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1375,7 +1440,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1383,7 +1448,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1391,7 +1456,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1399,7 +1464,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1407,7 +1472,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1415,7 +1480,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1430,24 +1495,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="35.36328125" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="122.5546875" customWidth="1"/>
+    <col min="6" max="6" width="122.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,7 +1548,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1504,124 +1569,304 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="6">
+        <v>23636</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1889</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="12">
+        <v>11683</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="12">
+        <v>71</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="12">
+        <v>33822</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="12">
+        <v>138</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="12">
+        <v>375</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="12">
+        <v>43</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="12">
+        <v>130</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="12">
+        <v>105</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="12">
+        <v>267</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="12">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1445</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="7">
+        <v>551</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1727</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -1629,7 +1874,9 @@
       <c r="C25" s="13"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -1637,7 +1884,9 @@
       <c r="C26" s="13"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -1648,46 +1897,90 @@
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="15">
+        <v>43543</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1652</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="15">
+        <v>43543</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="15">
+        <v>43543</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="7">
+        <v>152</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="7">
+        <v>9268</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="13"/>
@@ -1695,7 +1988,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13"/>
@@ -1703,7 +1996,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="13"/>
@@ -1711,7 +2004,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
@@ -1719,2896 +2012,2896 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C232" s="8"/>
     </row>
-    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C233" s="8"/>
     </row>
-    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C234" s="8"/>
     </row>
-    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C235" s="8"/>
     </row>
-    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C238" s="8"/>
     </row>
-    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C239" s="8"/>
     </row>
-    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C240" s="8"/>
     </row>
-    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C243" s="8"/>
     </row>
-    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C244" s="8"/>
     </row>
-    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C245" s="8"/>
     </row>
-    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C246" s="8"/>
     </row>
-    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C247" s="8"/>
     </row>
-    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C250" s="8"/>
     </row>
-    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C251" s="8"/>
     </row>
-    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C252" s="8"/>
     </row>
-    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C253" s="8"/>
     </row>
-    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C254" s="8"/>
     </row>
-    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C255" s="8"/>
     </row>
-    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C256" s="8"/>
     </row>
-    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C259" s="8"/>
     </row>
-    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C260" s="8"/>
     </row>
-    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C264" s="8"/>
     </row>
-    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C280" s="8"/>
     </row>
-    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C282" s="8"/>
     </row>
-    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C284" s="8"/>
     </row>
-    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C286" s="8"/>
     </row>
-    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C287" s="8"/>
     </row>
-    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C288" s="8"/>
     </row>
-    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C289" s="8"/>
     </row>
-    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C290" s="8"/>
     </row>
-    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C292" s="8"/>
     </row>
-    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C293" s="8"/>
     </row>
-    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C296" s="8"/>
     </row>
-    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C297" s="8"/>
     </row>
-    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C298" s="8"/>
     </row>
-    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C299" s="8"/>
     </row>
-    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C300" s="8"/>
     </row>
-    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C301" s="8"/>
     </row>
-    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C302" s="8"/>
     </row>
-    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C303" s="8"/>
     </row>
-    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C304" s="8"/>
     </row>
-    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C305" s="8"/>
     </row>
-    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C306" s="8"/>
     </row>
-    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C307" s="8"/>
     </row>
-    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C308" s="8"/>
     </row>
-    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C309" s="8"/>
     </row>
-    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C310" s="8"/>
     </row>
-    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C311" s="8"/>
     </row>
-    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C312" s="8"/>
     </row>
-    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C313" s="8"/>
     </row>
-    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C314" s="8"/>
     </row>
-    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C315" s="8"/>
     </row>
-    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C316" s="8"/>
     </row>
-    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C317" s="8"/>
     </row>
-    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C318" s="8"/>
     </row>
-    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C319" s="8"/>
     </row>
-    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C320" s="8"/>
     </row>
-    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C321" s="8"/>
     </row>
-    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C322" s="8"/>
     </row>
-    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C323" s="8"/>
     </row>
-    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C324" s="8"/>
     </row>
-    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C325" s="8"/>
     </row>
-    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C326" s="8"/>
     </row>
-    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C327" s="8"/>
     </row>
-    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C328" s="8"/>
     </row>
-    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C329" s="8"/>
     </row>
-    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C330" s="8"/>
     </row>
-    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C331" s="8"/>
     </row>
-    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C332" s="8"/>
     </row>
-    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C333" s="8"/>
     </row>
-    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C336" s="8"/>
     </row>
-    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C337" s="8"/>
     </row>
-    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C338" s="8"/>
     </row>
-    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C339" s="8"/>
     </row>
-    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C340" s="8"/>
     </row>
-    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C341" s="8"/>
     </row>
-    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C342" s="8"/>
     </row>
-    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C343" s="8"/>
     </row>
-    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C346" s="8"/>
     </row>
-    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C347" s="8"/>
     </row>
-    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C348" s="8"/>
     </row>
-    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C349" s="8"/>
     </row>
-    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C350" s="8"/>
     </row>
-    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C351" s="8"/>
     </row>
-    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C352" s="8"/>
     </row>
-    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C353" s="8"/>
     </row>
-    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C356" s="8"/>
     </row>
-    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C357" s="8"/>
     </row>
-    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C358" s="8"/>
     </row>
-    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C359" s="8"/>
     </row>
-    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C361" s="8"/>
     </row>
-    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C362" s="8"/>
     </row>
-    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C363" s="8"/>
     </row>
-    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C364" s="8"/>
     </row>
-    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C365" s="8"/>
     </row>
-    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C366" s="8"/>
     </row>
-    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C367" s="8"/>
     </row>
-    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C368" s="8"/>
     </row>
-    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C369" s="8"/>
     </row>
-    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C370" s="8"/>
     </row>
-    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C371" s="8"/>
     </row>
-    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C372" s="8"/>
     </row>
-    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C373" s="8"/>
     </row>
-    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C374" s="8"/>
     </row>
-    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C375" s="8"/>
     </row>
-    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C376" s="8"/>
     </row>
-    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C377" s="8"/>
     </row>
-    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C378" s="8"/>
     </row>
-    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C379" s="8"/>
     </row>
-    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C380" s="8"/>
     </row>
-    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C381" s="8"/>
     </row>
-    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C382" s="8"/>
     </row>
-    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C383" s="8"/>
     </row>
-    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C384" s="8"/>
     </row>
-    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C385" s="8"/>
     </row>
-    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C386" s="8"/>
     </row>
-    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C387" s="8"/>
     </row>
-    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C388" s="8"/>
     </row>
-    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C389" s="8"/>
     </row>
-    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C390" s="8"/>
     </row>
-    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C392" s="8"/>
     </row>
-    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C393" s="8"/>
     </row>
-    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C394" s="8"/>
     </row>
-    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C395" s="8"/>
     </row>
-    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C396" s="8"/>
     </row>
-    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C397" s="8"/>
     </row>
-    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C398" s="8"/>
     </row>
-    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C399" s="8"/>
     </row>
-    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C402" s="8"/>
     </row>
-    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C403" s="8"/>
     </row>
-    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C404" s="8"/>
     </row>
-    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C405" s="8"/>
     </row>
-    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C406" s="8"/>
     </row>
-    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C407" s="8"/>
     </row>
-    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C410" s="8"/>
     </row>
-    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C411" s="8"/>
     </row>
-    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C412" s="8"/>
     </row>
-    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C413" s="8"/>
     </row>
-    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C414" s="8"/>
     </row>
-    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C415" s="8"/>
     </row>
-    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C416" s="8"/>
     </row>
-    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C417" s="8"/>
     </row>
-    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C418" s="8"/>
     </row>
-    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C419" s="8"/>
     </row>
-    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C420" s="8"/>
     </row>
-    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C421" s="8"/>
     </row>
-    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C422" s="8"/>
     </row>
-    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C423" s="8"/>
     </row>
-    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C424" s="8"/>
     </row>
-    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C425" s="8"/>
     </row>
-    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C426" s="8"/>
     </row>
-    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C427" s="8"/>
     </row>
-    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C428" s="8"/>
     </row>
-    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C429" s="8"/>
     </row>
-    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C430" s="8"/>
     </row>
-    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C431" s="8"/>
     </row>
-    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C432" s="8"/>
     </row>
-    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C433" s="8"/>
     </row>
-    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C434" s="8"/>
     </row>
-    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C435" s="8"/>
     </row>
-    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C436" s="8"/>
     </row>
-    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C437" s="8"/>
     </row>
-    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C438" s="8"/>
     </row>
-    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C439" s="8"/>
     </row>
-    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C440" s="8"/>
     </row>
-    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C441" s="8"/>
     </row>
-    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C442" s="8"/>
     </row>
-    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C443" s="8"/>
     </row>
-    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C444" s="8"/>
     </row>
-    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C445" s="8"/>
     </row>
-    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C446" s="8"/>
     </row>
-    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C447" s="8"/>
     </row>
-    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C448" s="8"/>
     </row>
-    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C449" s="8"/>
     </row>
-    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C450" s="8"/>
     </row>
-    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C451" s="8"/>
     </row>
-    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C452" s="8"/>
     </row>
-    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C453" s="8"/>
     </row>
-    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C454" s="8"/>
     </row>
-    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C455" s="8"/>
     </row>
-    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C456" s="8"/>
     </row>
-    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C457" s="8"/>
     </row>
-    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C458" s="8"/>
     </row>
-    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C459" s="8"/>
     </row>
-    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C460" s="8"/>
     </row>
-    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C461" s="8"/>
     </row>
-    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C462" s="8"/>
     </row>
-    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C463" s="8"/>
     </row>
-    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C464" s="8"/>
     </row>
-    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C465" s="8"/>
     </row>
-    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C466" s="8"/>
     </row>
-    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C467" s="8"/>
     </row>
-    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C468" s="8"/>
     </row>
-    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C469" s="8"/>
     </row>
-    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C472" s="8"/>
     </row>
-    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C473" s="8"/>
     </row>
-    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C474" s="8"/>
     </row>
-    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C475" s="8"/>
     </row>
-    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C476" s="8"/>
     </row>
-    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C477" s="8"/>
     </row>
-    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C479" s="8"/>
     </row>
-    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C480" s="8"/>
     </row>
-    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C535" s="8"/>
     </row>
-    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C536" s="8"/>
     </row>
-    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C537" s="8"/>
     </row>
-    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C538" s="8"/>
     </row>
-    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C539" s="8"/>
     </row>
-    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C540" s="8"/>
     </row>
-    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C541" s="8"/>
     </row>
-    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C542" s="8"/>
     </row>
-    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C543" s="8"/>
     </row>
-    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C544" s="8"/>
     </row>
-    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C545" s="8"/>
     </row>
-    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C546" s="8"/>
     </row>
-    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C547" s="8"/>
     </row>
-    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C548" s="8"/>
     </row>
-    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C549" s="8"/>
     </row>
-    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C550" s="8"/>
     </row>
-    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C551" s="8"/>
     </row>
-    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C552" s="8"/>
     </row>
-    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C553" s="8"/>
     </row>
-    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C554" s="8"/>
     </row>
-    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C555" s="8"/>
     </row>
-    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C556" s="8"/>
     </row>
-    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C557" s="8"/>
     </row>
-    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C558" s="8"/>
     </row>
-    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C559" s="8"/>
     </row>
-    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C560" s="8"/>
     </row>
-    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C561" s="8"/>
     </row>
-    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C562" s="8"/>
     </row>
-    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C563" s="8"/>
     </row>
-    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C564" s="8"/>
     </row>
-    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C565" s="8"/>
     </row>
-    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C566" s="8"/>
     </row>
-    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C567" s="8"/>
     </row>
-    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C568" s="8"/>
     </row>
-    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C569" s="8"/>
     </row>
-    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C570" s="8"/>
     </row>
-    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C571" s="8"/>
     </row>
-    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C572" s="8"/>
     </row>
-    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C573" s="8"/>
     </row>
-    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C574" s="8"/>
     </row>
-    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C575" s="8"/>
     </row>
-    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C576" s="8"/>
     </row>
-    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C577" s="8"/>
     </row>
-    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C578" s="8"/>
     </row>
-    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C579" s="8"/>
     </row>
-    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C580" s="8"/>
     </row>
-    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C581" s="8"/>
     </row>
-    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C582" s="8"/>
     </row>
-    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C583" s="8"/>
     </row>
-    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C584" s="8"/>
     </row>
-    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C585" s="8"/>
     </row>
-    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C586" s="8"/>
     </row>
-    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C587" s="8"/>
     </row>
-    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C588" s="8"/>
     </row>
-    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C589" s="8"/>
     </row>
-    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C590" s="8"/>
     </row>
-    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C591" s="8"/>
     </row>
-    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C592" s="8"/>
     </row>
-    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C593" s="8"/>
     </row>
-    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C594" s="8"/>
     </row>
-    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C595" s="8"/>
     </row>
-    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C596" s="8"/>
     </row>
-    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C597" s="8"/>
     </row>
-    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C598" s="8"/>
     </row>
-    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C599" s="8"/>
     </row>
-    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C600" s="8"/>
     </row>
-    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C601" s="8"/>
     </row>
-    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C602" s="8"/>
     </row>
-    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C603" s="8"/>
     </row>
-    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C604" s="8"/>
     </row>
-    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C605" s="8"/>
     </row>
-    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C606" s="8"/>
     </row>
-    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C607" s="8"/>
     </row>
-    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C608" s="8"/>
     </row>
-    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C609" s="8"/>
     </row>
-    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C610" s="8"/>
     </row>
-    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C611" s="8"/>
     </row>
-    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C612" s="8"/>
     </row>
-    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C613" s="8"/>
     </row>
-    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C614" s="8"/>
     </row>
-    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C615" s="8"/>
     </row>
-    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C616" s="8"/>
     </row>
-    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C617" s="8"/>
     </row>
-    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C618" s="8"/>
     </row>
-    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C619" s="8"/>
     </row>
-    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C620" s="8"/>
     </row>
-    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C621" s="8"/>
     </row>
-    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C622" s="8"/>
     </row>
-    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C623" s="8"/>
     </row>
-    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C624" s="8"/>
     </row>
-    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C625" s="8"/>
     </row>
-    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C626" s="8"/>
     </row>
-    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C627" s="8"/>
     </row>
-    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C628" s="8"/>
     </row>
-    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C629" s="8"/>
     </row>
-    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C630" s="8"/>
     </row>
-    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C631" s="8"/>
     </row>
-    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C632" s="8"/>
     </row>
-    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C633" s="8"/>
     </row>
-    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C634" s="8"/>
     </row>
-    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C635" s="8"/>
     </row>
-    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C636" s="8"/>
     </row>
-    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C637" s="8"/>
     </row>
-    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C638" s="8"/>
     </row>
-    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C639" s="8"/>
     </row>
-    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C640" s="8"/>
     </row>
-    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C641" s="8"/>
     </row>
-    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C642" s="8"/>
     </row>
-    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C643" s="8"/>
     </row>
-    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C644" s="8"/>
     </row>
-    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C645" s="8"/>
     </row>
-    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C646" s="8"/>
     </row>
-    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C647" s="8"/>
     </row>
-    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C648" s="8"/>
     </row>
-    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C649" s="8"/>
     </row>
-    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C650" s="8"/>
     </row>
-    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C651" s="8"/>
     </row>
-    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C652" s="8"/>
     </row>
-    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C653" s="8"/>
     </row>
-    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C654" s="8"/>
     </row>
-    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C655" s="8"/>
     </row>
-    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C656" s="8"/>
     </row>
-    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C657" s="8"/>
     </row>
-    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C658" s="8"/>
     </row>
-    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C659" s="8"/>
     </row>
-    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C660" s="8"/>
     </row>
-    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C661" s="8"/>
     </row>
-    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C662" s="8"/>
     </row>
-    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C663" s="8"/>
     </row>
-    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C664" s="8"/>
     </row>
-    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C665" s="8"/>
     </row>
-    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C666" s="8"/>
     </row>
-    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C667" s="8"/>
     </row>
-    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C668" s="8"/>
     </row>
-    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C669" s="8"/>
     </row>
-    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C670" s="8"/>
     </row>
-    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C671" s="8"/>
     </row>
-    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C672" s="8"/>
     </row>
-    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C673" s="8"/>
     </row>
-    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C674" s="8"/>
     </row>
-    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C675" s="8"/>
     </row>
-    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C676" s="8"/>
     </row>
-    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C677" s="8"/>
     </row>
-    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C678" s="8"/>
     </row>
-    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C679" s="8"/>
     </row>
-    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C680" s="8"/>
     </row>
-    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C681" s="8"/>
     </row>
-    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C682" s="8"/>
     </row>
-    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C683" s="8"/>
     </row>
-    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C684" s="8"/>
     </row>
-    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C685" s="8"/>
     </row>
-    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C686" s="8"/>
     </row>
-    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C687" s="8"/>
     </row>
-    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C688" s="8"/>
     </row>
-    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C689" s="8"/>
     </row>
-    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C690" s="8"/>
     </row>
-    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C691" s="8"/>
     </row>
-    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C692" s="8"/>
     </row>
-    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C693" s="8"/>
     </row>
-    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C694" s="8"/>
     </row>
-    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C695" s="8"/>
     </row>
-    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C696" s="8"/>
     </row>
-    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C697" s="8"/>
     </row>
-    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C698" s="8"/>
     </row>
-    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C699" s="8"/>
     </row>
-    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C700" s="8"/>
     </row>
-    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C701" s="8"/>
     </row>
-    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C702" s="8"/>
     </row>
-    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C703" s="8"/>
     </row>
-    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C704" s="8"/>
     </row>
-    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C705" s="8"/>
     </row>
-    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C706" s="8"/>
     </row>
-    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C707" s="8"/>
     </row>
-    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C708" s="8"/>
     </row>
-    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C709" s="8"/>
     </row>
-    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C710" s="8"/>
     </row>
-    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C711" s="8"/>
     </row>
-    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C712" s="8"/>
     </row>
-    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C713" s="8"/>
     </row>
-    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C714" s="8"/>
     </row>
-    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C715" s="8"/>
     </row>
-    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C716" s="8"/>
     </row>
-    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C717" s="8"/>
     </row>
-    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C718" s="8"/>
     </row>
-    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C719" s="8"/>
     </row>
-    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C720" s="8"/>
     </row>
-    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C721" s="8"/>
     </row>
-    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C722" s="8"/>
     </row>
-    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C723" s="8"/>
     </row>
-    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C724" s="8"/>
     </row>
-    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C725" s="8"/>
     </row>
-    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C726" s="8"/>
     </row>
-    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C727" s="8"/>
     </row>
-    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C728" s="8"/>
     </row>
-    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C729" s="8"/>
     </row>
-    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C730" s="8"/>
     </row>
-    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C731" s="8"/>
     </row>
-    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C732" s="8"/>
     </row>
-    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C733" s="8"/>
     </row>
-    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C734" s="8"/>
     </row>
-    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C735" s="8"/>
     </row>
-    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C736" s="8"/>
     </row>
-    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C737" s="8"/>
     </row>
-    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C738" s="8"/>
     </row>
-    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C739" s="8"/>
     </row>
-    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C740" s="8"/>
     </row>
-    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C741" s="8"/>
     </row>
-    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C742" s="8"/>
     </row>
-    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C743" s="8"/>
     </row>
-    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C744" s="8"/>
     </row>
-    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C745" s="8"/>
     </row>
-    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C746" s="8"/>
     </row>
-    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C747" s="8"/>
     </row>
-    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C748" s="8"/>
     </row>
-    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C749" s="8"/>
     </row>
-    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C750" s="8"/>
     </row>
-    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C751" s="8"/>
     </row>
-    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C752" s="8"/>
     </row>
-    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C753" s="8"/>
     </row>
-    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C754" s="8"/>
     </row>
-    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C755" s="8"/>
     </row>
-    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C756" s="8"/>
     </row>
-    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C757" s="8"/>
     </row>
-    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C758" s="8"/>
     </row>
-    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C759" s="8"/>
     </row>
-    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C760" s="8"/>
     </row>
-    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C761" s="8"/>
     </row>
-    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C762" s="8"/>
     </row>
-    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C763" s="8"/>
     </row>
-    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C764" s="8"/>
     </row>
-    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C765" s="8"/>
     </row>
-    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C766" s="8"/>
     </row>
-    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C767" s="8"/>
     </row>
-    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C768" s="8"/>
     </row>
-    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C769" s="8"/>
     </row>
-    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C770" s="8"/>
     </row>
-    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C771" s="8"/>
     </row>
-    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C772" s="8"/>
     </row>
-    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C773" s="8"/>
     </row>
-    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C774" s="8"/>
     </row>
-    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C775" s="8"/>
     </row>
-    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C776" s="8"/>
     </row>
-    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C777" s="8"/>
     </row>
-    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C778" s="8"/>
     </row>
-    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C779" s="8"/>
     </row>
-    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C780" s="8"/>
     </row>
-    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C781" s="8"/>
     </row>
-    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C782" s="8"/>
     </row>
-    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C783" s="8"/>
     </row>
-    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C784" s="8"/>
     </row>
-    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C785" s="8"/>
     </row>
-    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C786" s="8"/>
     </row>
-    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C787" s="8"/>
     </row>
-    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C788" s="8"/>
     </row>
-    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C789" s="8"/>
     </row>
-    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C790" s="8"/>
     </row>
-    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C791" s="8"/>
     </row>
-    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C792" s="8"/>
     </row>
-    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C793" s="8"/>
     </row>
-    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C794" s="8"/>
     </row>
-    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C795" s="8"/>
     </row>
-    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C796" s="8"/>
     </row>
-    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C797" s="8"/>
     </row>
-    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C798" s="8"/>
     </row>
-    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C799" s="8"/>
     </row>
-    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C800" s="8"/>
     </row>
-    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C801" s="8"/>
     </row>
-    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C802" s="8"/>
     </row>
-    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C803" s="8"/>
     </row>
-    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C804" s="8"/>
     </row>
-    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C805" s="8"/>
     </row>
-    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C806" s="8"/>
     </row>
-    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C807" s="8"/>
     </row>
-    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C808" s="8"/>
     </row>
-    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C809" s="8"/>
     </row>
-    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C810" s="8"/>
     </row>
-    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C811" s="8"/>
     </row>
-    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C812" s="8"/>
     </row>
-    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C813" s="8"/>
     </row>
-    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C814" s="8"/>
     </row>
-    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C815" s="8"/>
     </row>
-    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C816" s="8"/>
     </row>
-    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C817" s="8"/>
     </row>
-    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C818" s="8"/>
     </row>
-    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C819" s="8"/>
     </row>
-    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C820" s="8"/>
     </row>
-    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C821" s="8"/>
     </row>
-    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C822" s="8"/>
     </row>
-    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C823" s="8"/>
     </row>
-    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C824" s="8"/>
     </row>
-    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C825" s="8"/>
     </row>
-    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C826" s="8"/>
     </row>
-    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C827" s="8"/>
     </row>
-    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C828" s="8"/>
     </row>
-    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C829" s="8"/>
     </row>
-    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C830" s="8"/>
     </row>
-    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C831" s="8"/>
     </row>
-    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C832" s="8"/>
     </row>
-    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C833" s="8"/>
     </row>
-    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C834" s="8"/>
     </row>
-    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C835" s="8"/>
     </row>
-    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C836" s="8"/>
     </row>
-    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C837" s="8"/>
     </row>
-    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C838" s="8"/>
     </row>
-    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C839" s="8"/>
     </row>
-    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C840" s="8"/>
     </row>
-    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C841" s="8"/>
     </row>
-    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C842" s="8"/>
     </row>
-    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C843" s="8"/>
     </row>
-    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C844" s="8"/>
     </row>
-    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C845" s="8"/>
     </row>
-    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C846" s="8"/>
     </row>
-    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C847" s="8"/>
     </row>
-    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C848" s="8"/>
     </row>
-    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C849" s="8"/>
     </row>
-    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C850" s="8"/>
     </row>
-    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C851" s="8"/>
     </row>
-    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C852" s="8"/>
     </row>
-    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C853" s="8"/>
     </row>
-    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C854" s="8"/>
     </row>
-    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C855" s="8"/>
     </row>
-    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C856" s="8"/>
     </row>
-    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C857" s="8"/>
     </row>
-    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C858" s="8"/>
     </row>
-    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C859" s="8"/>
     </row>
-    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C860" s="8"/>
     </row>
-    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C861" s="8"/>
     </row>
-    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C862" s="8"/>
     </row>
-    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C863" s="8"/>
     </row>
-    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C864" s="8"/>
     </row>
-    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C865" s="8"/>
     </row>
-    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C866" s="8"/>
     </row>
-    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C867" s="8"/>
     </row>
-    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C868" s="8"/>
     </row>
-    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C869" s="8"/>
     </row>
-    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C870" s="8"/>
     </row>
-    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C871" s="8"/>
     </row>
-    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C872" s="8"/>
     </row>
-    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C873" s="8"/>
     </row>
-    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C874" s="8"/>
     </row>
-    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C875" s="8"/>
     </row>
-    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C876" s="8"/>
     </row>
-    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C877" s="8"/>
     </row>
-    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C878" s="8"/>
     </row>
-    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C879" s="8"/>
     </row>
-    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C880" s="8"/>
     </row>
-    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C881" s="8"/>
     </row>
-    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C882" s="8"/>
     </row>
-    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C883" s="8"/>
     </row>
-    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C884" s="8"/>
     </row>
-    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C885" s="8"/>
     </row>
-    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C886" s="8"/>
     </row>
-    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C887" s="8"/>
     </row>
-    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C888" s="8"/>
     </row>
-    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C889" s="8"/>
     </row>
-    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C890" s="8"/>
     </row>
-    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C891" s="8"/>
     </row>
-    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C892" s="8"/>
     </row>
-    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C893" s="8"/>
     </row>
-    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C894" s="8"/>
     </row>
-    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C895" s="8"/>
     </row>
-    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C896" s="8"/>
     </row>
-    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C897" s="8"/>
     </row>
-    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C898" s="8"/>
     </row>
-    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C899" s="8"/>
     </row>
-    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C900" s="8"/>
     </row>
-    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C901" s="8"/>
     </row>
-    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C902" s="8"/>
     </row>
-    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C903" s="8"/>
     </row>
-    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C904" s="8"/>
     </row>
-    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C905" s="8"/>
     </row>
-    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C906" s="8"/>
     </row>
-    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C907" s="8"/>
     </row>
-    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C908" s="8"/>
     </row>
-    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C909" s="8"/>
     </row>
-    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C910" s="8"/>
     </row>
-    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C911" s="8"/>
     </row>
-    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C912" s="8"/>
     </row>
-    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C913" s="8"/>
     </row>
-    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C914" s="8"/>
     </row>
-    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C915" s="8"/>
     </row>
-    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C916" s="8"/>
     </row>
-    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C917" s="8"/>
     </row>
-    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C918" s="8"/>
     </row>
-    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C919" s="8"/>
     </row>
-    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C920" s="8"/>
     </row>
-    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C921" s="8"/>
     </row>
-    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C922" s="8"/>
     </row>
-    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C923" s="8"/>
     </row>
-    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C924" s="8"/>
     </row>
-    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C925" s="8"/>
     </row>
-    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C926" s="8"/>
     </row>
-    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C927" s="8"/>
     </row>
-    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C928" s="8"/>
     </row>
-    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C929" s="8"/>
     </row>
-    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C930" s="8"/>
     </row>
-    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C931" s="8"/>
     </row>
-    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C932" s="8"/>
     </row>
-    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C933" s="8"/>
     </row>
-    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C934" s="8"/>
     </row>
-    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C935" s="8"/>
     </row>
-    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C936" s="8"/>
     </row>
-    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C937" s="8"/>
     </row>
-    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C938" s="8"/>
     </row>
-    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C939" s="8"/>
     </row>
-    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C940" s="8"/>
     </row>
-    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C941" s="8"/>
     </row>
-    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C942" s="8"/>
     </row>
-    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C943" s="8"/>
     </row>
-    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C944" s="8"/>
     </row>
-    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C945" s="8"/>
     </row>
-    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C946" s="8"/>
     </row>
-    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C947" s="8"/>
     </row>
-    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C948" s="8"/>
     </row>
-    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C949" s="8"/>
     </row>
-    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C950" s="8"/>
     </row>
-    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C951" s="8"/>
     </row>
-    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C952" s="8"/>
     </row>
-    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C953" s="8"/>
     </row>
-    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C954" s="8"/>
     </row>
-    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C955" s="8"/>
     </row>
-    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C956" s="8"/>
     </row>
-    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C957" s="8"/>
     </row>
-    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C958" s="8"/>
     </row>
-    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C959" s="8"/>
     </row>
-    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C960" s="8"/>
     </row>
-    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C961" s="8"/>
     </row>
-    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C962" s="8"/>
     </row>
-    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C963" s="8"/>
     </row>
-    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C964" s="8"/>
     </row>
-    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C965" s="8"/>
     </row>
-    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C966" s="8"/>
     </row>
-    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C967" s="8"/>
     </row>
-    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C968" s="8"/>
     </row>
-    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C969" s="8"/>
     </row>
-    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C970" s="8"/>
     </row>
-    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C971" s="8"/>
     </row>
-    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C972" s="8"/>
     </row>
-    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C973" s="8"/>
     </row>
-    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C974" s="8"/>
     </row>
-    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C975" s="8"/>
     </row>
-    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C976" s="8"/>
     </row>
-    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C977" s="8"/>
     </row>
-    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C978" s="8"/>
     </row>
-    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C979" s="8"/>
     </row>
-    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C980" s="8"/>
     </row>
-    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C981" s="8"/>
     </row>
-    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C982" s="8"/>
     </row>
-    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C983" s="8"/>
     </row>
-    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C984" s="8"/>
     </row>
-    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C985" s="8"/>
     </row>
-    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C986" s="8"/>
     </row>
-    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C987" s="8"/>
     </row>
-    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C988" s="8"/>
     </row>
-    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C989" s="8"/>
     </row>
-    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C990" s="8"/>
     </row>
-    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C991" s="8"/>
     </row>
-    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C992" s="8"/>
     </row>
-    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C993" s="8"/>
     </row>
-    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C994" s="8"/>
     </row>
-    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C995" s="8"/>
     </row>
-    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C996" s="8"/>
     </row>
-    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C997" s="8"/>
     </row>
-    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C998" s="8"/>
     </row>
-    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C999" s="8"/>
     </row>
-    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C1000" s="8"/>
     </row>
   </sheetData>
@@ -4618,7 +4911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4628,12 +4921,12 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="71.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="57.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4649,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5045,7 +5338,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -5065,7 +5358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -5083,7 +5376,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -5101,7 +5394,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5109,7 +5402,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -5117,7 +5410,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5125,7 +5418,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5133,7 +5426,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5143,22 +5436,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A13" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A14" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/" xr:uid="{C6AB1660-1E37-4BDC-89F5-2B0331ED6873}"/>
-    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/" xr:uid="{76E2B199-7625-4655-8CA8-F4AA1558FC07}"/>
-    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/" xr:uid="{B5F8B7C0-0066-476E-956D-ACBB50D5F29E}"/>
-    <hyperlink ref="A23" r:id="rId9" xr:uid="{215A6281-22D1-41B5-82DA-B66958A01496}"/>
-    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/" xr:uid="{F7BC3736-693B-481A-96FA-9B0C2713AA44}"/>
-    <hyperlink ref="A25" r:id="rId11" xr:uid="{C48FED01-4418-4EDD-B999-D34ED3DEEDF5}"/>
-    <hyperlink ref="A26" r:id="rId12" xr:uid="{016852AF-3EF8-4A18-83BD-9E109E65E922}"/>
-    <hyperlink ref="A27" r:id="rId13" xr:uid="{11C3A422-177F-422C-8BA2-C528C02BEA11}"/>
-    <hyperlink ref="A28" r:id="rId14" xr:uid="{5952C5A5-E903-475D-9E30-4B41D2C180BF}"/>
-    <hyperlink ref="A29" r:id="rId15" xr:uid="{9C307AF7-A80C-4AD9-ACD6-3AA112E28B30}"/>
-    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at" xr:uid="{58416EBB-3A87-4937-BD72-753F6038922F}"/>
+    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A12" r:id="rId3"/>
+    <hyperlink ref="A13" r:id="rId4"/>
+    <hyperlink ref="A14" r:id="rId5"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A23" r:id="rId9"/>
+    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/"/>
+    <hyperlink ref="A25" r:id="rId11"/>
+    <hyperlink ref="A26" r:id="rId12"/>
+    <hyperlink ref="A27" r:id="rId13"/>
+    <hyperlink ref="A28" r:id="rId14"/>
+    <hyperlink ref="A29" r:id="rId15"/>
+    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
@@ -5167,22 +5460,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="65.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.6328125" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="3" max="3" width="65.36328125" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5199,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5639,7 +5932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -5659,7 +5952,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -5679,7 +5972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
@@ -5699,7 +5992,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
@@ -5717,7 +6010,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -5725,7 +6018,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -5733,7 +6026,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -5741,7 +6034,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -5751,9 +6044,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="http://www.elsevier.com/locate/datak " xr:uid="{C02AE80B-EC0B-48DF-A2CA-4A5CEE611318}"/>
-    <hyperlink ref="A17" r:id="rId2" display="http://www.elsevier.com/locate/datak " xr:uid="{527EAEF8-4303-45A8-8048-324858630BD9}"/>
-    <hyperlink ref="A16" r:id="rId3" display="http://www.elsevier.com/locate/datak " xr:uid="{8C694CCA-0E0D-4C9D-9D70-7A16A40BAA89}"/>
+    <hyperlink ref="A18" r:id="rId1" display="http://www.elsevier.com/locate/datak "/>
+    <hyperlink ref="A17" r:id="rId2" display="http://www.elsevier.com/locate/datak "/>
+    <hyperlink ref="A16" r:id="rId3" display="http://www.elsevier.com/locate/datak "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\IT_Projekt_SS19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967C22B-4B1B-49F2-B3F6-68F399FEBB67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Merisa" sheetId="2" r:id="rId4"/>
     <sheet name="Milos" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
   <si>
     <t>Name:</t>
   </si>
@@ -306,17 +307,50 @@
   </si>
   <si>
     <t>software in non profit sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pubsonline.informs.org </t>
+  </si>
+  <si>
+    <t>Event Management</t>
+  </si>
+  <si>
+    <t>Event Management solution</t>
+  </si>
+  <si>
+    <t>CRM (eingeschränkt auf Information Systems Research)</t>
+  </si>
+  <si>
+    <t>kein Zugang</t>
+  </si>
+  <si>
+    <t>CRM Implementation for event management (7 Seiten durchgegangen)</t>
+  </si>
+  <si>
+    <t>nicht direkt passendes</t>
+  </si>
+  <si>
+    <t>event management system (7 Seiten durchgegangen)</t>
+  </si>
+  <si>
+    <t>event management AND "CRM" AND "managing events"</t>
+  </si>
+  <si>
+    <t>nichts relevantes</t>
+  </si>
+  <si>
+    <t>event management AND "CRM" (die ersten sieben Seiten durchgegangen)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -356,6 +390,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -401,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -429,16 +469,20 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,7 +512,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -507,7 +551,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -546,7 +590,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -589,7 +633,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -628,7 +672,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -948,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -958,11 +1002,11 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="67.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1150,7 +1194,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1158,7 +1202,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1166,7 +1210,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1174,7 +1218,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1182,7 +1226,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1190,7 +1234,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1198,7 +1242,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1206,7 +1250,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1221,7 +1265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1231,12 +1275,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="61.6328125" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1424,7 +1468,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1432,7 +1476,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1440,7 +1484,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1448,7 +1492,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1456,7 +1500,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1464,7 +1508,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1472,7 +1516,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1480,7 +1524,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1495,24 +1539,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="35.36328125" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="122.54296875" customWidth="1"/>
+    <col min="6" max="6" width="122.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,7 +1592,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1916,7 +1960,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>84</v>
       </c>
@@ -1928,7 +1972,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>84</v>
       </c>
@@ -1940,7 +1984,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>89</v>
       </c>
@@ -1960,7 +2004,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>89</v>
       </c>
@@ -1980,7 +2024,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="13"/>
@@ -1988,7 +2032,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13"/>
@@ -1996,7 +2040,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="13"/>
@@ -2004,7 +2048,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
@@ -2012,2896 +2056,2896 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C232" s="8"/>
     </row>
-    <row r="233" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C233" s="8"/>
     </row>
-    <row r="234" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C234" s="8"/>
     </row>
-    <row r="235" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C235" s="8"/>
     </row>
-    <row r="236" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C238" s="8"/>
     </row>
-    <row r="239" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C239" s="8"/>
     </row>
-    <row r="240" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C240" s="8"/>
     </row>
-    <row r="241" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C243" s="8"/>
     </row>
-    <row r="244" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C244" s="8"/>
     </row>
-    <row r="245" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C245" s="8"/>
     </row>
-    <row r="246" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C246" s="8"/>
     </row>
-    <row r="247" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C247" s="8"/>
     </row>
-    <row r="248" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C250" s="8"/>
     </row>
-    <row r="251" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C251" s="8"/>
     </row>
-    <row r="252" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C252" s="8"/>
     </row>
-    <row r="253" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C253" s="8"/>
     </row>
-    <row r="254" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C254" s="8"/>
     </row>
-    <row r="255" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C255" s="8"/>
     </row>
-    <row r="256" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C256" s="8"/>
     </row>
-    <row r="257" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C259" s="8"/>
     </row>
-    <row r="260" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C260" s="8"/>
     </row>
-    <row r="261" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C264" s="8"/>
     </row>
-    <row r="265" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C280" s="8"/>
     </row>
-    <row r="281" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C282" s="8"/>
     </row>
-    <row r="283" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C284" s="8"/>
     </row>
-    <row r="285" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C286" s="8"/>
     </row>
-    <row r="287" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C287" s="8"/>
     </row>
-    <row r="288" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C288" s="8"/>
     </row>
-    <row r="289" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C289" s="8"/>
     </row>
-    <row r="290" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C290" s="8"/>
     </row>
-    <row r="291" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C292" s="8"/>
     </row>
-    <row r="293" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C293" s="8"/>
     </row>
-    <row r="294" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C296" s="8"/>
     </row>
-    <row r="297" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C297" s="8"/>
     </row>
-    <row r="298" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C298" s="8"/>
     </row>
-    <row r="299" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C299" s="8"/>
     </row>
-    <row r="300" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C300" s="8"/>
     </row>
-    <row r="301" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C301" s="8"/>
     </row>
-    <row r="302" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C302" s="8"/>
     </row>
-    <row r="303" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C303" s="8"/>
     </row>
-    <row r="304" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C304" s="8"/>
     </row>
-    <row r="305" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C305" s="8"/>
     </row>
-    <row r="306" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C306" s="8"/>
     </row>
-    <row r="307" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C307" s="8"/>
     </row>
-    <row r="308" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C308" s="8"/>
     </row>
-    <row r="309" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C309" s="8"/>
     </row>
-    <row r="310" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C310" s="8"/>
     </row>
-    <row r="311" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C311" s="8"/>
     </row>
-    <row r="312" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C312" s="8"/>
     </row>
-    <row r="313" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C313" s="8"/>
     </row>
-    <row r="314" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C314" s="8"/>
     </row>
-    <row r="315" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C315" s="8"/>
     </row>
-    <row r="316" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C316" s="8"/>
     </row>
-    <row r="317" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C317" s="8"/>
     </row>
-    <row r="318" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C318" s="8"/>
     </row>
-    <row r="319" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C319" s="8"/>
     </row>
-    <row r="320" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C320" s="8"/>
     </row>
-    <row r="321" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C321" s="8"/>
     </row>
-    <row r="322" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C322" s="8"/>
     </row>
-    <row r="323" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C323" s="8"/>
     </row>
-    <row r="324" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C324" s="8"/>
     </row>
-    <row r="325" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C325" s="8"/>
     </row>
-    <row r="326" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C326" s="8"/>
     </row>
-    <row r="327" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C327" s="8"/>
     </row>
-    <row r="328" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C328" s="8"/>
     </row>
-    <row r="329" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C329" s="8"/>
     </row>
-    <row r="330" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C330" s="8"/>
     </row>
-    <row r="331" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C331" s="8"/>
     </row>
-    <row r="332" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C332" s="8"/>
     </row>
-    <row r="333" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C333" s="8"/>
     </row>
-    <row r="334" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C336" s="8"/>
     </row>
-    <row r="337" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C337" s="8"/>
     </row>
-    <row r="338" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C338" s="8"/>
     </row>
-    <row r="339" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C339" s="8"/>
     </row>
-    <row r="340" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C340" s="8"/>
     </row>
-    <row r="341" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C341" s="8"/>
     </row>
-    <row r="342" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C342" s="8"/>
     </row>
-    <row r="343" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C343" s="8"/>
     </row>
-    <row r="344" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C346" s="8"/>
     </row>
-    <row r="347" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C347" s="8"/>
     </row>
-    <row r="348" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C348" s="8"/>
     </row>
-    <row r="349" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C349" s="8"/>
     </row>
-    <row r="350" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C350" s="8"/>
     </row>
-    <row r="351" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C351" s="8"/>
     </row>
-    <row r="352" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C352" s="8"/>
     </row>
-    <row r="353" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C353" s="8"/>
     </row>
-    <row r="354" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C356" s="8"/>
     </row>
-    <row r="357" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C357" s="8"/>
     </row>
-    <row r="358" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C358" s="8"/>
     </row>
-    <row r="359" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C359" s="8"/>
     </row>
-    <row r="360" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C361" s="8"/>
     </row>
-    <row r="362" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C362" s="8"/>
     </row>
-    <row r="363" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C363" s="8"/>
     </row>
-    <row r="364" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C364" s="8"/>
     </row>
-    <row r="365" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C365" s="8"/>
     </row>
-    <row r="366" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C366" s="8"/>
     </row>
-    <row r="367" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C367" s="8"/>
     </row>
-    <row r="368" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C368" s="8"/>
     </row>
-    <row r="369" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C369" s="8"/>
     </row>
-    <row r="370" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C370" s="8"/>
     </row>
-    <row r="371" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C371" s="8"/>
     </row>
-    <row r="372" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C372" s="8"/>
     </row>
-    <row r="373" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C373" s="8"/>
     </row>
-    <row r="374" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C374" s="8"/>
     </row>
-    <row r="375" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C375" s="8"/>
     </row>
-    <row r="376" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C376" s="8"/>
     </row>
-    <row r="377" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C377" s="8"/>
     </row>
-    <row r="378" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C378" s="8"/>
     </row>
-    <row r="379" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C379" s="8"/>
     </row>
-    <row r="380" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C380" s="8"/>
     </row>
-    <row r="381" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C381" s="8"/>
     </row>
-    <row r="382" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C382" s="8"/>
     </row>
-    <row r="383" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C383" s="8"/>
     </row>
-    <row r="384" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C384" s="8"/>
     </row>
-    <row r="385" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C385" s="8"/>
     </row>
-    <row r="386" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C386" s="8"/>
     </row>
-    <row r="387" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C387" s="8"/>
     </row>
-    <row r="388" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C388" s="8"/>
     </row>
-    <row r="389" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C389" s="8"/>
     </row>
-    <row r="390" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C390" s="8"/>
     </row>
-    <row r="391" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C392" s="8"/>
     </row>
-    <row r="393" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C393" s="8"/>
     </row>
-    <row r="394" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C394" s="8"/>
     </row>
-    <row r="395" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C395" s="8"/>
     </row>
-    <row r="396" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C396" s="8"/>
     </row>
-    <row r="397" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C397" s="8"/>
     </row>
-    <row r="398" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C398" s="8"/>
     </row>
-    <row r="399" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C399" s="8"/>
     </row>
-    <row r="400" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C402" s="8"/>
     </row>
-    <row r="403" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C403" s="8"/>
     </row>
-    <row r="404" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C404" s="8"/>
     </row>
-    <row r="405" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C405" s="8"/>
     </row>
-    <row r="406" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C406" s="8"/>
     </row>
-    <row r="407" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C407" s="8"/>
     </row>
-    <row r="408" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C410" s="8"/>
     </row>
-    <row r="411" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C411" s="8"/>
     </row>
-    <row r="412" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C412" s="8"/>
     </row>
-    <row r="413" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C413" s="8"/>
     </row>
-    <row r="414" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C414" s="8"/>
     </row>
-    <row r="415" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C415" s="8"/>
     </row>
-    <row r="416" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C416" s="8"/>
     </row>
-    <row r="417" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C417" s="8"/>
     </row>
-    <row r="418" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C418" s="8"/>
     </row>
-    <row r="419" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C419" s="8"/>
     </row>
-    <row r="420" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C420" s="8"/>
     </row>
-    <row r="421" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C421" s="8"/>
     </row>
-    <row r="422" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C422" s="8"/>
     </row>
-    <row r="423" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C423" s="8"/>
     </row>
-    <row r="424" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C424" s="8"/>
     </row>
-    <row r="425" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C425" s="8"/>
     </row>
-    <row r="426" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C426" s="8"/>
     </row>
-    <row r="427" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C427" s="8"/>
     </row>
-    <row r="428" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C428" s="8"/>
     </row>
-    <row r="429" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C429" s="8"/>
     </row>
-    <row r="430" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C430" s="8"/>
     </row>
-    <row r="431" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C431" s="8"/>
     </row>
-    <row r="432" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C432" s="8"/>
     </row>
-    <row r="433" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C433" s="8"/>
     </row>
-    <row r="434" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C434" s="8"/>
     </row>
-    <row r="435" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C435" s="8"/>
     </row>
-    <row r="436" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C436" s="8"/>
     </row>
-    <row r="437" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C437" s="8"/>
     </row>
-    <row r="438" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C438" s="8"/>
     </row>
-    <row r="439" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C439" s="8"/>
     </row>
-    <row r="440" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C440" s="8"/>
     </row>
-    <row r="441" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C441" s="8"/>
     </row>
-    <row r="442" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C442" s="8"/>
     </row>
-    <row r="443" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C443" s="8"/>
     </row>
-    <row r="444" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C444" s="8"/>
     </row>
-    <row r="445" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C445" s="8"/>
     </row>
-    <row r="446" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C446" s="8"/>
     </row>
-    <row r="447" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C447" s="8"/>
     </row>
-    <row r="448" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C448" s="8"/>
     </row>
-    <row r="449" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C449" s="8"/>
     </row>
-    <row r="450" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C450" s="8"/>
     </row>
-    <row r="451" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C451" s="8"/>
     </row>
-    <row r="452" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C452" s="8"/>
     </row>
-    <row r="453" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C453" s="8"/>
     </row>
-    <row r="454" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C454" s="8"/>
     </row>
-    <row r="455" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C455" s="8"/>
     </row>
-    <row r="456" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C456" s="8"/>
     </row>
-    <row r="457" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C457" s="8"/>
     </row>
-    <row r="458" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C458" s="8"/>
     </row>
-    <row r="459" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C459" s="8"/>
     </row>
-    <row r="460" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C460" s="8"/>
     </row>
-    <row r="461" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C461" s="8"/>
     </row>
-    <row r="462" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C462" s="8"/>
     </row>
-    <row r="463" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C463" s="8"/>
     </row>
-    <row r="464" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C464" s="8"/>
     </row>
-    <row r="465" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C465" s="8"/>
     </row>
-    <row r="466" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C466" s="8"/>
     </row>
-    <row r="467" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C467" s="8"/>
     </row>
-    <row r="468" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C468" s="8"/>
     </row>
-    <row r="469" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C469" s="8"/>
     </row>
-    <row r="470" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C472" s="8"/>
     </row>
-    <row r="473" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C473" s="8"/>
     </row>
-    <row r="474" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C474" s="8"/>
     </row>
-    <row r="475" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C475" s="8"/>
     </row>
-    <row r="476" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C476" s="8"/>
     </row>
-    <row r="477" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C477" s="8"/>
     </row>
-    <row r="478" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C479" s="8"/>
     </row>
-    <row r="480" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C480" s="8"/>
     </row>
-    <row r="481" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C535" s="8"/>
     </row>
-    <row r="536" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C536" s="8"/>
     </row>
-    <row r="537" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C537" s="8"/>
     </row>
-    <row r="538" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C538" s="8"/>
     </row>
-    <row r="539" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C539" s="8"/>
     </row>
-    <row r="540" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C540" s="8"/>
     </row>
-    <row r="541" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C541" s="8"/>
     </row>
-    <row r="542" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C542" s="8"/>
     </row>
-    <row r="543" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C543" s="8"/>
     </row>
-    <row r="544" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C544" s="8"/>
     </row>
-    <row r="545" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C545" s="8"/>
     </row>
-    <row r="546" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C546" s="8"/>
     </row>
-    <row r="547" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C547" s="8"/>
     </row>
-    <row r="548" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C548" s="8"/>
     </row>
-    <row r="549" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C549" s="8"/>
     </row>
-    <row r="550" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C550" s="8"/>
     </row>
-    <row r="551" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C551" s="8"/>
     </row>
-    <row r="552" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C552" s="8"/>
     </row>
-    <row r="553" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C553" s="8"/>
     </row>
-    <row r="554" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C554" s="8"/>
     </row>
-    <row r="555" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C555" s="8"/>
     </row>
-    <row r="556" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C556" s="8"/>
     </row>
-    <row r="557" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C557" s="8"/>
     </row>
-    <row r="558" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C558" s="8"/>
     </row>
-    <row r="559" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C559" s="8"/>
     </row>
-    <row r="560" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C560" s="8"/>
     </row>
-    <row r="561" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C561" s="8"/>
     </row>
-    <row r="562" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C562" s="8"/>
     </row>
-    <row r="563" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C563" s="8"/>
     </row>
-    <row r="564" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C564" s="8"/>
     </row>
-    <row r="565" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C565" s="8"/>
     </row>
-    <row r="566" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C566" s="8"/>
     </row>
-    <row r="567" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C567" s="8"/>
     </row>
-    <row r="568" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C568" s="8"/>
     </row>
-    <row r="569" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C569" s="8"/>
     </row>
-    <row r="570" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C570" s="8"/>
     </row>
-    <row r="571" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C571" s="8"/>
     </row>
-    <row r="572" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C572" s="8"/>
     </row>
-    <row r="573" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C573" s="8"/>
     </row>
-    <row r="574" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C574" s="8"/>
     </row>
-    <row r="575" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C575" s="8"/>
     </row>
-    <row r="576" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C576" s="8"/>
     </row>
-    <row r="577" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C577" s="8"/>
     </row>
-    <row r="578" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C578" s="8"/>
     </row>
-    <row r="579" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C579" s="8"/>
     </row>
-    <row r="580" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C580" s="8"/>
     </row>
-    <row r="581" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C581" s="8"/>
     </row>
-    <row r="582" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C582" s="8"/>
     </row>
-    <row r="583" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C583" s="8"/>
     </row>
-    <row r="584" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C584" s="8"/>
     </row>
-    <row r="585" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C585" s="8"/>
     </row>
-    <row r="586" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C586" s="8"/>
     </row>
-    <row r="587" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C587" s="8"/>
     </row>
-    <row r="588" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C588" s="8"/>
     </row>
-    <row r="589" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C589" s="8"/>
     </row>
-    <row r="590" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C590" s="8"/>
     </row>
-    <row r="591" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C591" s="8"/>
     </row>
-    <row r="592" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C592" s="8"/>
     </row>
-    <row r="593" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C593" s="8"/>
     </row>
-    <row r="594" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C594" s="8"/>
     </row>
-    <row r="595" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C595" s="8"/>
     </row>
-    <row r="596" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C596" s="8"/>
     </row>
-    <row r="597" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C597" s="8"/>
     </row>
-    <row r="598" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C598" s="8"/>
     </row>
-    <row r="599" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C599" s="8"/>
     </row>
-    <row r="600" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C600" s="8"/>
     </row>
-    <row r="601" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C601" s="8"/>
     </row>
-    <row r="602" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C602" s="8"/>
     </row>
-    <row r="603" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C603" s="8"/>
     </row>
-    <row r="604" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C604" s="8"/>
     </row>
-    <row r="605" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C605" s="8"/>
     </row>
-    <row r="606" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C606" s="8"/>
     </row>
-    <row r="607" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C607" s="8"/>
     </row>
-    <row r="608" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C608" s="8"/>
     </row>
-    <row r="609" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C609" s="8"/>
     </row>
-    <row r="610" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C610" s="8"/>
     </row>
-    <row r="611" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C611" s="8"/>
     </row>
-    <row r="612" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C612" s="8"/>
     </row>
-    <row r="613" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C613" s="8"/>
     </row>
-    <row r="614" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C614" s="8"/>
     </row>
-    <row r="615" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C615" s="8"/>
     </row>
-    <row r="616" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C616" s="8"/>
     </row>
-    <row r="617" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C617" s="8"/>
     </row>
-    <row r="618" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C618" s="8"/>
     </row>
-    <row r="619" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C619" s="8"/>
     </row>
-    <row r="620" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C620" s="8"/>
     </row>
-    <row r="621" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C621" s="8"/>
     </row>
-    <row r="622" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C622" s="8"/>
     </row>
-    <row r="623" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C623" s="8"/>
     </row>
-    <row r="624" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C624" s="8"/>
     </row>
-    <row r="625" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C625" s="8"/>
     </row>
-    <row r="626" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C626" s="8"/>
     </row>
-    <row r="627" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C627" s="8"/>
     </row>
-    <row r="628" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C628" s="8"/>
     </row>
-    <row r="629" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C629" s="8"/>
     </row>
-    <row r="630" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C630" s="8"/>
     </row>
-    <row r="631" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C631" s="8"/>
     </row>
-    <row r="632" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C632" s="8"/>
     </row>
-    <row r="633" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C633" s="8"/>
     </row>
-    <row r="634" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C634" s="8"/>
     </row>
-    <row r="635" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C635" s="8"/>
     </row>
-    <row r="636" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C636" s="8"/>
     </row>
-    <row r="637" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C637" s="8"/>
     </row>
-    <row r="638" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C638" s="8"/>
     </row>
-    <row r="639" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C639" s="8"/>
     </row>
-    <row r="640" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C640" s="8"/>
     </row>
-    <row r="641" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C641" s="8"/>
     </row>
-    <row r="642" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C642" s="8"/>
     </row>
-    <row r="643" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C643" s="8"/>
     </row>
-    <row r="644" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C644" s="8"/>
     </row>
-    <row r="645" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C645" s="8"/>
     </row>
-    <row r="646" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C646" s="8"/>
     </row>
-    <row r="647" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C647" s="8"/>
     </row>
-    <row r="648" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C648" s="8"/>
     </row>
-    <row r="649" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C649" s="8"/>
     </row>
-    <row r="650" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C650" s="8"/>
     </row>
-    <row r="651" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C651" s="8"/>
     </row>
-    <row r="652" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C652" s="8"/>
     </row>
-    <row r="653" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C653" s="8"/>
     </row>
-    <row r="654" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C654" s="8"/>
     </row>
-    <row r="655" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C655" s="8"/>
     </row>
-    <row r="656" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C656" s="8"/>
     </row>
-    <row r="657" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C657" s="8"/>
     </row>
-    <row r="658" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C658" s="8"/>
     </row>
-    <row r="659" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C659" s="8"/>
     </row>
-    <row r="660" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C660" s="8"/>
     </row>
-    <row r="661" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C661" s="8"/>
     </row>
-    <row r="662" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C662" s="8"/>
     </row>
-    <row r="663" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C663" s="8"/>
     </row>
-    <row r="664" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C664" s="8"/>
     </row>
-    <row r="665" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C665" s="8"/>
     </row>
-    <row r="666" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C666" s="8"/>
     </row>
-    <row r="667" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C667" s="8"/>
     </row>
-    <row r="668" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C668" s="8"/>
     </row>
-    <row r="669" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C669" s="8"/>
     </row>
-    <row r="670" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C670" s="8"/>
     </row>
-    <row r="671" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C671" s="8"/>
     </row>
-    <row r="672" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C672" s="8"/>
     </row>
-    <row r="673" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C673" s="8"/>
     </row>
-    <row r="674" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C674" s="8"/>
     </row>
-    <row r="675" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C675" s="8"/>
     </row>
-    <row r="676" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C676" s="8"/>
     </row>
-    <row r="677" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C677" s="8"/>
     </row>
-    <row r="678" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C678" s="8"/>
     </row>
-    <row r="679" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C679" s="8"/>
     </row>
-    <row r="680" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C680" s="8"/>
     </row>
-    <row r="681" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C681" s="8"/>
     </row>
-    <row r="682" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C682" s="8"/>
     </row>
-    <row r="683" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C683" s="8"/>
     </row>
-    <row r="684" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C684" s="8"/>
     </row>
-    <row r="685" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C685" s="8"/>
     </row>
-    <row r="686" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C686" s="8"/>
     </row>
-    <row r="687" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C687" s="8"/>
     </row>
-    <row r="688" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C688" s="8"/>
     </row>
-    <row r="689" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C689" s="8"/>
     </row>
-    <row r="690" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C690" s="8"/>
     </row>
-    <row r="691" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C691" s="8"/>
     </row>
-    <row r="692" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C692" s="8"/>
     </row>
-    <row r="693" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C693" s="8"/>
     </row>
-    <row r="694" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C694" s="8"/>
     </row>
-    <row r="695" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C695" s="8"/>
     </row>
-    <row r="696" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C696" s="8"/>
     </row>
-    <row r="697" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C697" s="8"/>
     </row>
-    <row r="698" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C698" s="8"/>
     </row>
-    <row r="699" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C699" s="8"/>
     </row>
-    <row r="700" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C700" s="8"/>
     </row>
-    <row r="701" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C701" s="8"/>
     </row>
-    <row r="702" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C702" s="8"/>
     </row>
-    <row r="703" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C703" s="8"/>
     </row>
-    <row r="704" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C704" s="8"/>
     </row>
-    <row r="705" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C705" s="8"/>
     </row>
-    <row r="706" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C706" s="8"/>
     </row>
-    <row r="707" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C707" s="8"/>
     </row>
-    <row r="708" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C708" s="8"/>
     </row>
-    <row r="709" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C709" s="8"/>
     </row>
-    <row r="710" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C710" s="8"/>
     </row>
-    <row r="711" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C711" s="8"/>
     </row>
-    <row r="712" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C712" s="8"/>
     </row>
-    <row r="713" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C713" s="8"/>
     </row>
-    <row r="714" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C714" s="8"/>
     </row>
-    <row r="715" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C715" s="8"/>
     </row>
-    <row r="716" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C716" s="8"/>
     </row>
-    <row r="717" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C717" s="8"/>
     </row>
-    <row r="718" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C718" s="8"/>
     </row>
-    <row r="719" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C719" s="8"/>
     </row>
-    <row r="720" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C720" s="8"/>
     </row>
-    <row r="721" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C721" s="8"/>
     </row>
-    <row r="722" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C722" s="8"/>
     </row>
-    <row r="723" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C723" s="8"/>
     </row>
-    <row r="724" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C724" s="8"/>
     </row>
-    <row r="725" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C725" s="8"/>
     </row>
-    <row r="726" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C726" s="8"/>
     </row>
-    <row r="727" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C727" s="8"/>
     </row>
-    <row r="728" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C728" s="8"/>
     </row>
-    <row r="729" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C729" s="8"/>
     </row>
-    <row r="730" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C730" s="8"/>
     </row>
-    <row r="731" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C731" s="8"/>
     </row>
-    <row r="732" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C732" s="8"/>
     </row>
-    <row r="733" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C733" s="8"/>
     </row>
-    <row r="734" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C734" s="8"/>
     </row>
-    <row r="735" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C735" s="8"/>
     </row>
-    <row r="736" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C736" s="8"/>
     </row>
-    <row r="737" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C737" s="8"/>
     </row>
-    <row r="738" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C738" s="8"/>
     </row>
-    <row r="739" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C739" s="8"/>
     </row>
-    <row r="740" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C740" s="8"/>
     </row>
-    <row r="741" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C741" s="8"/>
     </row>
-    <row r="742" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C742" s="8"/>
     </row>
-    <row r="743" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C743" s="8"/>
     </row>
-    <row r="744" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C744" s="8"/>
     </row>
-    <row r="745" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C745" s="8"/>
     </row>
-    <row r="746" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C746" s="8"/>
     </row>
-    <row r="747" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C747" s="8"/>
     </row>
-    <row r="748" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C748" s="8"/>
     </row>
-    <row r="749" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C749" s="8"/>
     </row>
-    <row r="750" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C750" s="8"/>
     </row>
-    <row r="751" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C751" s="8"/>
     </row>
-    <row r="752" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C752" s="8"/>
     </row>
-    <row r="753" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C753" s="8"/>
     </row>
-    <row r="754" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C754" s="8"/>
     </row>
-    <row r="755" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C755" s="8"/>
     </row>
-    <row r="756" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C756" s="8"/>
     </row>
-    <row r="757" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C757" s="8"/>
     </row>
-    <row r="758" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C758" s="8"/>
     </row>
-    <row r="759" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C759" s="8"/>
     </row>
-    <row r="760" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C760" s="8"/>
     </row>
-    <row r="761" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C761" s="8"/>
     </row>
-    <row r="762" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C762" s="8"/>
     </row>
-    <row r="763" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C763" s="8"/>
     </row>
-    <row r="764" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C764" s="8"/>
     </row>
-    <row r="765" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C765" s="8"/>
     </row>
-    <row r="766" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C766" s="8"/>
     </row>
-    <row r="767" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C767" s="8"/>
     </row>
-    <row r="768" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C768" s="8"/>
     </row>
-    <row r="769" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C769" s="8"/>
     </row>
-    <row r="770" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C770" s="8"/>
     </row>
-    <row r="771" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C771" s="8"/>
     </row>
-    <row r="772" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C772" s="8"/>
     </row>
-    <row r="773" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C773" s="8"/>
     </row>
-    <row r="774" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C774" s="8"/>
     </row>
-    <row r="775" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C775" s="8"/>
     </row>
-    <row r="776" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C776" s="8"/>
     </row>
-    <row r="777" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C777" s="8"/>
     </row>
-    <row r="778" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C778" s="8"/>
     </row>
-    <row r="779" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C779" s="8"/>
     </row>
-    <row r="780" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C780" s="8"/>
     </row>
-    <row r="781" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C781" s="8"/>
     </row>
-    <row r="782" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C782" s="8"/>
     </row>
-    <row r="783" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C783" s="8"/>
     </row>
-    <row r="784" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C784" s="8"/>
     </row>
-    <row r="785" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C785" s="8"/>
     </row>
-    <row r="786" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C786" s="8"/>
     </row>
-    <row r="787" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C787" s="8"/>
     </row>
-    <row r="788" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C788" s="8"/>
     </row>
-    <row r="789" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C789" s="8"/>
     </row>
-    <row r="790" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C790" s="8"/>
     </row>
-    <row r="791" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C791" s="8"/>
     </row>
-    <row r="792" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C792" s="8"/>
     </row>
-    <row r="793" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C793" s="8"/>
     </row>
-    <row r="794" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C794" s="8"/>
     </row>
-    <row r="795" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C795" s="8"/>
     </row>
-    <row r="796" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C796" s="8"/>
     </row>
-    <row r="797" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C797" s="8"/>
     </row>
-    <row r="798" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C798" s="8"/>
     </row>
-    <row r="799" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C799" s="8"/>
     </row>
-    <row r="800" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C800" s="8"/>
     </row>
-    <row r="801" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C801" s="8"/>
     </row>
-    <row r="802" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C802" s="8"/>
     </row>
-    <row r="803" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C803" s="8"/>
     </row>
-    <row r="804" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C804" s="8"/>
     </row>
-    <row r="805" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C805" s="8"/>
     </row>
-    <row r="806" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C806" s="8"/>
     </row>
-    <row r="807" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C807" s="8"/>
     </row>
-    <row r="808" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C808" s="8"/>
     </row>
-    <row r="809" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C809" s="8"/>
     </row>
-    <row r="810" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C810" s="8"/>
     </row>
-    <row r="811" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C811" s="8"/>
     </row>
-    <row r="812" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C812" s="8"/>
     </row>
-    <row r="813" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C813" s="8"/>
     </row>
-    <row r="814" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C814" s="8"/>
     </row>
-    <row r="815" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C815" s="8"/>
     </row>
-    <row r="816" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C816" s="8"/>
     </row>
-    <row r="817" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C817" s="8"/>
     </row>
-    <row r="818" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C818" s="8"/>
     </row>
-    <row r="819" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C819" s="8"/>
     </row>
-    <row r="820" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C820" s="8"/>
     </row>
-    <row r="821" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C821" s="8"/>
     </row>
-    <row r="822" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C822" s="8"/>
     </row>
-    <row r="823" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C823" s="8"/>
     </row>
-    <row r="824" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C824" s="8"/>
     </row>
-    <row r="825" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C825" s="8"/>
     </row>
-    <row r="826" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C826" s="8"/>
     </row>
-    <row r="827" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C827" s="8"/>
     </row>
-    <row r="828" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C828" s="8"/>
     </row>
-    <row r="829" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C829" s="8"/>
     </row>
-    <row r="830" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C830" s="8"/>
     </row>
-    <row r="831" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C831" s="8"/>
     </row>
-    <row r="832" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C832" s="8"/>
     </row>
-    <row r="833" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C833" s="8"/>
     </row>
-    <row r="834" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C834" s="8"/>
     </row>
-    <row r="835" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C835" s="8"/>
     </row>
-    <row r="836" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C836" s="8"/>
     </row>
-    <row r="837" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C837" s="8"/>
     </row>
-    <row r="838" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C838" s="8"/>
     </row>
-    <row r="839" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C839" s="8"/>
     </row>
-    <row r="840" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C840" s="8"/>
     </row>
-    <row r="841" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C841" s="8"/>
     </row>
-    <row r="842" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C842" s="8"/>
     </row>
-    <row r="843" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C843" s="8"/>
     </row>
-    <row r="844" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C844" s="8"/>
     </row>
-    <row r="845" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C845" s="8"/>
     </row>
-    <row r="846" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C846" s="8"/>
     </row>
-    <row r="847" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C847" s="8"/>
     </row>
-    <row r="848" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C848" s="8"/>
     </row>
-    <row r="849" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C849" s="8"/>
     </row>
-    <row r="850" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C850" s="8"/>
     </row>
-    <row r="851" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C851" s="8"/>
     </row>
-    <row r="852" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C852" s="8"/>
     </row>
-    <row r="853" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C853" s="8"/>
     </row>
-    <row r="854" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C854" s="8"/>
     </row>
-    <row r="855" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C855" s="8"/>
     </row>
-    <row r="856" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C856" s="8"/>
     </row>
-    <row r="857" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C857" s="8"/>
     </row>
-    <row r="858" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C858" s="8"/>
     </row>
-    <row r="859" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C859" s="8"/>
     </row>
-    <row r="860" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C860" s="8"/>
     </row>
-    <row r="861" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C861" s="8"/>
     </row>
-    <row r="862" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C862" s="8"/>
     </row>
-    <row r="863" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C863" s="8"/>
     </row>
-    <row r="864" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C864" s="8"/>
     </row>
-    <row r="865" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C865" s="8"/>
     </row>
-    <row r="866" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C866" s="8"/>
     </row>
-    <row r="867" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C867" s="8"/>
     </row>
-    <row r="868" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C868" s="8"/>
     </row>
-    <row r="869" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C869" s="8"/>
     </row>
-    <row r="870" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C870" s="8"/>
     </row>
-    <row r="871" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C871" s="8"/>
     </row>
-    <row r="872" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C872" s="8"/>
     </row>
-    <row r="873" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C873" s="8"/>
     </row>
-    <row r="874" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C874" s="8"/>
     </row>
-    <row r="875" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C875" s="8"/>
     </row>
-    <row r="876" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C876" s="8"/>
     </row>
-    <row r="877" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C877" s="8"/>
     </row>
-    <row r="878" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C878" s="8"/>
     </row>
-    <row r="879" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C879" s="8"/>
     </row>
-    <row r="880" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C880" s="8"/>
     </row>
-    <row r="881" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C881" s="8"/>
     </row>
-    <row r="882" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C882" s="8"/>
     </row>
-    <row r="883" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C883" s="8"/>
     </row>
-    <row r="884" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C884" s="8"/>
     </row>
-    <row r="885" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C885" s="8"/>
     </row>
-    <row r="886" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C886" s="8"/>
     </row>
-    <row r="887" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C887" s="8"/>
     </row>
-    <row r="888" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C888" s="8"/>
     </row>
-    <row r="889" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C889" s="8"/>
     </row>
-    <row r="890" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C890" s="8"/>
     </row>
-    <row r="891" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C891" s="8"/>
     </row>
-    <row r="892" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C892" s="8"/>
     </row>
-    <row r="893" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C893" s="8"/>
     </row>
-    <row r="894" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C894" s="8"/>
     </row>
-    <row r="895" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C895" s="8"/>
     </row>
-    <row r="896" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C896" s="8"/>
     </row>
-    <row r="897" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C897" s="8"/>
     </row>
-    <row r="898" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C898" s="8"/>
     </row>
-    <row r="899" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C899" s="8"/>
     </row>
-    <row r="900" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C900" s="8"/>
     </row>
-    <row r="901" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C901" s="8"/>
     </row>
-    <row r="902" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C902" s="8"/>
     </row>
-    <row r="903" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C903" s="8"/>
     </row>
-    <row r="904" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C904" s="8"/>
     </row>
-    <row r="905" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C905" s="8"/>
     </row>
-    <row r="906" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C906" s="8"/>
     </row>
-    <row r="907" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C907" s="8"/>
     </row>
-    <row r="908" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C908" s="8"/>
     </row>
-    <row r="909" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C909" s="8"/>
     </row>
-    <row r="910" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C910" s="8"/>
     </row>
-    <row r="911" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C911" s="8"/>
     </row>
-    <row r="912" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C912" s="8"/>
     </row>
-    <row r="913" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C913" s="8"/>
     </row>
-    <row r="914" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C914" s="8"/>
     </row>
-    <row r="915" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C915" s="8"/>
     </row>
-    <row r="916" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C916" s="8"/>
     </row>
-    <row r="917" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C917" s="8"/>
     </row>
-    <row r="918" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C918" s="8"/>
     </row>
-    <row r="919" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C919" s="8"/>
     </row>
-    <row r="920" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C920" s="8"/>
     </row>
-    <row r="921" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C921" s="8"/>
     </row>
-    <row r="922" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C922" s="8"/>
     </row>
-    <row r="923" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C923" s="8"/>
     </row>
-    <row r="924" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C924" s="8"/>
     </row>
-    <row r="925" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C925" s="8"/>
     </row>
-    <row r="926" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C926" s="8"/>
     </row>
-    <row r="927" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C927" s="8"/>
     </row>
-    <row r="928" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C928" s="8"/>
     </row>
-    <row r="929" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C929" s="8"/>
     </row>
-    <row r="930" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C930" s="8"/>
     </row>
-    <row r="931" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C931" s="8"/>
     </row>
-    <row r="932" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C932" s="8"/>
     </row>
-    <row r="933" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C933" s="8"/>
     </row>
-    <row r="934" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C934" s="8"/>
     </row>
-    <row r="935" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C935" s="8"/>
     </row>
-    <row r="936" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C936" s="8"/>
     </row>
-    <row r="937" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C937" s="8"/>
     </row>
-    <row r="938" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C938" s="8"/>
     </row>
-    <row r="939" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C939" s="8"/>
     </row>
-    <row r="940" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C940" s="8"/>
     </row>
-    <row r="941" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C941" s="8"/>
     </row>
-    <row r="942" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C942" s="8"/>
     </row>
-    <row r="943" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C943" s="8"/>
     </row>
-    <row r="944" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C944" s="8"/>
     </row>
-    <row r="945" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C945" s="8"/>
     </row>
-    <row r="946" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C946" s="8"/>
     </row>
-    <row r="947" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C947" s="8"/>
     </row>
-    <row r="948" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C948" s="8"/>
     </row>
-    <row r="949" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C949" s="8"/>
     </row>
-    <row r="950" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C950" s="8"/>
     </row>
-    <row r="951" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C951" s="8"/>
     </row>
-    <row r="952" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C952" s="8"/>
     </row>
-    <row r="953" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C953" s="8"/>
     </row>
-    <row r="954" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C954" s="8"/>
     </row>
-    <row r="955" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C955" s="8"/>
     </row>
-    <row r="956" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C956" s="8"/>
     </row>
-    <row r="957" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C957" s="8"/>
     </row>
-    <row r="958" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C958" s="8"/>
     </row>
-    <row r="959" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C959" s="8"/>
     </row>
-    <row r="960" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C960" s="8"/>
     </row>
-    <row r="961" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C961" s="8"/>
     </row>
-    <row r="962" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C962" s="8"/>
     </row>
-    <row r="963" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C963" s="8"/>
     </row>
-    <row r="964" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C964" s="8"/>
     </row>
-    <row r="965" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C965" s="8"/>
     </row>
-    <row r="966" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C966" s="8"/>
     </row>
-    <row r="967" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C967" s="8"/>
     </row>
-    <row r="968" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C968" s="8"/>
     </row>
-    <row r="969" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C969" s="8"/>
     </row>
-    <row r="970" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C970" s="8"/>
     </row>
-    <row r="971" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C971" s="8"/>
     </row>
-    <row r="972" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C972" s="8"/>
     </row>
-    <row r="973" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C973" s="8"/>
     </row>
-    <row r="974" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C974" s="8"/>
     </row>
-    <row r="975" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C975" s="8"/>
     </row>
-    <row r="976" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C976" s="8"/>
     </row>
-    <row r="977" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C977" s="8"/>
     </row>
-    <row r="978" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C978" s="8"/>
     </row>
-    <row r="979" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C979" s="8"/>
     </row>
-    <row r="980" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C980" s="8"/>
     </row>
-    <row r="981" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C981" s="8"/>
     </row>
-    <row r="982" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C982" s="8"/>
     </row>
-    <row r="983" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C983" s="8"/>
     </row>
-    <row r="984" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C984" s="8"/>
     </row>
-    <row r="985" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C985" s="8"/>
     </row>
-    <row r="986" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C986" s="8"/>
     </row>
-    <row r="987" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C987" s="8"/>
     </row>
-    <row r="988" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C988" s="8"/>
     </row>
-    <row r="989" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C989" s="8"/>
     </row>
-    <row r="990" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C990" s="8"/>
     </row>
-    <row r="991" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C991" s="8"/>
     </row>
-    <row r="992" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C992" s="8"/>
     </row>
-    <row r="993" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C993" s="8"/>
     </row>
-    <row r="994" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C994" s="8"/>
     </row>
-    <row r="995" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C995" s="8"/>
     </row>
-    <row r="996" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C996" s="8"/>
     </row>
-    <row r="997" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C997" s="8"/>
     </row>
-    <row r="998" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C998" s="8"/>
     </row>
-    <row r="999" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C999" s="8"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1000" s="8"/>
     </row>
   </sheetData>
@@ -4911,22 +4955,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:F36"/>
+  <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="71.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="57.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4942,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5083,7 +5127,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="15">
@@ -5112,13 +5156,13 @@
       <c r="C17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="24">
         <v>103733</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5132,13 +5176,13 @@
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="23">
         <v>13104</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5152,13 +5196,13 @@
       <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="23">
         <v>14014</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5178,7 +5222,7 @@
       <c r="E20" s="7">
         <v>0</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5198,7 +5242,7 @@
       <c r="E21" s="7">
         <v>0</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5218,7 +5262,7 @@
       <c r="E22" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5238,7 +5282,7 @@
       <c r="E23" s="7">
         <v>0</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5258,7 +5302,7 @@
       <c r="E24" s="7">
         <v>0</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5272,7 +5316,7 @@
       <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="23">
         <v>1340000</v>
       </c>
       <c r="E25" s="7">
@@ -5292,7 +5336,7 @@
       <c r="C26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="23">
         <v>4820</v>
       </c>
       <c r="E26" s="7">
@@ -5312,7 +5356,7 @@
       <c r="C27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="23">
         <v>1700</v>
       </c>
       <c r="E27" s="7">
@@ -5338,7 +5382,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -5358,7 +5402,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -5376,7 +5420,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -5386,7 +5430,7 @@
       <c r="C31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="23">
         <v>5700</v>
       </c>
       <c r="E31" s="7">
@@ -5394,73 +5438,276 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="15">
+        <v>43552</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="7">
+        <v>58</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="15">
+        <v>43552</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="21">
+        <v>367</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="7">
+        <v>582</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2</v>
+      </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="7">
+        <v>812</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="22">
+        <v>4330</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="22">
+        <v>2030000</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="7">
+        <v>119</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="23">
+        <v>4340</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A11" r:id="rId2"/>
-    <hyperlink ref="A12" r:id="rId3"/>
-    <hyperlink ref="A13" r:id="rId4"/>
-    <hyperlink ref="A14" r:id="rId5"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A23" r:id="rId9"/>
-    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/"/>
-    <hyperlink ref="A25" r:id="rId11"/>
-    <hyperlink ref="A26" r:id="rId12"/>
-    <hyperlink ref="A27" r:id="rId13"/>
-    <hyperlink ref="A28" r:id="rId14"/>
-    <hyperlink ref="A29" r:id="rId15"/>
-    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A11" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A13" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://www.deepdyve.com/" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="A21" r:id="rId7" display="https://www.deepdyve.com/" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="A22" r:id="rId8" display="https://www.deepdyve.com/" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="A23" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="A24" r:id="rId10" display="https://www.deepdyve.com/" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="A25" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="A26" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="A27" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="A28" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="A29" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="A30:A31" r:id="rId16" display="scholar.google.at" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="A36" r:id="rId17" xr:uid="{A4BEAF12-7449-44BE-ABD3-1216FC0198FC}"/>
+    <hyperlink ref="A37" r:id="rId18" xr:uid="{56BBEA10-52F7-4825-9BE3-32A0E13E34A7}"/>
+    <hyperlink ref="A38:A39" r:id="rId19" display="scholar.google.at" xr:uid="{14D2699E-56D4-4805-921A-9B15882D7226}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
-  <drawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId20"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5470,12 +5717,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.6328125" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
-    <col min="3" max="3" width="65.36328125" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5492,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5633,7 +5880,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="4">
@@ -5653,7 +5900,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="4">
@@ -5673,7 +5920,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="4">
@@ -5932,7 +6179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -5952,7 +6199,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -5972,7 +6219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
@@ -5992,7 +6239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
@@ -6005,12 +6252,12 @@
       <c r="D34" s="7">
         <v>837</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>1</v>
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -6018,7 +6265,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -6026,7 +6273,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -6034,7 +6281,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -6044,9 +6291,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="http://www.elsevier.com/locate/datak "/>
-    <hyperlink ref="A17" r:id="rId2" display="http://www.elsevier.com/locate/datak "/>
-    <hyperlink ref="A16" r:id="rId3" display="http://www.elsevier.com/locate/datak "/>
+    <hyperlink ref="A18" r:id="rId1" display="http://www.elsevier.com/locate/datak " xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId2" display="http://www.elsevier.com/locate/datak " xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="http://www.elsevier.com/locate/datak " xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\Phase 2 Quali\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967C22B-4B1B-49F2-B3F6-68F399FEBB67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742B7819-DBB8-43AD-B44F-3DB666698FFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="121">
   <si>
     <t>Name:</t>
   </si>
@@ -340,6 +340,60 @@
   </si>
   <si>
     <t>event management AND "CRM" (die ersten sieben Seiten durchgegangen)</t>
+  </si>
+  <si>
+    <t>interview for requirements elicitation</t>
+  </si>
+  <si>
+    <t>Techniken &amp; Gefahren(Mehrdeutigkeite, verschwiegenes Wissen) bei Anforderungserhebung</t>
+  </si>
+  <si>
+    <t>methods for requirements elicitation</t>
+  </si>
+  <si>
+    <t>Nicht zu spezifisch, keine konkreten Vorschläge zur Erhebung von Anforderungen</t>
+  </si>
+  <si>
+    <t>methoden zur anforderungserhebung</t>
+  </si>
+  <si>
+    <t>Methode zur kollaborativen Erhebung gefunden, ansonsten keine deutschsprachige Literatur</t>
+  </si>
+  <si>
+    <t>requirements elicitation idea generation</t>
+  </si>
+  <si>
+    <t>Ansätze zur Erhebung und Validierung von Erhebungsmethoden (inkl Vorgehen) / eher Ansätze nach der ersten Runde von Interviews --&gt; Möglichkeiten zur Kombination</t>
+  </si>
+  <si>
+    <t>software requirements elicitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eher Bücher als Ergebnisse &amp; nicht wissenschaftliche Paper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubsonline.informs.org </t>
+  </si>
+  <si>
+    <t>interview requirements engineering</t>
+  </si>
+  <si>
+    <t>Allgemeine Infos &amp; Einleitung zu Anforderungen &amp; spezifisch auf Design Select-Decision inkl Bsp --&gt; jedoch veraltet</t>
+  </si>
+  <si>
+    <t>requirements elicitation</t>
+  </si>
+  <si>
+    <t>9105 (ohne preview)</t>
+  </si>
+  <si>
+    <t>Zu unspezifisch &amp; unübersichtlich --&gt; genauere Suchanfragen</t>
+  </si>
+  <si>
+    <t>8230 (ohne preview)</t>
+  </si>
+  <si>
+    <t>Nicht relevant, sehr abweichend vom definierten Thema</t>
   </si>
 </sst>
 </file>
@@ -441,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -478,6 +532,15 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1002,14 +1065,14 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,12 +1080,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1042,7 +1105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="6"/>
@@ -1050,7 +1113,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
@@ -1058,7 +1121,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1066,7 +1129,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1074,7 +1137,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1082,7 +1145,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1090,7 +1153,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1098,7 +1161,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1106,7 +1169,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1114,7 +1177,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1122,7 +1185,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1130,7 +1193,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1138,7 +1201,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1146,7 +1209,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1154,7 +1217,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1162,7 +1225,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1170,7 +1233,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1178,7 +1241,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1186,7 +1249,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1194,7 +1257,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1202,7 +1265,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1210,7 +1273,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1218,7 +1281,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1226,7 +1289,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1234,7 +1297,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1242,7 +1305,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1250,7 +1313,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1271,19 +1334,21 @@
   </sheetPr>
   <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="142.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,12 +1356,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1316,71 +1381,167 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="25">
+        <v>43553</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="25">
+        <v>43553</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="25">
+        <v>43553</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1088</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="25">
+        <v>43554</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="27">
+        <v>16000</v>
+      </c>
+      <c r="E13" s="13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="25">
+        <v>43554</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="27">
+        <v>17300</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="25">
+        <v>43555</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="13">
+        <v>951</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="25">
+        <v>43555</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="13">
+        <v>56300</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="25">
+        <v>43555</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="13">
+        <v>78000</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1388,7 +1549,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1396,7 +1557,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1404,7 +1565,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1412,7 +1573,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1420,7 +1581,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1428,7 +1589,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1436,7 +1597,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1444,7 +1605,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1452,7 +1613,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1460,7 +1621,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1468,7 +1629,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1476,7 +1637,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1484,7 +1645,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1492,7 +1653,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1500,7 +1661,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1508,7 +1669,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1516,7 +1677,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1524,7 +1685,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1545,24 +1706,24 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="122.5546875" customWidth="1"/>
+    <col min="6" max="6" width="122.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,28 +1732,28 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -1632,7 +1793,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
@@ -1652,7 +1813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -1672,7 +1833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -1692,7 +1853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -1712,7 +1873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
@@ -1732,7 +1893,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>79</v>
       </c>
@@ -1752,7 +1913,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -1772,7 +1933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>79</v>
       </c>
@@ -1792,7 +1953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
@@ -1812,7 +1973,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
@@ -1832,7 +1993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
@@ -1852,7 +2013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -1872,7 +2033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>84</v>
       </c>
@@ -1892,7 +2053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>84</v>
       </c>
@@ -1912,7 +2073,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="13"/>
@@ -1922,7 +2083,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="13"/>
@@ -1932,7 +2093,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="13"/>
@@ -1940,7 +2101,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>84</v>
       </c>
@@ -1960,7 +2121,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>84</v>
       </c>
@@ -1972,7 +2133,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>84</v>
       </c>
@@ -1984,7 +2145,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>89</v>
       </c>
@@ -2004,7 +2165,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>89</v>
       </c>
@@ -2024,7 +2185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="13"/>
@@ -2032,7 +2193,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13"/>
@@ -2040,7 +2201,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="13"/>
@@ -2048,7 +2209,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
@@ -2056,2896 +2217,2896 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C232" s="8"/>
     </row>
-    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C233" s="8"/>
     </row>
-    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C234" s="8"/>
     </row>
-    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C235" s="8"/>
     </row>
-    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C238" s="8"/>
     </row>
-    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C239" s="8"/>
     </row>
-    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C240" s="8"/>
     </row>
-    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C243" s="8"/>
     </row>
-    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C244" s="8"/>
     </row>
-    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C245" s="8"/>
     </row>
-    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C246" s="8"/>
     </row>
-    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C247" s="8"/>
     </row>
-    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C250" s="8"/>
     </row>
-    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C251" s="8"/>
     </row>
-    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C252" s="8"/>
     </row>
-    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C253" s="8"/>
     </row>
-    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C254" s="8"/>
     </row>
-    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C255" s="8"/>
     </row>
-    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C256" s="8"/>
     </row>
-    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C259" s="8"/>
     </row>
-    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C260" s="8"/>
     </row>
-    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C264" s="8"/>
     </row>
-    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C280" s="8"/>
     </row>
-    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C282" s="8"/>
     </row>
-    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C284" s="8"/>
     </row>
-    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C286" s="8"/>
     </row>
-    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C287" s="8"/>
     </row>
-    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C288" s="8"/>
     </row>
-    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C289" s="8"/>
     </row>
-    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C290" s="8"/>
     </row>
-    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C292" s="8"/>
     </row>
-    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C293" s="8"/>
     </row>
-    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C296" s="8"/>
     </row>
-    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C297" s="8"/>
     </row>
-    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C298" s="8"/>
     </row>
-    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C299" s="8"/>
     </row>
-    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C300" s="8"/>
     </row>
-    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C301" s="8"/>
     </row>
-    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C302" s="8"/>
     </row>
-    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C303" s="8"/>
     </row>
-    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C304" s="8"/>
     </row>
-    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C305" s="8"/>
     </row>
-    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C306" s="8"/>
     </row>
-    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C307" s="8"/>
     </row>
-    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C308" s="8"/>
     </row>
-    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C309" s="8"/>
     </row>
-    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C310" s="8"/>
     </row>
-    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C311" s="8"/>
     </row>
-    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C312" s="8"/>
     </row>
-    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C313" s="8"/>
     </row>
-    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C314" s="8"/>
     </row>
-    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C315" s="8"/>
     </row>
-    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C316" s="8"/>
     </row>
-    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C317" s="8"/>
     </row>
-    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C318" s="8"/>
     </row>
-    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C319" s="8"/>
     </row>
-    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C320" s="8"/>
     </row>
-    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C321" s="8"/>
     </row>
-    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C322" s="8"/>
     </row>
-    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C323" s="8"/>
     </row>
-    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C324" s="8"/>
     </row>
-    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C325" s="8"/>
     </row>
-    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C326" s="8"/>
     </row>
-    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C327" s="8"/>
     </row>
-    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C328" s="8"/>
     </row>
-    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C329" s="8"/>
     </row>
-    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C330" s="8"/>
     </row>
-    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C331" s="8"/>
     </row>
-    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C332" s="8"/>
     </row>
-    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C333" s="8"/>
     </row>
-    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C336" s="8"/>
     </row>
-    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C337" s="8"/>
     </row>
-    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C338" s="8"/>
     </row>
-    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C339" s="8"/>
     </row>
-    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C340" s="8"/>
     </row>
-    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C341" s="8"/>
     </row>
-    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C342" s="8"/>
     </row>
-    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C343" s="8"/>
     </row>
-    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C346" s="8"/>
     </row>
-    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C347" s="8"/>
     </row>
-    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C348" s="8"/>
     </row>
-    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C349" s="8"/>
     </row>
-    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C350" s="8"/>
     </row>
-    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C351" s="8"/>
     </row>
-    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C352" s="8"/>
     </row>
-    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C353" s="8"/>
     </row>
-    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C356" s="8"/>
     </row>
-    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C357" s="8"/>
     </row>
-    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C358" s="8"/>
     </row>
-    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C359" s="8"/>
     </row>
-    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C361" s="8"/>
     </row>
-    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C362" s="8"/>
     </row>
-    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C363" s="8"/>
     </row>
-    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C364" s="8"/>
     </row>
-    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C365" s="8"/>
     </row>
-    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C366" s="8"/>
     </row>
-    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C367" s="8"/>
     </row>
-    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C368" s="8"/>
     </row>
-    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C369" s="8"/>
     </row>
-    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C370" s="8"/>
     </row>
-    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C371" s="8"/>
     </row>
-    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C372" s="8"/>
     </row>
-    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C373" s="8"/>
     </row>
-    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C374" s="8"/>
     </row>
-    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C375" s="8"/>
     </row>
-    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C376" s="8"/>
     </row>
-    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C377" s="8"/>
     </row>
-    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C378" s="8"/>
     </row>
-    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C379" s="8"/>
     </row>
-    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C380" s="8"/>
     </row>
-    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C381" s="8"/>
     </row>
-    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C382" s="8"/>
     </row>
-    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C383" s="8"/>
     </row>
-    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C384" s="8"/>
     </row>
-    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C385" s="8"/>
     </row>
-    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C386" s="8"/>
     </row>
-    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="8"/>
     </row>
-    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="8"/>
     </row>
-    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="8"/>
     </row>
-    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="8"/>
     </row>
-    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="8"/>
     </row>
-    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="8"/>
     </row>
-    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="8"/>
     </row>
-    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="8"/>
     </row>
-    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="8"/>
     </row>
-    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="8"/>
     </row>
-    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="8"/>
     </row>
-    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="8"/>
     </row>
-    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="8"/>
     </row>
-    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="8"/>
     </row>
-    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="8"/>
     </row>
-    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="8"/>
     </row>
-    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C406" s="8"/>
     </row>
-    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C407" s="8"/>
     </row>
-    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C410" s="8"/>
     </row>
-    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C411" s="8"/>
     </row>
-    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C412" s="8"/>
     </row>
-    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C413" s="8"/>
     </row>
-    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C414" s="8"/>
     </row>
-    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C415" s="8"/>
     </row>
-    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C416" s="8"/>
     </row>
-    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C417" s="8"/>
     </row>
-    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C418" s="8"/>
     </row>
-    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C419" s="8"/>
     </row>
-    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C420" s="8"/>
     </row>
-    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C421" s="8"/>
     </row>
-    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C422" s="8"/>
     </row>
-    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C423" s="8"/>
     </row>
-    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C424" s="8"/>
     </row>
-    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C425" s="8"/>
     </row>
-    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C426" s="8"/>
     </row>
-    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C427" s="8"/>
     </row>
-    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C428" s="8"/>
     </row>
-    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C429" s="8"/>
     </row>
-    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C430" s="8"/>
     </row>
-    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C431" s="8"/>
     </row>
-    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C432" s="8"/>
     </row>
-    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C433" s="8"/>
     </row>
-    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C434" s="8"/>
     </row>
-    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C435" s="8"/>
     </row>
-    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C436" s="8"/>
     </row>
-    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C437" s="8"/>
     </row>
-    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C438" s="8"/>
     </row>
-    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C439" s="8"/>
     </row>
-    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C440" s="8"/>
     </row>
-    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C441" s="8"/>
     </row>
-    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C442" s="8"/>
     </row>
-    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C443" s="8"/>
     </row>
-    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C444" s="8"/>
     </row>
-    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C445" s="8"/>
     </row>
-    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C446" s="8"/>
     </row>
-    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C447" s="8"/>
     </row>
-    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C448" s="8"/>
     </row>
-    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C449" s="8"/>
     </row>
-    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C450" s="8"/>
     </row>
-    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C451" s="8"/>
     </row>
-    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C452" s="8"/>
     </row>
-    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C453" s="8"/>
     </row>
-    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C454" s="8"/>
     </row>
-    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C455" s="8"/>
     </row>
-    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C456" s="8"/>
     </row>
-    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C457" s="8"/>
     </row>
-    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C458" s="8"/>
     </row>
-    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C459" s="8"/>
     </row>
-    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C460" s="8"/>
     </row>
-    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C461" s="8"/>
     </row>
-    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C462" s="8"/>
     </row>
-    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C463" s="8"/>
     </row>
-    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C464" s="8"/>
     </row>
-    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C465" s="8"/>
     </row>
-    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C466" s="8"/>
     </row>
-    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C467" s="8"/>
     </row>
-    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C468" s="8"/>
     </row>
-    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C469" s="8"/>
     </row>
-    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C472" s="8"/>
     </row>
-    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C473" s="8"/>
     </row>
-    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C474" s="8"/>
     </row>
-    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C475" s="8"/>
     </row>
-    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C476" s="8"/>
     </row>
-    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C477" s="8"/>
     </row>
-    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C479" s="8"/>
     </row>
-    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C480" s="8"/>
     </row>
-    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C535" s="8"/>
     </row>
-    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C536" s="8"/>
     </row>
-    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C537" s="8"/>
     </row>
-    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C538" s="8"/>
     </row>
-    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C539" s="8"/>
     </row>
-    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C540" s="8"/>
     </row>
-    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C541" s="8"/>
     </row>
-    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C542" s="8"/>
     </row>
-    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C543" s="8"/>
     </row>
-    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C544" s="8"/>
     </row>
-    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C545" s="8"/>
     </row>
-    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C546" s="8"/>
     </row>
-    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C547" s="8"/>
     </row>
-    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C548" s="8"/>
     </row>
-    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C549" s="8"/>
     </row>
-    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C550" s="8"/>
     </row>
-    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C551" s="8"/>
     </row>
-    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C552" s="8"/>
     </row>
-    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C553" s="8"/>
     </row>
-    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C554" s="8"/>
     </row>
-    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C555" s="8"/>
     </row>
-    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C556" s="8"/>
     </row>
-    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C557" s="8"/>
     </row>
-    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C558" s="8"/>
     </row>
-    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C559" s="8"/>
     </row>
-    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C560" s="8"/>
     </row>
-    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C561" s="8"/>
     </row>
-    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C562" s="8"/>
     </row>
-    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C563" s="8"/>
     </row>
-    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C564" s="8"/>
     </row>
-    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C565" s="8"/>
     </row>
-    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C566" s="8"/>
     </row>
-    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C567" s="8"/>
     </row>
-    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C568" s="8"/>
     </row>
-    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C569" s="8"/>
     </row>
-    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C570" s="8"/>
     </row>
-    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C571" s="8"/>
     </row>
-    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C572" s="8"/>
     </row>
-    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C573" s="8"/>
     </row>
-    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C574" s="8"/>
     </row>
-    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C575" s="8"/>
     </row>
-    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C576" s="8"/>
     </row>
-    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C577" s="8"/>
     </row>
-    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C578" s="8"/>
     </row>
-    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C579" s="8"/>
     </row>
-    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C580" s="8"/>
     </row>
-    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C581" s="8"/>
     </row>
-    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C582" s="8"/>
     </row>
-    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C583" s="8"/>
     </row>
-    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C584" s="8"/>
     </row>
-    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C585" s="8"/>
     </row>
-    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C586" s="8"/>
     </row>
-    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C587" s="8"/>
     </row>
-    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C588" s="8"/>
     </row>
-    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C589" s="8"/>
     </row>
-    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C590" s="8"/>
     </row>
-    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C591" s="8"/>
     </row>
-    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C592" s="8"/>
     </row>
-    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C593" s="8"/>
     </row>
-    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C594" s="8"/>
     </row>
-    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C595" s="8"/>
     </row>
-    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C596" s="8"/>
     </row>
-    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C597" s="8"/>
     </row>
-    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C598" s="8"/>
     </row>
-    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C599" s="8"/>
     </row>
-    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C600" s="8"/>
     </row>
-    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C601" s="8"/>
     </row>
-    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C602" s="8"/>
     </row>
-    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C603" s="8"/>
     </row>
-    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C604" s="8"/>
     </row>
-    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C605" s="8"/>
     </row>
-    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C606" s="8"/>
     </row>
-    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C607" s="8"/>
     </row>
-    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C608" s="8"/>
     </row>
-    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C609" s="8"/>
     </row>
-    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C610" s="8"/>
     </row>
-    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C611" s="8"/>
     </row>
-    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C612" s="8"/>
     </row>
-    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C613" s="8"/>
     </row>
-    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C614" s="8"/>
     </row>
-    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C615" s="8"/>
     </row>
-    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C616" s="8"/>
     </row>
-    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C617" s="8"/>
     </row>
-    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C618" s="8"/>
     </row>
-    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C619" s="8"/>
     </row>
-    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C620" s="8"/>
     </row>
-    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C621" s="8"/>
     </row>
-    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C622" s="8"/>
     </row>
-    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C623" s="8"/>
     </row>
-    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C624" s="8"/>
     </row>
-    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C625" s="8"/>
     </row>
-    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C626" s="8"/>
     </row>
-    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C627" s="8"/>
     </row>
-    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C628" s="8"/>
     </row>
-    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C629" s="8"/>
     </row>
-    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C630" s="8"/>
     </row>
-    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C631" s="8"/>
     </row>
-    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C632" s="8"/>
     </row>
-    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C633" s="8"/>
     </row>
-    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C634" s="8"/>
     </row>
-    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C635" s="8"/>
     </row>
-    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C636" s="8"/>
     </row>
-    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C637" s="8"/>
     </row>
-    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C638" s="8"/>
     </row>
-    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C639" s="8"/>
     </row>
-    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C640" s="8"/>
     </row>
-    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C641" s="8"/>
     </row>
-    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C642" s="8"/>
     </row>
-    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C643" s="8"/>
     </row>
-    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C644" s="8"/>
     </row>
-    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C645" s="8"/>
     </row>
-    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C646" s="8"/>
     </row>
-    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C647" s="8"/>
     </row>
-    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C648" s="8"/>
     </row>
-    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C649" s="8"/>
     </row>
-    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C650" s="8"/>
     </row>
-    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C651" s="8"/>
     </row>
-    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C652" s="8"/>
     </row>
-    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C653" s="8"/>
     </row>
-    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C654" s="8"/>
     </row>
-    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C655" s="8"/>
     </row>
-    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C656" s="8"/>
     </row>
-    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C657" s="8"/>
     </row>
-    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C658" s="8"/>
     </row>
-    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C659" s="8"/>
     </row>
-    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C660" s="8"/>
     </row>
-    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C661" s="8"/>
     </row>
-    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C662" s="8"/>
     </row>
-    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C663" s="8"/>
     </row>
-    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C664" s="8"/>
     </row>
-    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C665" s="8"/>
     </row>
-    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C666" s="8"/>
     </row>
-    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C667" s="8"/>
     </row>
-    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C668" s="8"/>
     </row>
-    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C669" s="8"/>
     </row>
-    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C670" s="8"/>
     </row>
-    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C671" s="8"/>
     </row>
-    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C672" s="8"/>
     </row>
-    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C673" s="8"/>
     </row>
-    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C674" s="8"/>
     </row>
-    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C675" s="8"/>
     </row>
-    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C676" s="8"/>
     </row>
-    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C677" s="8"/>
     </row>
-    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C678" s="8"/>
     </row>
-    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C679" s="8"/>
     </row>
-    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C680" s="8"/>
     </row>
-    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C681" s="8"/>
     </row>
-    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C682" s="8"/>
     </row>
-    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C683" s="8"/>
     </row>
-    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C684" s="8"/>
     </row>
-    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C685" s="8"/>
     </row>
-    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C686" s="8"/>
     </row>
-    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C687" s="8"/>
     </row>
-    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C688" s="8"/>
     </row>
-    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C689" s="8"/>
     </row>
-    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C690" s="8"/>
     </row>
-    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C691" s="8"/>
     </row>
-    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C692" s="8"/>
     </row>
-    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C693" s="8"/>
     </row>
-    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C694" s="8"/>
     </row>
-    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C695" s="8"/>
     </row>
-    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C696" s="8"/>
     </row>
-    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C697" s="8"/>
     </row>
-    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C698" s="8"/>
     </row>
-    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C699" s="8"/>
     </row>
-    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C700" s="8"/>
     </row>
-    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C701" s="8"/>
     </row>
-    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C702" s="8"/>
     </row>
-    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C703" s="8"/>
     </row>
-    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C704" s="8"/>
     </row>
-    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C705" s="8"/>
     </row>
-    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C706" s="8"/>
     </row>
-    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C707" s="8"/>
     </row>
-    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C708" s="8"/>
     </row>
-    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C709" s="8"/>
     </row>
-    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C710" s="8"/>
     </row>
-    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C711" s="8"/>
     </row>
-    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C712" s="8"/>
     </row>
-    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C713" s="8"/>
     </row>
-    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C714" s="8"/>
     </row>
-    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C715" s="8"/>
     </row>
-    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C716" s="8"/>
     </row>
-    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C717" s="8"/>
     </row>
-    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C718" s="8"/>
     </row>
-    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C719" s="8"/>
     </row>
-    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C720" s="8"/>
     </row>
-    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C721" s="8"/>
     </row>
-    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C722" s="8"/>
     </row>
-    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C723" s="8"/>
     </row>
-    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C724" s="8"/>
     </row>
-    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C725" s="8"/>
     </row>
-    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C726" s="8"/>
     </row>
-    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C727" s="8"/>
     </row>
-    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C728" s="8"/>
     </row>
-    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C729" s="8"/>
     </row>
-    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C730" s="8"/>
     </row>
-    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C731" s="8"/>
     </row>
-    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C732" s="8"/>
     </row>
-    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C733" s="8"/>
     </row>
-    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C734" s="8"/>
     </row>
-    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C735" s="8"/>
     </row>
-    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C736" s="8"/>
     </row>
-    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C737" s="8"/>
     </row>
-    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C738" s="8"/>
     </row>
-    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C739" s="8"/>
     </row>
-    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C740" s="8"/>
     </row>
-    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C741" s="8"/>
     </row>
-    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C742" s="8"/>
     </row>
-    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C743" s="8"/>
     </row>
-    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C744" s="8"/>
     </row>
-    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C745" s="8"/>
     </row>
-    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C746" s="8"/>
     </row>
-    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C747" s="8"/>
     </row>
-    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C748" s="8"/>
     </row>
-    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C749" s="8"/>
     </row>
-    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C750" s="8"/>
     </row>
-    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C751" s="8"/>
     </row>
-    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C752" s="8"/>
     </row>
-    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C753" s="8"/>
     </row>
-    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C754" s="8"/>
     </row>
-    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C755" s="8"/>
     </row>
-    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C756" s="8"/>
     </row>
-    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C757" s="8"/>
     </row>
-    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C758" s="8"/>
     </row>
-    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C759" s="8"/>
     </row>
-    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C760" s="8"/>
     </row>
-    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C761" s="8"/>
     </row>
-    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C762" s="8"/>
     </row>
-    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C763" s="8"/>
     </row>
-    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C764" s="8"/>
     </row>
-    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C765" s="8"/>
     </row>
-    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C766" s="8"/>
     </row>
-    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C767" s="8"/>
     </row>
-    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C768" s="8"/>
     </row>
-    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C769" s="8"/>
     </row>
-    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C770" s="8"/>
     </row>
-    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C771" s="8"/>
     </row>
-    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C772" s="8"/>
     </row>
-    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C773" s="8"/>
     </row>
-    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C774" s="8"/>
     </row>
-    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C775" s="8"/>
     </row>
-    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C776" s="8"/>
     </row>
-    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C777" s="8"/>
     </row>
-    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C778" s="8"/>
     </row>
-    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C779" s="8"/>
     </row>
-    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C780" s="8"/>
     </row>
-    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C781" s="8"/>
     </row>
-    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C782" s="8"/>
     </row>
-    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C783" s="8"/>
     </row>
-    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C784" s="8"/>
     </row>
-    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C785" s="8"/>
     </row>
-    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C786" s="8"/>
     </row>
-    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C787" s="8"/>
     </row>
-    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C788" s="8"/>
     </row>
-    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C789" s="8"/>
     </row>
-    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C790" s="8"/>
     </row>
-    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C791" s="8"/>
     </row>
-    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C792" s="8"/>
     </row>
-    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C793" s="8"/>
     </row>
-    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C794" s="8"/>
     </row>
-    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C795" s="8"/>
     </row>
-    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C796" s="8"/>
     </row>
-    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C797" s="8"/>
     </row>
-    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C798" s="8"/>
     </row>
-    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C799" s="8"/>
     </row>
-    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C800" s="8"/>
     </row>
-    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C801" s="8"/>
     </row>
-    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C802" s="8"/>
     </row>
-    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C803" s="8"/>
     </row>
-    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C804" s="8"/>
     </row>
-    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C805" s="8"/>
     </row>
-    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C806" s="8"/>
     </row>
-    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C807" s="8"/>
     </row>
-    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C808" s="8"/>
     </row>
-    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C809" s="8"/>
     </row>
-    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C810" s="8"/>
     </row>
-    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C811" s="8"/>
     </row>
-    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C812" s="8"/>
     </row>
-    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C813" s="8"/>
     </row>
-    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C814" s="8"/>
     </row>
-    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C815" s="8"/>
     </row>
-    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C816" s="8"/>
     </row>
-    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C817" s="8"/>
     </row>
-    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C818" s="8"/>
     </row>
-    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C819" s="8"/>
     </row>
-    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C820" s="8"/>
     </row>
-    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C821" s="8"/>
     </row>
-    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C822" s="8"/>
     </row>
-    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C823" s="8"/>
     </row>
-    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C824" s="8"/>
     </row>
-    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C825" s="8"/>
     </row>
-    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C826" s="8"/>
     </row>
-    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C827" s="8"/>
     </row>
-    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C828" s="8"/>
     </row>
-    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C829" s="8"/>
     </row>
-    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C830" s="8"/>
     </row>
-    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C831" s="8"/>
     </row>
-    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C832" s="8"/>
     </row>
-    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C833" s="8"/>
     </row>
-    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C834" s="8"/>
     </row>
-    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C835" s="8"/>
     </row>
-    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C836" s="8"/>
     </row>
-    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C837" s="8"/>
     </row>
-    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C838" s="8"/>
     </row>
-    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C839" s="8"/>
     </row>
-    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C840" s="8"/>
     </row>
-    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C841" s="8"/>
     </row>
-    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C842" s="8"/>
     </row>
-    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C843" s="8"/>
     </row>
-    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C844" s="8"/>
     </row>
-    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C845" s="8"/>
     </row>
-    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C846" s="8"/>
     </row>
-    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C847" s="8"/>
     </row>
-    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C848" s="8"/>
     </row>
-    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C849" s="8"/>
     </row>
-    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C850" s="8"/>
     </row>
-    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C851" s="8"/>
     </row>
-    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C852" s="8"/>
     </row>
-    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C853" s="8"/>
     </row>
-    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C854" s="8"/>
     </row>
-    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C855" s="8"/>
     </row>
-    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C856" s="8"/>
     </row>
-    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C857" s="8"/>
     </row>
-    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C858" s="8"/>
     </row>
-    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C859" s="8"/>
     </row>
-    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C860" s="8"/>
     </row>
-    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C861" s="8"/>
     </row>
-    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C862" s="8"/>
     </row>
-    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C863" s="8"/>
     </row>
-    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C864" s="8"/>
     </row>
-    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C865" s="8"/>
     </row>
-    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C866" s="8"/>
     </row>
-    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C867" s="8"/>
     </row>
-    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C868" s="8"/>
     </row>
-    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C869" s="8"/>
     </row>
-    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C870" s="8"/>
     </row>
-    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C871" s="8"/>
     </row>
-    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C872" s="8"/>
     </row>
-    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C873" s="8"/>
     </row>
-    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C874" s="8"/>
     </row>
-    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C875" s="8"/>
     </row>
-    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C876" s="8"/>
     </row>
-    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C877" s="8"/>
     </row>
-    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C878" s="8"/>
     </row>
-    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C879" s="8"/>
     </row>
-    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C880" s="8"/>
     </row>
-    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C881" s="8"/>
     </row>
-    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C882" s="8"/>
     </row>
-    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C883" s="8"/>
     </row>
-    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C884" s="8"/>
     </row>
-    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C885" s="8"/>
     </row>
-    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C886" s="8"/>
     </row>
-    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C887" s="8"/>
     </row>
-    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C888" s="8"/>
     </row>
-    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C889" s="8"/>
     </row>
-    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C890" s="8"/>
     </row>
-    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C891" s="8"/>
     </row>
-    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C892" s="8"/>
     </row>
-    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C893" s="8"/>
     </row>
-    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C894" s="8"/>
     </row>
-    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C895" s="8"/>
     </row>
-    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C896" s="8"/>
     </row>
-    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C897" s="8"/>
     </row>
-    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C898" s="8"/>
     </row>
-    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C899" s="8"/>
     </row>
-    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C900" s="8"/>
     </row>
-    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C901" s="8"/>
     </row>
-    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C902" s="8"/>
     </row>
-    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C903" s="8"/>
     </row>
-    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C904" s="8"/>
     </row>
-    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C905" s="8"/>
     </row>
-    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C906" s="8"/>
     </row>
-    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C907" s="8"/>
     </row>
-    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C908" s="8"/>
     </row>
-    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C909" s="8"/>
     </row>
-    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C910" s="8"/>
     </row>
-    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C911" s="8"/>
     </row>
-    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C912" s="8"/>
     </row>
-    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C913" s="8"/>
     </row>
-    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C914" s="8"/>
     </row>
-    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C915" s="8"/>
     </row>
-    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C916" s="8"/>
     </row>
-    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C917" s="8"/>
     </row>
-    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C918" s="8"/>
     </row>
-    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C919" s="8"/>
     </row>
-    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C920" s="8"/>
     </row>
-    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C921" s="8"/>
     </row>
-    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C922" s="8"/>
     </row>
-    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C923" s="8"/>
     </row>
-    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C924" s="8"/>
     </row>
-    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C925" s="8"/>
     </row>
-    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C926" s="8"/>
     </row>
-    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C927" s="8"/>
     </row>
-    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C928" s="8"/>
     </row>
-    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C929" s="8"/>
     </row>
-    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C930" s="8"/>
     </row>
-    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C931" s="8"/>
     </row>
-    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C932" s="8"/>
     </row>
-    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C933" s="8"/>
     </row>
-    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C934" s="8"/>
     </row>
-    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C935" s="8"/>
     </row>
-    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C936" s="8"/>
     </row>
-    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C937" s="8"/>
     </row>
-    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C938" s="8"/>
     </row>
-    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C939" s="8"/>
     </row>
-    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C940" s="8"/>
     </row>
-    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C941" s="8"/>
     </row>
-    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C942" s="8"/>
     </row>
-    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C943" s="8"/>
     </row>
-    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C944" s="8"/>
     </row>
-    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C945" s="8"/>
     </row>
-    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C946" s="8"/>
     </row>
-    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C947" s="8"/>
     </row>
-    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C948" s="8"/>
     </row>
-    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C949" s="8"/>
     </row>
-    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C950" s="8"/>
     </row>
-    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C951" s="8"/>
     </row>
-    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C952" s="8"/>
     </row>
-    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C953" s="8"/>
     </row>
-    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C954" s="8"/>
     </row>
-    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C955" s="8"/>
     </row>
-    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C956" s="8"/>
     </row>
-    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C957" s="8"/>
     </row>
-    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C958" s="8"/>
     </row>
-    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C959" s="8"/>
     </row>
-    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C960" s="8"/>
     </row>
-    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C961" s="8"/>
     </row>
-    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="8"/>
     </row>
-    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C963" s="8"/>
     </row>
-    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C964" s="8"/>
     </row>
-    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C965" s="8"/>
     </row>
-    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C966" s="8"/>
     </row>
-    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C967" s="8"/>
     </row>
-    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C968" s="8"/>
     </row>
-    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C969" s="8"/>
     </row>
-    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C970" s="8"/>
     </row>
-    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C971" s="8"/>
     </row>
-    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C972" s="8"/>
     </row>
-    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C973" s="8"/>
     </row>
-    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C974" s="8"/>
     </row>
-    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C975" s="8"/>
     </row>
-    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C976" s="8"/>
     </row>
-    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C977" s="8"/>
     </row>
-    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C978" s="8"/>
     </row>
-    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C979" s="8"/>
     </row>
-    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C980" s="8"/>
     </row>
-    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C981" s="8"/>
     </row>
-    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C982" s="8"/>
     </row>
-    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C983" s="8"/>
     </row>
-    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C984" s="8"/>
     </row>
-    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C985" s="8"/>
     </row>
-    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C986" s="8"/>
     </row>
-    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C987" s="8"/>
     </row>
-    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C988" s="8"/>
     </row>
-    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C989" s="8"/>
     </row>
-    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C990" s="8"/>
     </row>
-    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C991" s="8"/>
     </row>
-    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C992" s="8"/>
     </row>
-    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C993" s="8"/>
     </row>
-    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C994" s="8"/>
     </row>
-    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C995" s="8"/>
     </row>
-    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C996" s="8"/>
     </row>
-    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C997" s="8"/>
     </row>
-    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C998" s="8"/>
     </row>
-    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C999" s="8"/>
     </row>
-    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1000" s="8"/>
     </row>
   </sheetData>
@@ -4961,19 +5122,19 @@
   </sheetPr>
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4981,12 +5142,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5006,7 +5167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -5026,7 +5187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -5046,7 +5207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -5066,7 +5227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -5086,7 +5247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -5106,7 +5267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>25</v>
       </c>
@@ -5126,7 +5287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
@@ -5146,7 +5307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -5166,7 +5327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -5186,7 +5347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
@@ -5206,7 +5367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -5226,7 +5387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
@@ -5246,7 +5407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
@@ -5266,7 +5427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -5286,7 +5447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>25</v>
       </c>
@@ -5306,7 +5467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -5326,7 +5487,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -5346,7 +5507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -5364,7 +5525,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -5382,7 +5543,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -5402,7 +5563,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -5420,7 +5581,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -5438,7 +5599,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>92</v>
       </c>
@@ -5458,7 +5619,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>92</v>
       </c>
@@ -5478,7 +5639,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -5496,7 +5657,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>12</v>
       </c>
@@ -5514,7 +5675,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -5534,7 +5695,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -5552,7 +5713,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -5572,7 +5733,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -5590,7 +5751,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="15"/>
       <c r="C40" s="7"/>
@@ -5598,7 +5759,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="15"/>
       <c r="C41" s="7"/>
@@ -5606,7 +5767,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="15"/>
       <c r="C42" s="7"/>
@@ -5614,7 +5775,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
@@ -5622,7 +5783,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="15"/>
       <c r="C44" s="7"/>
@@ -5630,7 +5791,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="15"/>
       <c r="C45" s="7"/>
@@ -5638,7 +5799,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="15"/>
       <c r="C46" s="7"/>
@@ -5646,7 +5807,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="15"/>
       <c r="C47" s="7"/>
@@ -5654,7 +5815,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="15"/>
       <c r="C48" s="7"/>
@@ -5662,7 +5823,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="15"/>
       <c r="C49" s="7"/>
@@ -5670,7 +5831,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="15"/>
       <c r="C50" s="7"/>
@@ -5713,20 +5874,20 @@
   </sheetPr>
   <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="65.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5734,12 +5895,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5759,7 +5920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -5779,7 +5940,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -5799,7 +5960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>67</v>
       </c>
@@ -5819,7 +5980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -5839,7 +6000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -5859,7 +6020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -5879,7 +6040,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>66</v>
       </c>
@@ -5899,7 +6060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>66</v>
       </c>
@@ -5919,7 +6080,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>66</v>
       </c>
@@ -5939,7 +6100,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
@@ -5959,7 +6120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
@@ -5979,7 +6140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
@@ -5999,7 +6160,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
@@ -6019,7 +6180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
@@ -6039,7 +6200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
@@ -6059,7 +6220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -6079,7 +6240,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -6099,7 +6260,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>63</v>
       </c>
@@ -6119,7 +6280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>64</v>
       </c>
@@ -6139,7 +6300,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>64</v>
       </c>
@@ -6159,7 +6320,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -6179,7 +6340,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -6199,7 +6360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -6219,7 +6380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
@@ -6239,7 +6400,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
@@ -6257,7 +6418,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -6265,7 +6426,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -6273,7 +6434,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -6281,7 +6442,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\Phase 2 Quali\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742B7819-DBB8-43AD-B44F-3DB666698FFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90C91DF-B663-43BC-8E99-FFCF0089EF22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,7 +1335,7 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1386,7 +1386,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="25">
-        <v>43553</v>
+        <v>43552</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>116</v>
@@ -1406,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="25">
-        <v>43553</v>
+        <v>43552</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>105</v>
@@ -1426,7 +1426,7 @@
         <v>113</v>
       </c>
       <c r="B12" s="25">
-        <v>43553</v>
+        <v>43552</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>114</v>

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\Phase 2 Quali\IT_Projekt_SS19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90C91DF-B663-43BC-8E99-FFCF0089EF22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249A8B6B-6229-4788-9981-D6B66B23CE03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="124">
   <si>
     <t>Name:</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>Nicht relevant, sehr abweichend vom definierten Thema</t>
+  </si>
+  <si>
+    <t>"benefits of crm"</t>
+  </si>
+  <si>
+    <t>benefits of crm implementation</t>
+  </si>
+  <si>
+    <t>advantages of crm</t>
   </si>
 </sst>
 </file>
@@ -495,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -542,6 +551,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1065,14 +1075,14 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,12 +1090,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="6"/>
@@ -1113,7 +1123,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
@@ -1121,7 +1131,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1129,7 +1139,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1137,7 +1147,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1145,7 +1155,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1153,7 +1163,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1161,7 +1171,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1169,7 +1179,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1177,7 +1187,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1185,7 +1195,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1193,7 +1203,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1201,7 +1211,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1209,7 +1219,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1217,7 +1227,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1225,7 +1235,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1233,7 +1243,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1241,7 +1251,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1249,7 +1259,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1257,7 +1267,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1265,7 +1275,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1273,7 +1283,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1281,7 +1291,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1289,7 +1299,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1297,7 +1307,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1305,7 +1315,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1313,7 +1323,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1334,21 +1344,21 @@
   </sheetPr>
   <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="142.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="142.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,12 +1366,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1411,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1421,7 +1431,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>113</v>
       </c>
@@ -1441,7 +1451,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1471,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1491,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1511,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1531,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1549,7 +1559,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1557,7 +1567,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1565,7 +1575,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1573,7 +1583,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1581,7 +1591,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1589,7 +1599,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1597,7 +1607,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1605,7 +1615,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1613,7 +1623,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1621,7 +1631,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1629,7 +1639,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1637,7 +1647,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1645,7 +1655,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1653,7 +1663,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1661,7 +1671,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1669,7 +1679,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1677,7 +1687,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1685,7 +1695,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1710,20 +1720,20 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="122.5703125" customWidth="1"/>
+    <col min="6" max="6" width="122.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,28 +1742,28 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -1793,7 +1803,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
@@ -1813,7 +1823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -1833,7 +1843,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -1853,7 +1863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
@@ -1893,7 +1903,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>79</v>
       </c>
@@ -1913,7 +1923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -1933,7 +1943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>79</v>
       </c>
@@ -1953,7 +1963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
@@ -1973,7 +1983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
@@ -1993,7 +2003,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
@@ -2013,7 +2023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -2033,7 +2043,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>84</v>
       </c>
@@ -2053,7 +2063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>84</v>
       </c>
@@ -2073,7 +2083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="13"/>
@@ -2083,7 +2093,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="13"/>
@@ -2093,7 +2103,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="13"/>
@@ -2101,7 +2111,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>84</v>
       </c>
@@ -2121,7 +2131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>84</v>
       </c>
@@ -2133,7 +2143,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>84</v>
       </c>
@@ -2145,7 +2155,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>89</v>
       </c>
@@ -2165,7 +2175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>89</v>
       </c>
@@ -2185,7 +2195,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="13"/>
@@ -2193,7 +2203,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13"/>
@@ -2201,7 +2211,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="13"/>
@@ -2209,7 +2219,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
@@ -2217,2896 +2227,2896 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C232" s="8"/>
     </row>
-    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C233" s="8"/>
     </row>
-    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C234" s="8"/>
     </row>
-    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C235" s="8"/>
     </row>
-    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C238" s="8"/>
     </row>
-    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C239" s="8"/>
     </row>
-    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C240" s="8"/>
     </row>
-    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C243" s="8"/>
     </row>
-    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C244" s="8"/>
     </row>
-    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C245" s="8"/>
     </row>
-    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C246" s="8"/>
     </row>
-    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C247" s="8"/>
     </row>
-    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C250" s="8"/>
     </row>
-    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C251" s="8"/>
     </row>
-    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C252" s="8"/>
     </row>
-    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C253" s="8"/>
     </row>
-    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C254" s="8"/>
     </row>
-    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C255" s="8"/>
     </row>
-    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C256" s="8"/>
     </row>
-    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C259" s="8"/>
     </row>
-    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C260" s="8"/>
     </row>
-    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C264" s="8"/>
     </row>
-    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C280" s="8"/>
     </row>
-    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C282" s="8"/>
     </row>
-    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C284" s="8"/>
     </row>
-    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C286" s="8"/>
     </row>
-    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C287" s="8"/>
     </row>
-    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C288" s="8"/>
     </row>
-    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C289" s="8"/>
     </row>
-    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C290" s="8"/>
     </row>
-    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C292" s="8"/>
     </row>
-    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C293" s="8"/>
     </row>
-    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C296" s="8"/>
     </row>
-    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C297" s="8"/>
     </row>
-    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C298" s="8"/>
     </row>
-    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C299" s="8"/>
     </row>
-    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C300" s="8"/>
     </row>
-    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C301" s="8"/>
     </row>
-    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C302" s="8"/>
     </row>
-    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C303" s="8"/>
     </row>
-    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C304" s="8"/>
     </row>
-    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C305" s="8"/>
     </row>
-    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C306" s="8"/>
     </row>
-    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C307" s="8"/>
     </row>
-    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C308" s="8"/>
     </row>
-    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C309" s="8"/>
     </row>
-    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C310" s="8"/>
     </row>
-    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C311" s="8"/>
     </row>
-    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C312" s="8"/>
     </row>
-    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C313" s="8"/>
     </row>
-    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C314" s="8"/>
     </row>
-    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C315" s="8"/>
     </row>
-    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C316" s="8"/>
     </row>
-    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C317" s="8"/>
     </row>
-    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C318" s="8"/>
     </row>
-    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C319" s="8"/>
     </row>
-    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C320" s="8"/>
     </row>
-    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C321" s="8"/>
     </row>
-    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C322" s="8"/>
     </row>
-    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C323" s="8"/>
     </row>
-    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C324" s="8"/>
     </row>
-    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C325" s="8"/>
     </row>
-    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C326" s="8"/>
     </row>
-    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C327" s="8"/>
     </row>
-    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C328" s="8"/>
     </row>
-    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C329" s="8"/>
     </row>
-    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C330" s="8"/>
     </row>
-    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C331" s="8"/>
     </row>
-    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C332" s="8"/>
     </row>
-    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C333" s="8"/>
     </row>
-    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C336" s="8"/>
     </row>
-    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C337" s="8"/>
     </row>
-    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C338" s="8"/>
     </row>
-    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C339" s="8"/>
     </row>
-    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C340" s="8"/>
     </row>
-    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C341" s="8"/>
     </row>
-    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C342" s="8"/>
     </row>
-    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C343" s="8"/>
     </row>
-    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C346" s="8"/>
     </row>
-    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C347" s="8"/>
     </row>
-    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C348" s="8"/>
     </row>
-    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C349" s="8"/>
     </row>
-    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C350" s="8"/>
     </row>
-    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C351" s="8"/>
     </row>
-    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C352" s="8"/>
     </row>
-    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C353" s="8"/>
     </row>
-    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C356" s="8"/>
     </row>
-    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C357" s="8"/>
     </row>
-    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C358" s="8"/>
     </row>
-    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C359" s="8"/>
     </row>
-    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C361" s="8"/>
     </row>
-    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C362" s="8"/>
     </row>
-    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C363" s="8"/>
     </row>
-    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C364" s="8"/>
     </row>
-    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C365" s="8"/>
     </row>
-    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C366" s="8"/>
     </row>
-    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C367" s="8"/>
     </row>
-    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C368" s="8"/>
     </row>
-    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C369" s="8"/>
     </row>
-    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C370" s="8"/>
     </row>
-    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C371" s="8"/>
     </row>
-    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C372" s="8"/>
     </row>
-    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C373" s="8"/>
     </row>
-    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C374" s="8"/>
     </row>
-    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C375" s="8"/>
     </row>
-    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C376" s="8"/>
     </row>
-    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C377" s="8"/>
     </row>
-    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C378" s="8"/>
     </row>
-    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C379" s="8"/>
     </row>
-    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C380" s="8"/>
     </row>
-    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C381" s="8"/>
     </row>
-    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C382" s="8"/>
     </row>
-    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C383" s="8"/>
     </row>
-    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C384" s="8"/>
     </row>
-    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C385" s="8"/>
     </row>
-    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C386" s="8"/>
     </row>
-    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C387" s="8"/>
     </row>
-    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C388" s="8"/>
     </row>
-    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C389" s="8"/>
     </row>
-    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C390" s="8"/>
     </row>
-    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C392" s="8"/>
     </row>
-    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C393" s="8"/>
     </row>
-    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C394" s="8"/>
     </row>
-    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C395" s="8"/>
     </row>
-    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C396" s="8"/>
     </row>
-    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C397" s="8"/>
     </row>
-    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C398" s="8"/>
     </row>
-    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C399" s="8"/>
     </row>
-    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C402" s="8"/>
     </row>
-    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C403" s="8"/>
     </row>
-    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C404" s="8"/>
     </row>
-    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C405" s="8"/>
     </row>
-    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C406" s="8"/>
     </row>
-    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C407" s="8"/>
     </row>
-    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C410" s="8"/>
     </row>
-    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C411" s="8"/>
     </row>
-    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C412" s="8"/>
     </row>
-    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C413" s="8"/>
     </row>
-    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C414" s="8"/>
     </row>
-    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C415" s="8"/>
     </row>
-    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C416" s="8"/>
     </row>
-    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C417" s="8"/>
     </row>
-    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C418" s="8"/>
     </row>
-    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C419" s="8"/>
     </row>
-    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C420" s="8"/>
     </row>
-    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C421" s="8"/>
     </row>
-    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C422" s="8"/>
     </row>
-    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C423" s="8"/>
     </row>
-    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C424" s="8"/>
     </row>
-    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C425" s="8"/>
     </row>
-    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C426" s="8"/>
     </row>
-    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C427" s="8"/>
     </row>
-    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C428" s="8"/>
     </row>
-    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C429" s="8"/>
     </row>
-    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C430" s="8"/>
     </row>
-    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C431" s="8"/>
     </row>
-    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C432" s="8"/>
     </row>
-    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C433" s="8"/>
     </row>
-    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C434" s="8"/>
     </row>
-    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C435" s="8"/>
     </row>
-    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C436" s="8"/>
     </row>
-    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C437" s="8"/>
     </row>
-    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C438" s="8"/>
     </row>
-    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C439" s="8"/>
     </row>
-    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C440" s="8"/>
     </row>
-    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C441" s="8"/>
     </row>
-    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C442" s="8"/>
     </row>
-    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C443" s="8"/>
     </row>
-    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C444" s="8"/>
     </row>
-    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C445" s="8"/>
     </row>
-    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C446" s="8"/>
     </row>
-    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C447" s="8"/>
     </row>
-    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C448" s="8"/>
     </row>
-    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C449" s="8"/>
     </row>
-    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C450" s="8"/>
     </row>
-    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C451" s="8"/>
     </row>
-    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C452" s="8"/>
     </row>
-    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C453" s="8"/>
     </row>
-    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C454" s="8"/>
     </row>
-    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C455" s="8"/>
     </row>
-    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C456" s="8"/>
     </row>
-    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C457" s="8"/>
     </row>
-    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C458" s="8"/>
     </row>
-    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C459" s="8"/>
     </row>
-    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C460" s="8"/>
     </row>
-    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C461" s="8"/>
     </row>
-    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C462" s="8"/>
     </row>
-    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C463" s="8"/>
     </row>
-    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C464" s="8"/>
     </row>
-    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C465" s="8"/>
     </row>
-    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C466" s="8"/>
     </row>
-    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C467" s="8"/>
     </row>
-    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C468" s="8"/>
     </row>
-    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C469" s="8"/>
     </row>
-    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C472" s="8"/>
     </row>
-    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C473" s="8"/>
     </row>
-    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C474" s="8"/>
     </row>
-    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C475" s="8"/>
     </row>
-    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C476" s="8"/>
     </row>
-    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C477" s="8"/>
     </row>
-    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C479" s="8"/>
     </row>
-    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C480" s="8"/>
     </row>
-    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C535" s="8"/>
     </row>
-    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C536" s="8"/>
     </row>
-    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C537" s="8"/>
     </row>
-    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C538" s="8"/>
     </row>
-    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C539" s="8"/>
     </row>
-    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C540" s="8"/>
     </row>
-    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C541" s="8"/>
     </row>
-    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C542" s="8"/>
     </row>
-    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C543" s="8"/>
     </row>
-    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C544" s="8"/>
     </row>
-    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C545" s="8"/>
     </row>
-    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C546" s="8"/>
     </row>
-    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C547" s="8"/>
     </row>
-    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C548" s="8"/>
     </row>
-    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C549" s="8"/>
     </row>
-    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C550" s="8"/>
     </row>
-    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C551" s="8"/>
     </row>
-    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C552" s="8"/>
     </row>
-    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C553" s="8"/>
     </row>
-    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C554" s="8"/>
     </row>
-    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C555" s="8"/>
     </row>
-    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C556" s="8"/>
     </row>
-    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C557" s="8"/>
     </row>
-    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C558" s="8"/>
     </row>
-    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C559" s="8"/>
     </row>
-    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C560" s="8"/>
     </row>
-    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C561" s="8"/>
     </row>
-    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C562" s="8"/>
     </row>
-    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C563" s="8"/>
     </row>
-    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C564" s="8"/>
     </row>
-    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C565" s="8"/>
     </row>
-    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C566" s="8"/>
     </row>
-    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C567" s="8"/>
     </row>
-    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C568" s="8"/>
     </row>
-    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C569" s="8"/>
     </row>
-    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C570" s="8"/>
     </row>
-    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C571" s="8"/>
     </row>
-    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C572" s="8"/>
     </row>
-    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C573" s="8"/>
     </row>
-    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C574" s="8"/>
     </row>
-    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C575" s="8"/>
     </row>
-    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C576" s="8"/>
     </row>
-    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C577" s="8"/>
     </row>
-    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C578" s="8"/>
     </row>
-    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C579" s="8"/>
     </row>
-    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C580" s="8"/>
     </row>
-    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C581" s="8"/>
     </row>
-    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C582" s="8"/>
     </row>
-    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C583" s="8"/>
     </row>
-    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C584" s="8"/>
     </row>
-    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C585" s="8"/>
     </row>
-    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C586" s="8"/>
     </row>
-    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C587" s="8"/>
     </row>
-    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C588" s="8"/>
     </row>
-    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C589" s="8"/>
     </row>
-    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C590" s="8"/>
     </row>
-    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C591" s="8"/>
     </row>
-    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C592" s="8"/>
     </row>
-    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C593" s="8"/>
     </row>
-    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C594" s="8"/>
     </row>
-    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C595" s="8"/>
     </row>
-    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C596" s="8"/>
     </row>
-    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C597" s="8"/>
     </row>
-    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C598" s="8"/>
     </row>
-    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C599" s="8"/>
     </row>
-    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C600" s="8"/>
     </row>
-    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C601" s="8"/>
     </row>
-    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C602" s="8"/>
     </row>
-    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C603" s="8"/>
     </row>
-    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C604" s="8"/>
     </row>
-    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C605" s="8"/>
     </row>
-    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C606" s="8"/>
     </row>
-    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C607" s="8"/>
     </row>
-    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C608" s="8"/>
     </row>
-    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C609" s="8"/>
     </row>
-    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C610" s="8"/>
     </row>
-    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C611" s="8"/>
     </row>
-    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C612" s="8"/>
     </row>
-    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C613" s="8"/>
     </row>
-    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C614" s="8"/>
     </row>
-    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C615" s="8"/>
     </row>
-    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C616" s="8"/>
     </row>
-    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C617" s="8"/>
     </row>
-    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C618" s="8"/>
     </row>
-    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C619" s="8"/>
     </row>
-    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C620" s="8"/>
     </row>
-    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C621" s="8"/>
     </row>
-    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C622" s="8"/>
     </row>
-    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C623" s="8"/>
     </row>
-    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C624" s="8"/>
     </row>
-    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C625" s="8"/>
     </row>
-    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C626" s="8"/>
     </row>
-    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C627" s="8"/>
     </row>
-    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C628" s="8"/>
     </row>
-    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C629" s="8"/>
     </row>
-    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C630" s="8"/>
     </row>
-    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C631" s="8"/>
     </row>
-    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C632" s="8"/>
     </row>
-    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C633" s="8"/>
     </row>
-    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C634" s="8"/>
     </row>
-    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C635" s="8"/>
     </row>
-    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C636" s="8"/>
     </row>
-    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C637" s="8"/>
     </row>
-    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C638" s="8"/>
     </row>
-    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C639" s="8"/>
     </row>
-    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C640" s="8"/>
     </row>
-    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C641" s="8"/>
     </row>
-    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C642" s="8"/>
     </row>
-    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C643" s="8"/>
     </row>
-    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C644" s="8"/>
     </row>
-    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C645" s="8"/>
     </row>
-    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C646" s="8"/>
     </row>
-    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C647" s="8"/>
     </row>
-    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C648" s="8"/>
     </row>
-    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C649" s="8"/>
     </row>
-    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C650" s="8"/>
     </row>
-    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C651" s="8"/>
     </row>
-    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C652" s="8"/>
     </row>
-    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C653" s="8"/>
     </row>
-    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C654" s="8"/>
     </row>
-    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C655" s="8"/>
     </row>
-    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C656" s="8"/>
     </row>
-    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C657" s="8"/>
     </row>
-    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C658" s="8"/>
     </row>
-    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C659" s="8"/>
     </row>
-    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C660" s="8"/>
     </row>
-    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C661" s="8"/>
     </row>
-    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C662" s="8"/>
     </row>
-    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C663" s="8"/>
     </row>
-    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C664" s="8"/>
     </row>
-    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C665" s="8"/>
     </row>
-    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C666" s="8"/>
     </row>
-    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C667" s="8"/>
     </row>
-    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C668" s="8"/>
     </row>
-    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C669" s="8"/>
     </row>
-    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C670" s="8"/>
     </row>
-    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C671" s="8"/>
     </row>
-    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C672" s="8"/>
     </row>
-    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C673" s="8"/>
     </row>
-    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C674" s="8"/>
     </row>
-    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C675" s="8"/>
     </row>
-    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C676" s="8"/>
     </row>
-    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C677" s="8"/>
     </row>
-    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C678" s="8"/>
     </row>
-    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C679" s="8"/>
     </row>
-    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C680" s="8"/>
     </row>
-    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C681" s="8"/>
     </row>
-    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C682" s="8"/>
     </row>
-    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C683" s="8"/>
     </row>
-    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C684" s="8"/>
     </row>
-    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C685" s="8"/>
     </row>
-    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C686" s="8"/>
     </row>
-    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C687" s="8"/>
     </row>
-    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C688" s="8"/>
     </row>
-    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C689" s="8"/>
     </row>
-    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C690" s="8"/>
     </row>
-    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C691" s="8"/>
     </row>
-    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C692" s="8"/>
     </row>
-    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C693" s="8"/>
     </row>
-    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C694" s="8"/>
     </row>
-    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C695" s="8"/>
     </row>
-    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C696" s="8"/>
     </row>
-    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C697" s="8"/>
     </row>
-    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C698" s="8"/>
     </row>
-    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C699" s="8"/>
     </row>
-    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C700" s="8"/>
     </row>
-    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C701" s="8"/>
     </row>
-    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C702" s="8"/>
     </row>
-    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C703" s="8"/>
     </row>
-    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C704" s="8"/>
     </row>
-    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C705" s="8"/>
     </row>
-    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C706" s="8"/>
     </row>
-    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C707" s="8"/>
     </row>
-    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C708" s="8"/>
     </row>
-    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C709" s="8"/>
     </row>
-    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C710" s="8"/>
     </row>
-    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C711" s="8"/>
     </row>
-    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C712" s="8"/>
     </row>
-    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C713" s="8"/>
     </row>
-    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C714" s="8"/>
     </row>
-    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C715" s="8"/>
     </row>
-    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C716" s="8"/>
     </row>
-    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C717" s="8"/>
     </row>
-    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C718" s="8"/>
     </row>
-    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C719" s="8"/>
     </row>
-    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C720" s="8"/>
     </row>
-    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C721" s="8"/>
     </row>
-    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C722" s="8"/>
     </row>
-    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C723" s="8"/>
     </row>
-    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C724" s="8"/>
     </row>
-    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C725" s="8"/>
     </row>
-    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C726" s="8"/>
     </row>
-    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C727" s="8"/>
     </row>
-    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C728" s="8"/>
     </row>
-    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C729" s="8"/>
     </row>
-    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C730" s="8"/>
     </row>
-    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C731" s="8"/>
     </row>
-    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C732" s="8"/>
     </row>
-    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C733" s="8"/>
     </row>
-    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C734" s="8"/>
     </row>
-    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C735" s="8"/>
     </row>
-    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C736" s="8"/>
     </row>
-    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C737" s="8"/>
     </row>
-    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C738" s="8"/>
     </row>
-    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C739" s="8"/>
     </row>
-    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C740" s="8"/>
     </row>
-    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C741" s="8"/>
     </row>
-    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C742" s="8"/>
     </row>
-    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C743" s="8"/>
     </row>
-    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C744" s="8"/>
     </row>
-    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C745" s="8"/>
     </row>
-    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C746" s="8"/>
     </row>
-    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C747" s="8"/>
     </row>
-    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C748" s="8"/>
     </row>
-    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C749" s="8"/>
     </row>
-    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C750" s="8"/>
     </row>
-    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C751" s="8"/>
     </row>
-    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C752" s="8"/>
     </row>
-    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C753" s="8"/>
     </row>
-    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C754" s="8"/>
     </row>
-    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C755" s="8"/>
     </row>
-    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C756" s="8"/>
     </row>
-    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C757" s="8"/>
     </row>
-    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C758" s="8"/>
     </row>
-    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C759" s="8"/>
     </row>
-    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C760" s="8"/>
     </row>
-    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C761" s="8"/>
     </row>
-    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C762" s="8"/>
     </row>
-    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C763" s="8"/>
     </row>
-    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C764" s="8"/>
     </row>
-    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C765" s="8"/>
     </row>
-    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C766" s="8"/>
     </row>
-    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C767" s="8"/>
     </row>
-    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C768" s="8"/>
     </row>
-    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C769" s="8"/>
     </row>
-    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C770" s="8"/>
     </row>
-    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C771" s="8"/>
     </row>
-    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C772" s="8"/>
     </row>
-    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C773" s="8"/>
     </row>
-    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C774" s="8"/>
     </row>
-    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C775" s="8"/>
     </row>
-    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C776" s="8"/>
     </row>
-    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C777" s="8"/>
     </row>
-    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C778" s="8"/>
     </row>
-    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C779" s="8"/>
     </row>
-    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C780" s="8"/>
     </row>
-    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C781" s="8"/>
     </row>
-    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C782" s="8"/>
     </row>
-    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C783" s="8"/>
     </row>
-    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C784" s="8"/>
     </row>
-    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C785" s="8"/>
     </row>
-    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C786" s="8"/>
     </row>
-    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C787" s="8"/>
     </row>
-    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C788" s="8"/>
     </row>
-    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C789" s="8"/>
     </row>
-    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C790" s="8"/>
     </row>
-    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C791" s="8"/>
     </row>
-    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C792" s="8"/>
     </row>
-    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C793" s="8"/>
     </row>
-    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C794" s="8"/>
     </row>
-    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C795" s="8"/>
     </row>
-    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C796" s="8"/>
     </row>
-    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C797" s="8"/>
     </row>
-    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C798" s="8"/>
     </row>
-    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C799" s="8"/>
     </row>
-    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C800" s="8"/>
     </row>
-    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C801" s="8"/>
     </row>
-    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C802" s="8"/>
     </row>
-    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C803" s="8"/>
     </row>
-    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C804" s="8"/>
     </row>
-    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C805" s="8"/>
     </row>
-    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C806" s="8"/>
     </row>
-    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C807" s="8"/>
     </row>
-    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C808" s="8"/>
     </row>
-    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C809" s="8"/>
     </row>
-    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C810" s="8"/>
     </row>
-    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C811" s="8"/>
     </row>
-    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C812" s="8"/>
     </row>
-    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C813" s="8"/>
     </row>
-    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C814" s="8"/>
     </row>
-    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C815" s="8"/>
     </row>
-    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C816" s="8"/>
     </row>
-    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C817" s="8"/>
     </row>
-    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C818" s="8"/>
     </row>
-    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C819" s="8"/>
     </row>
-    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C820" s="8"/>
     </row>
-    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C821" s="8"/>
     </row>
-    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C822" s="8"/>
     </row>
-    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C823" s="8"/>
     </row>
-    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C824" s="8"/>
     </row>
-    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C825" s="8"/>
     </row>
-    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C826" s="8"/>
     </row>
-    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C827" s="8"/>
     </row>
-    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C828" s="8"/>
     </row>
-    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C829" s="8"/>
     </row>
-    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C830" s="8"/>
     </row>
-    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C831" s="8"/>
     </row>
-    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C832" s="8"/>
     </row>
-    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C833" s="8"/>
     </row>
-    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C834" s="8"/>
     </row>
-    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C835" s="8"/>
     </row>
-    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C836" s="8"/>
     </row>
-    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C837" s="8"/>
     </row>
-    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C838" s="8"/>
     </row>
-    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C839" s="8"/>
     </row>
-    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C840" s="8"/>
     </row>
-    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C841" s="8"/>
     </row>
-    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C842" s="8"/>
     </row>
-    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C843" s="8"/>
     </row>
-    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C844" s="8"/>
     </row>
-    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C845" s="8"/>
     </row>
-    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C846" s="8"/>
     </row>
-    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C847" s="8"/>
     </row>
-    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C848" s="8"/>
     </row>
-    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C849" s="8"/>
     </row>
-    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C850" s="8"/>
     </row>
-    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C851" s="8"/>
     </row>
-    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C852" s="8"/>
     </row>
-    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C853" s="8"/>
     </row>
-    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C854" s="8"/>
     </row>
-    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C855" s="8"/>
     </row>
-    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C856" s="8"/>
     </row>
-    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C857" s="8"/>
     </row>
-    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C858" s="8"/>
     </row>
-    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C859" s="8"/>
     </row>
-    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C860" s="8"/>
     </row>
-    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C861" s="8"/>
     </row>
-    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C862" s="8"/>
     </row>
-    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C863" s="8"/>
     </row>
-    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C864" s="8"/>
     </row>
-    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C865" s="8"/>
     </row>
-    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C866" s="8"/>
     </row>
-    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C867" s="8"/>
     </row>
-    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C868" s="8"/>
     </row>
-    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C869" s="8"/>
     </row>
-    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C870" s="8"/>
     </row>
-    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C871" s="8"/>
     </row>
-    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C872" s="8"/>
     </row>
-    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C873" s="8"/>
     </row>
-    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C874" s="8"/>
     </row>
-    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C875" s="8"/>
     </row>
-    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C876" s="8"/>
     </row>
-    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C877" s="8"/>
     </row>
-    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C878" s="8"/>
     </row>
-    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C879" s="8"/>
     </row>
-    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C880" s="8"/>
     </row>
-    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C881" s="8"/>
     </row>
-    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C882" s="8"/>
     </row>
-    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C883" s="8"/>
     </row>
-    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C884" s="8"/>
     </row>
-    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C885" s="8"/>
     </row>
-    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C886" s="8"/>
     </row>
-    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C887" s="8"/>
     </row>
-    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C888" s="8"/>
     </row>
-    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C889" s="8"/>
     </row>
-    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C890" s="8"/>
     </row>
-    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C891" s="8"/>
     </row>
-    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C892" s="8"/>
     </row>
-    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C893" s="8"/>
     </row>
-    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C894" s="8"/>
     </row>
-    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C895" s="8"/>
     </row>
-    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C896" s="8"/>
     </row>
-    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C897" s="8"/>
     </row>
-    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C898" s="8"/>
     </row>
-    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C899" s="8"/>
     </row>
-    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C900" s="8"/>
     </row>
-    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C901" s="8"/>
     </row>
-    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C902" s="8"/>
     </row>
-    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C903" s="8"/>
     </row>
-    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C904" s="8"/>
     </row>
-    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C905" s="8"/>
     </row>
-    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C906" s="8"/>
     </row>
-    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C907" s="8"/>
     </row>
-    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C908" s="8"/>
     </row>
-    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C909" s="8"/>
     </row>
-    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C910" s="8"/>
     </row>
-    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C911" s="8"/>
     </row>
-    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C912" s="8"/>
     </row>
-    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C913" s="8"/>
     </row>
-    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C914" s="8"/>
     </row>
-    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C915" s="8"/>
     </row>
-    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C916" s="8"/>
     </row>
-    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C917" s="8"/>
     </row>
-    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C918" s="8"/>
     </row>
-    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C919" s="8"/>
     </row>
-    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C920" s="8"/>
     </row>
-    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C921" s="8"/>
     </row>
-    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C922" s="8"/>
     </row>
-    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C923" s="8"/>
     </row>
-    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C924" s="8"/>
     </row>
-    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C925" s="8"/>
     </row>
-    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C926" s="8"/>
     </row>
-    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C927" s="8"/>
     </row>
-    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C928" s="8"/>
     </row>
-    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C929" s="8"/>
     </row>
-    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C930" s="8"/>
     </row>
-    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C931" s="8"/>
     </row>
-    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C932" s="8"/>
     </row>
-    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C933" s="8"/>
     </row>
-    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C934" s="8"/>
     </row>
-    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C935" s="8"/>
     </row>
-    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C936" s="8"/>
     </row>
-    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C937" s="8"/>
     </row>
-    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C938" s="8"/>
     </row>
-    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C939" s="8"/>
     </row>
-    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C940" s="8"/>
     </row>
-    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C941" s="8"/>
     </row>
-    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C942" s="8"/>
     </row>
-    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C943" s="8"/>
     </row>
-    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C944" s="8"/>
     </row>
-    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C945" s="8"/>
     </row>
-    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C946" s="8"/>
     </row>
-    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C947" s="8"/>
     </row>
-    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C948" s="8"/>
     </row>
-    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C949" s="8"/>
     </row>
-    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C950" s="8"/>
     </row>
-    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C951" s="8"/>
     </row>
-    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C952" s="8"/>
     </row>
-    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C953" s="8"/>
     </row>
-    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C954" s="8"/>
     </row>
-    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C955" s="8"/>
     </row>
-    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C956" s="8"/>
     </row>
-    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C957" s="8"/>
     </row>
-    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C958" s="8"/>
     </row>
-    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C959" s="8"/>
     </row>
-    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C960" s="8"/>
     </row>
-    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C961" s="8"/>
     </row>
-    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C962" s="8"/>
     </row>
-    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C963" s="8"/>
     </row>
-    <row r="964" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C964" s="8"/>
     </row>
-    <row r="965" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C965" s="8"/>
     </row>
-    <row r="966" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C966" s="8"/>
     </row>
-    <row r="967" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C967" s="8"/>
     </row>
-    <row r="968" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C968" s="8"/>
     </row>
-    <row r="969" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C969" s="8"/>
     </row>
-    <row r="970" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C970" s="8"/>
     </row>
-    <row r="971" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C971" s="8"/>
     </row>
-    <row r="972" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C972" s="8"/>
     </row>
-    <row r="973" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C973" s="8"/>
     </row>
-    <row r="974" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C974" s="8"/>
     </row>
-    <row r="975" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C975" s="8"/>
     </row>
-    <row r="976" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C976" s="8"/>
     </row>
-    <row r="977" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C977" s="8"/>
     </row>
-    <row r="978" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C978" s="8"/>
     </row>
-    <row r="979" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C979" s="8"/>
     </row>
-    <row r="980" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C980" s="8"/>
     </row>
-    <row r="981" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C981" s="8"/>
     </row>
-    <row r="982" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C982" s="8"/>
     </row>
-    <row r="983" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C983" s="8"/>
     </row>
-    <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C984" s="8"/>
     </row>
-    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C985" s="8"/>
     </row>
-    <row r="986" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C986" s="8"/>
     </row>
-    <row r="987" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C987" s="8"/>
     </row>
-    <row r="988" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C988" s="8"/>
     </row>
-    <row r="989" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C989" s="8"/>
     </row>
-    <row r="990" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C990" s="8"/>
     </row>
-    <row r="991" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C991" s="8"/>
     </row>
-    <row r="992" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C992" s="8"/>
     </row>
-    <row r="993" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C993" s="8"/>
     </row>
-    <row r="994" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C994" s="8"/>
     </row>
-    <row r="995" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C995" s="8"/>
     </row>
-    <row r="996" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C996" s="8"/>
     </row>
-    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C997" s="8"/>
     </row>
-    <row r="998" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C998" s="8"/>
     </row>
-    <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C999" s="8"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1000" s="8"/>
     </row>
   </sheetData>
@@ -5122,19 +5132,19 @@
   </sheetPr>
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="57.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5142,12 +5152,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5167,7 +5177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -5187,7 +5197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -5207,7 +5217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -5227,7 +5237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -5247,7 +5257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -5267,7 +5277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>25</v>
       </c>
@@ -5287,7 +5297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
@@ -5307,7 +5317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -5327,7 +5337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -5347,7 +5357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
@@ -5367,7 +5377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -5387,7 +5397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
@@ -5407,7 +5417,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
@@ -5427,7 +5437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -5447,7 +5457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>25</v>
       </c>
@@ -5467,7 +5477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -5487,7 +5497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -5507,7 +5517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -5525,7 +5535,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -5543,7 +5553,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -5563,7 +5573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -5581,7 +5591,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -5599,7 +5609,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>92</v>
       </c>
@@ -5619,7 +5629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>92</v>
       </c>
@@ -5639,7 +5649,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -5657,7 +5667,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>12</v>
       </c>
@@ -5675,7 +5685,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -5695,7 +5705,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -5713,7 +5723,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -5733,7 +5743,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -5751,31 +5761,61 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="15">
+        <v>43554</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="23">
+        <v>81400</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="15">
+        <v>43554</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="23">
+        <v>1620</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1</v>
+      </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="15">
+        <v>43554</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="7">
+        <v>299</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1</v>
+      </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
@@ -5783,7 +5823,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="15"/>
       <c r="C44" s="7"/>
@@ -5791,7 +5831,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="15"/>
       <c r="C45" s="7"/>
@@ -5799,7 +5839,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="15"/>
       <c r="C46" s="7"/>
@@ -5807,7 +5847,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="15"/>
       <c r="C47" s="7"/>
@@ -5815,7 +5855,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="15"/>
       <c r="C48" s="7"/>
@@ -5823,7 +5863,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="15"/>
       <c r="C49" s="7"/>
@@ -5831,7 +5871,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="15"/>
       <c r="C50" s="7"/>
@@ -5860,10 +5900,12 @@
     <hyperlink ref="A36" r:id="rId17" xr:uid="{A4BEAF12-7449-44BE-ABD3-1216FC0198FC}"/>
     <hyperlink ref="A37" r:id="rId18" xr:uid="{56BBEA10-52F7-4825-9BE3-32A0E13E34A7}"/>
     <hyperlink ref="A38:A39" r:id="rId19" display="scholar.google.at" xr:uid="{14D2699E-56D4-4805-921A-9B15882D7226}"/>
+    <hyperlink ref="A40:A41" r:id="rId20" display="scholar.google.at" xr:uid="{08F438D9-CDD0-46D1-9A97-0CE2F4609587}"/>
+    <hyperlink ref="A42" r:id="rId21" xr:uid="{C0ED578B-F053-4D3B-8BE0-FDB1CD3B44D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId20"/>
-  <drawing r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -5878,16 +5920,16 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5895,12 +5937,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5920,7 +5962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -5940,7 +5982,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -5960,7 +6002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>67</v>
       </c>
@@ -5980,7 +6022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -6000,7 +6042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -6020,7 +6062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -6040,7 +6082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>66</v>
       </c>
@@ -6060,7 +6102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>66</v>
       </c>
@@ -6080,7 +6122,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>66</v>
       </c>
@@ -6100,7 +6142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
@@ -6120,7 +6162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
@@ -6140,7 +6182,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
@@ -6160,7 +6202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
@@ -6180,7 +6222,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
@@ -6200,7 +6242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
@@ -6220,7 +6262,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -6240,7 +6282,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -6260,7 +6302,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>63</v>
       </c>
@@ -6280,7 +6322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>64</v>
       </c>
@@ -6300,7 +6342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>64</v>
       </c>
@@ -6320,7 +6362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -6340,7 +6382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -6360,7 +6402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -6380,7 +6422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
@@ -6400,7 +6442,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
@@ -6418,7 +6460,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -6426,7 +6468,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -6434,7 +6476,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -6442,7 +6484,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/IT_Projekt_SS19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249A8B6B-6229-4788-9981-D6B66B23CE03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F2CE6-BE29-334F-A82E-D7B7551ED909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23140" windowHeight="13320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,11 @@
     <sheet name="Milos" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="123">
   <si>
     <t>Name:</t>
   </si>
@@ -307,9 +300,6 @@
   </si>
   <si>
     <t>software in non profit sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pubsonline.informs.org </t>
   </si>
   <si>
     <t>Event Management</t>
@@ -1075,14 +1065,14 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="67.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,12 +1080,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="6"/>
@@ -1123,7 +1113,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
@@ -1131,7 +1121,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1139,7 +1129,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1147,7 +1137,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1155,7 +1145,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1163,7 +1153,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1171,7 +1161,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1179,7 +1169,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1187,7 +1177,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1195,7 +1185,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1203,7 +1193,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1211,7 +1201,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1219,7 +1209,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1227,7 +1217,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1235,7 +1225,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1243,7 +1233,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1251,7 +1241,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1259,7 +1249,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1267,7 +1257,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1275,7 +1265,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1283,7 +1273,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1291,7 +1281,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1299,7 +1289,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1307,7 +1297,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1315,7 +1305,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1323,7 +1313,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1348,17 +1338,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="142.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="142.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,12 +1356,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1399,19 +1389,19 @@
         <v>43552</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1419,27 +1409,27 @@
         <v>43552</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="25">
         <v>43552</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="13">
         <v>1088</v>
@@ -1448,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1449,7 @@
         <v>43554</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="27">
         <v>16000</v>
@@ -1468,10 +1458,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
         <v>8</v>
       </c>
@@ -1479,7 +1469,7 @@
         <v>43554</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="27">
         <v>17300</v>
@@ -1488,10 +1478,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="26" t="s">
         <v>8</v>
       </c>
@@ -1499,7 +1489,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="13">
         <v>951</v>
@@ -1508,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
         <v>8</v>
       </c>
@@ -1519,7 +1509,7 @@
         <v>43555</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="13">
         <v>56300</v>
@@ -1528,10 +1518,10 @@
         <v>3</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="26" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1529,7 @@
         <v>43555</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="13">
         <v>78000</v>
@@ -1548,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1559,7 +1549,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1567,7 +1557,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1575,7 +1565,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1583,7 +1573,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1591,7 +1581,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1599,7 +1589,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1607,7 +1597,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1615,7 +1605,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1623,7 +1613,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1631,7 +1621,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1639,7 +1629,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1647,7 +1637,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1655,7 +1645,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1663,7 +1653,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1671,7 +1661,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1679,7 +1669,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1687,7 +1677,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1695,7 +1685,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1720,20 +1710,20 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="122.5546875" customWidth="1"/>
+    <col min="6" max="6" width="122.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,28 +1732,28 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1783,7 +1773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -1803,7 +1793,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
@@ -1823,7 +1813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -1843,7 +1833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -1863,7 +1853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -1883,7 +1873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
@@ -1903,7 +1893,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>79</v>
       </c>
@@ -1923,7 +1913,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -1943,7 +1933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>79</v>
       </c>
@@ -1963,7 +1953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
@@ -1983,7 +1973,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
@@ -2003,7 +1993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
@@ -2023,7 +2013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -2043,7 +2033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>84</v>
       </c>
@@ -2063,7 +2053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>84</v>
       </c>
@@ -2083,7 +2073,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="13"/>
@@ -2093,7 +2083,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="13"/>
@@ -2103,7 +2093,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="13"/>
@@ -2111,7 +2101,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>84</v>
       </c>
@@ -2131,7 +2121,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>84</v>
       </c>
@@ -2143,7 +2133,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>84</v>
       </c>
@@ -2155,7 +2145,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>89</v>
       </c>
@@ -2175,7 +2165,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>89</v>
       </c>
@@ -2195,7 +2185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="13"/>
@@ -2203,7 +2193,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13"/>
@@ -2211,7 +2201,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="13"/>
@@ -2219,7 +2209,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
@@ -2227,2896 +2217,2896 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C232" s="8"/>
     </row>
-    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C233" s="8"/>
     </row>
-    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C234" s="8"/>
     </row>
-    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C235" s="8"/>
     </row>
-    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C238" s="8"/>
     </row>
-    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C239" s="8"/>
     </row>
-    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C240" s="8"/>
     </row>
-    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C243" s="8"/>
     </row>
-    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C244" s="8"/>
     </row>
-    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C245" s="8"/>
     </row>
-    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C246" s="8"/>
     </row>
-    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C247" s="8"/>
     </row>
-    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C250" s="8"/>
     </row>
-    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C251" s="8"/>
     </row>
-    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C252" s="8"/>
     </row>
-    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C253" s="8"/>
     </row>
-    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C254" s="8"/>
     </row>
-    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C255" s="8"/>
     </row>
-    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C256" s="8"/>
     </row>
-    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C259" s="8"/>
     </row>
-    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C260" s="8"/>
     </row>
-    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C264" s="8"/>
     </row>
-    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C280" s="8"/>
     </row>
-    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C282" s="8"/>
     </row>
-    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C284" s="8"/>
     </row>
-    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C286" s="8"/>
     </row>
-    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C287" s="8"/>
     </row>
-    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C288" s="8"/>
     </row>
-    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C289" s="8"/>
     </row>
-    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C290" s="8"/>
     </row>
-    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C292" s="8"/>
     </row>
-    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C293" s="8"/>
     </row>
-    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C296" s="8"/>
     </row>
-    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C297" s="8"/>
     </row>
-    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C298" s="8"/>
     </row>
-    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C299" s="8"/>
     </row>
-    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C300" s="8"/>
     </row>
-    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C301" s="8"/>
     </row>
-    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C302" s="8"/>
     </row>
-    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C303" s="8"/>
     </row>
-    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C304" s="8"/>
     </row>
-    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C305" s="8"/>
     </row>
-    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C306" s="8"/>
     </row>
-    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C307" s="8"/>
     </row>
-    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C308" s="8"/>
     </row>
-    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C309" s="8"/>
     </row>
-    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C310" s="8"/>
     </row>
-    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C311" s="8"/>
     </row>
-    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C312" s="8"/>
     </row>
-    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C313" s="8"/>
     </row>
-    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C314" s="8"/>
     </row>
-    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C315" s="8"/>
     </row>
-    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C316" s="8"/>
     </row>
-    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C317" s="8"/>
     </row>
-    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C318" s="8"/>
     </row>
-    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C319" s="8"/>
     </row>
-    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C320" s="8"/>
     </row>
-    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C321" s="8"/>
     </row>
-    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C322" s="8"/>
     </row>
-    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C323" s="8"/>
     </row>
-    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C324" s="8"/>
     </row>
-    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C325" s="8"/>
     </row>
-    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C326" s="8"/>
     </row>
-    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C327" s="8"/>
     </row>
-    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C328" s="8"/>
     </row>
-    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C329" s="8"/>
     </row>
-    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C330" s="8"/>
     </row>
-    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C331" s="8"/>
     </row>
-    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C332" s="8"/>
     </row>
-    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C333" s="8"/>
     </row>
-    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C336" s="8"/>
     </row>
-    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C337" s="8"/>
     </row>
-    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C338" s="8"/>
     </row>
-    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C339" s="8"/>
     </row>
-    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C340" s="8"/>
     </row>
-    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C341" s="8"/>
     </row>
-    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C342" s="8"/>
     </row>
-    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C343" s="8"/>
     </row>
-    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C346" s="8"/>
     </row>
-    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C347" s="8"/>
     </row>
-    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C348" s="8"/>
     </row>
-    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C349" s="8"/>
     </row>
-    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C350" s="8"/>
     </row>
-    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C351" s="8"/>
     </row>
-    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C352" s="8"/>
     </row>
-    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C353" s="8"/>
     </row>
-    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C356" s="8"/>
     </row>
-    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C357" s="8"/>
     </row>
-    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C358" s="8"/>
     </row>
-    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C359" s="8"/>
     </row>
-    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C361" s="8"/>
     </row>
-    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C362" s="8"/>
     </row>
-    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C363" s="8"/>
     </row>
-    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C364" s="8"/>
     </row>
-    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C365" s="8"/>
     </row>
-    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C366" s="8"/>
     </row>
-    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C367" s="8"/>
     </row>
-    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C368" s="8"/>
     </row>
-    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C369" s="8"/>
     </row>
-    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C370" s="8"/>
     </row>
-    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C371" s="8"/>
     </row>
-    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C372" s="8"/>
     </row>
-    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C373" s="8"/>
     </row>
-    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C374" s="8"/>
     </row>
-    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C375" s="8"/>
     </row>
-    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C376" s="8"/>
     </row>
-    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C377" s="8"/>
     </row>
-    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C378" s="8"/>
     </row>
-    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C379" s="8"/>
     </row>
-    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C380" s="8"/>
     </row>
-    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C381" s="8"/>
     </row>
-    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C382" s="8"/>
     </row>
-    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C383" s="8"/>
     </row>
-    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C384" s="8"/>
     </row>
-    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C385" s="8"/>
     </row>
-    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C386" s="8"/>
     </row>
-    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C387" s="8"/>
     </row>
-    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C388" s="8"/>
     </row>
-    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C389" s="8"/>
     </row>
-    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C390" s="8"/>
     </row>
-    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C392" s="8"/>
     </row>
-    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C393" s="8"/>
     </row>
-    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C394" s="8"/>
     </row>
-    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C395" s="8"/>
     </row>
-    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C396" s="8"/>
     </row>
-    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C397" s="8"/>
     </row>
-    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C398" s="8"/>
     </row>
-    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C399" s="8"/>
     </row>
-    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C402" s="8"/>
     </row>
-    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C403" s="8"/>
     </row>
-    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C404" s="8"/>
     </row>
-    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C405" s="8"/>
     </row>
-    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C406" s="8"/>
     </row>
-    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C407" s="8"/>
     </row>
-    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C410" s="8"/>
     </row>
-    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C411" s="8"/>
     </row>
-    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C412" s="8"/>
     </row>
-    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C413" s="8"/>
     </row>
-    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C414" s="8"/>
     </row>
-    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C415" s="8"/>
     </row>
-    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C416" s="8"/>
     </row>
-    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C417" s="8"/>
     </row>
-    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C418" s="8"/>
     </row>
-    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C419" s="8"/>
     </row>
-    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C420" s="8"/>
     </row>
-    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C421" s="8"/>
     </row>
-    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C422" s="8"/>
     </row>
-    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C423" s="8"/>
     </row>
-    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C424" s="8"/>
     </row>
-    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C425" s="8"/>
     </row>
-    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C426" s="8"/>
     </row>
-    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C427" s="8"/>
     </row>
-    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C428" s="8"/>
     </row>
-    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C429" s="8"/>
     </row>
-    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C430" s="8"/>
     </row>
-    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C431" s="8"/>
     </row>
-    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C432" s="8"/>
     </row>
-    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C433" s="8"/>
     </row>
-    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C434" s="8"/>
     </row>
-    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C435" s="8"/>
     </row>
-    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C436" s="8"/>
     </row>
-    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C437" s="8"/>
     </row>
-    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C438" s="8"/>
     </row>
-    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C439" s="8"/>
     </row>
-    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C440" s="8"/>
     </row>
-    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C441" s="8"/>
     </row>
-    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C442" s="8"/>
     </row>
-    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C443" s="8"/>
     </row>
-    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C444" s="8"/>
     </row>
-    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C445" s="8"/>
     </row>
-    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C446" s="8"/>
     </row>
-    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C447" s="8"/>
     </row>
-    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C448" s="8"/>
     </row>
-    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C449" s="8"/>
     </row>
-    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C450" s="8"/>
     </row>
-    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C451" s="8"/>
     </row>
-    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C452" s="8"/>
     </row>
-    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C453" s="8"/>
     </row>
-    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C454" s="8"/>
     </row>
-    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C455" s="8"/>
     </row>
-    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C456" s="8"/>
     </row>
-    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C457" s="8"/>
     </row>
-    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C458" s="8"/>
     </row>
-    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C459" s="8"/>
     </row>
-    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C460" s="8"/>
     </row>
-    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C461" s="8"/>
     </row>
-    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C462" s="8"/>
     </row>
-    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C463" s="8"/>
     </row>
-    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C464" s="8"/>
     </row>
-    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C465" s="8"/>
     </row>
-    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C466" s="8"/>
     </row>
-    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C467" s="8"/>
     </row>
-    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C468" s="8"/>
     </row>
-    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C469" s="8"/>
     </row>
-    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C472" s="8"/>
     </row>
-    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C473" s="8"/>
     </row>
-    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C474" s="8"/>
     </row>
-    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C475" s="8"/>
     </row>
-    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C476" s="8"/>
     </row>
-    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C477" s="8"/>
     </row>
-    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C479" s="8"/>
     </row>
-    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C480" s="8"/>
     </row>
-    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C535" s="8"/>
     </row>
-    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C536" s="8"/>
     </row>
-    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C537" s="8"/>
     </row>
-    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C538" s="8"/>
     </row>
-    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C539" s="8"/>
     </row>
-    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C540" s="8"/>
     </row>
-    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C541" s="8"/>
     </row>
-    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C542" s="8"/>
     </row>
-    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C543" s="8"/>
     </row>
-    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C544" s="8"/>
     </row>
-    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C545" s="8"/>
     </row>
-    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C546" s="8"/>
     </row>
-    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C547" s="8"/>
     </row>
-    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C548" s="8"/>
     </row>
-    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C549" s="8"/>
     </row>
-    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C550" s="8"/>
     </row>
-    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C551" s="8"/>
     </row>
-    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C552" s="8"/>
     </row>
-    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C553" s="8"/>
     </row>
-    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C554" s="8"/>
     </row>
-    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C555" s="8"/>
     </row>
-    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C556" s="8"/>
     </row>
-    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C557" s="8"/>
     </row>
-    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C558" s="8"/>
     </row>
-    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C559" s="8"/>
     </row>
-    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C560" s="8"/>
     </row>
-    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C561" s="8"/>
     </row>
-    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C562" s="8"/>
     </row>
-    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C563" s="8"/>
     </row>
-    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C564" s="8"/>
     </row>
-    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C565" s="8"/>
     </row>
-    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C566" s="8"/>
     </row>
-    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C567" s="8"/>
     </row>
-    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C568" s="8"/>
     </row>
-    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C569" s="8"/>
     </row>
-    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C570" s="8"/>
     </row>
-    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C571" s="8"/>
     </row>
-    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C572" s="8"/>
     </row>
-    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C573" s="8"/>
     </row>
-    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C574" s="8"/>
     </row>
-    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C575" s="8"/>
     </row>
-    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C576" s="8"/>
     </row>
-    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C577" s="8"/>
     </row>
-    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C578" s="8"/>
     </row>
-    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C579" s="8"/>
     </row>
-    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C580" s="8"/>
     </row>
-    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C581" s="8"/>
     </row>
-    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C582" s="8"/>
     </row>
-    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C583" s="8"/>
     </row>
-    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C584" s="8"/>
     </row>
-    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C585" s="8"/>
     </row>
-    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C586" s="8"/>
     </row>
-    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C587" s="8"/>
     </row>
-    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C588" s="8"/>
     </row>
-    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C589" s="8"/>
     </row>
-    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C590" s="8"/>
     </row>
-    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C591" s="8"/>
     </row>
-    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C592" s="8"/>
     </row>
-    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C593" s="8"/>
     </row>
-    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C594" s="8"/>
     </row>
-    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C595" s="8"/>
     </row>
-    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C596" s="8"/>
     </row>
-    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C597" s="8"/>
     </row>
-    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C598" s="8"/>
     </row>
-    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C599" s="8"/>
     </row>
-    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C600" s="8"/>
     </row>
-    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C601" s="8"/>
     </row>
-    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C602" s="8"/>
     </row>
-    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C603" s="8"/>
     </row>
-    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C604" s="8"/>
     </row>
-    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C605" s="8"/>
     </row>
-    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C606" s="8"/>
     </row>
-    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C607" s="8"/>
     </row>
-    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C608" s="8"/>
     </row>
-    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C609" s="8"/>
     </row>
-    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C610" s="8"/>
     </row>
-    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C611" s="8"/>
     </row>
-    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C612" s="8"/>
     </row>
-    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C613" s="8"/>
     </row>
-    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C614" s="8"/>
     </row>
-    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C615" s="8"/>
     </row>
-    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C616" s="8"/>
     </row>
-    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C617" s="8"/>
     </row>
-    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C618" s="8"/>
     </row>
-    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C619" s="8"/>
     </row>
-    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C620" s="8"/>
     </row>
-    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C621" s="8"/>
     </row>
-    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C622" s="8"/>
     </row>
-    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C623" s="8"/>
     </row>
-    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C624" s="8"/>
     </row>
-    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C625" s="8"/>
     </row>
-    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C626" s="8"/>
     </row>
-    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C627" s="8"/>
     </row>
-    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C628" s="8"/>
     </row>
-    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C629" s="8"/>
     </row>
-    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C630" s="8"/>
     </row>
-    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C631" s="8"/>
     </row>
-    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C632" s="8"/>
     </row>
-    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C633" s="8"/>
     </row>
-    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C634" s="8"/>
     </row>
-    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C635" s="8"/>
     </row>
-    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C636" s="8"/>
     </row>
-    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C637" s="8"/>
     </row>
-    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C638" s="8"/>
     </row>
-    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C639" s="8"/>
     </row>
-    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C640" s="8"/>
     </row>
-    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C641" s="8"/>
     </row>
-    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C642" s="8"/>
     </row>
-    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C643" s="8"/>
     </row>
-    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C644" s="8"/>
     </row>
-    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C645" s="8"/>
     </row>
-    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C646" s="8"/>
     </row>
-    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C647" s="8"/>
     </row>
-    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C648" s="8"/>
     </row>
-    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C649" s="8"/>
     </row>
-    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C650" s="8"/>
     </row>
-    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C651" s="8"/>
     </row>
-    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C652" s="8"/>
     </row>
-    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C653" s="8"/>
     </row>
-    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C654" s="8"/>
     </row>
-    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C655" s="8"/>
     </row>
-    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C656" s="8"/>
     </row>
-    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C657" s="8"/>
     </row>
-    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C658" s="8"/>
     </row>
-    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C659" s="8"/>
     </row>
-    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C660" s="8"/>
     </row>
-    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C661" s="8"/>
     </row>
-    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C662" s="8"/>
     </row>
-    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C663" s="8"/>
     </row>
-    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C664" s="8"/>
     </row>
-    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C665" s="8"/>
     </row>
-    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C666" s="8"/>
     </row>
-    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C667" s="8"/>
     </row>
-    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C668" s="8"/>
     </row>
-    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C669" s="8"/>
     </row>
-    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C670" s="8"/>
     </row>
-    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C671" s="8"/>
     </row>
-    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C672" s="8"/>
     </row>
-    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C673" s="8"/>
     </row>
-    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C674" s="8"/>
     </row>
-    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C675" s="8"/>
     </row>
-    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C676" s="8"/>
     </row>
-    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C677" s="8"/>
     </row>
-    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C678" s="8"/>
     </row>
-    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C679" s="8"/>
     </row>
-    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C680" s="8"/>
     </row>
-    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C681" s="8"/>
     </row>
-    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C682" s="8"/>
     </row>
-    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C683" s="8"/>
     </row>
-    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C684" s="8"/>
     </row>
-    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C685" s="8"/>
     </row>
-    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C686" s="8"/>
     </row>
-    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C687" s="8"/>
     </row>
-    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C688" s="8"/>
     </row>
-    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C689" s="8"/>
     </row>
-    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C690" s="8"/>
     </row>
-    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C691" s="8"/>
     </row>
-    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C692" s="8"/>
     </row>
-    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C693" s="8"/>
     </row>
-    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C694" s="8"/>
     </row>
-    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C695" s="8"/>
     </row>
-    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C696" s="8"/>
     </row>
-    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C697" s="8"/>
     </row>
-    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C698" s="8"/>
     </row>
-    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C699" s="8"/>
     </row>
-    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C700" s="8"/>
     </row>
-    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C701" s="8"/>
     </row>
-    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C702" s="8"/>
     </row>
-    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C703" s="8"/>
     </row>
-    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C704" s="8"/>
     </row>
-    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C705" s="8"/>
     </row>
-    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C706" s="8"/>
     </row>
-    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C707" s="8"/>
     </row>
-    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C708" s="8"/>
     </row>
-    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C709" s="8"/>
     </row>
-    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C710" s="8"/>
     </row>
-    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C711" s="8"/>
     </row>
-    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C712" s="8"/>
     </row>
-    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C713" s="8"/>
     </row>
-    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C714" s="8"/>
     </row>
-    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C715" s="8"/>
     </row>
-    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C716" s="8"/>
     </row>
-    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C717" s="8"/>
     </row>
-    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C718" s="8"/>
     </row>
-    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C719" s="8"/>
     </row>
-    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C720" s="8"/>
     </row>
-    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C721" s="8"/>
     </row>
-    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C722" s="8"/>
     </row>
-    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C723" s="8"/>
     </row>
-    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C724" s="8"/>
     </row>
-    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C725" s="8"/>
     </row>
-    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C726" s="8"/>
     </row>
-    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C727" s="8"/>
     </row>
-    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C728" s="8"/>
     </row>
-    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C729" s="8"/>
     </row>
-    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C730" s="8"/>
     </row>
-    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C731" s="8"/>
     </row>
-    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C732" s="8"/>
     </row>
-    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C733" s="8"/>
     </row>
-    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C734" s="8"/>
     </row>
-    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C735" s="8"/>
     </row>
-    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C736" s="8"/>
     </row>
-    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C737" s="8"/>
     </row>
-    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C738" s="8"/>
     </row>
-    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C739" s="8"/>
     </row>
-    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C740" s="8"/>
     </row>
-    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C741" s="8"/>
     </row>
-    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C742" s="8"/>
     </row>
-    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C743" s="8"/>
     </row>
-    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C744" s="8"/>
     </row>
-    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C745" s="8"/>
     </row>
-    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C746" s="8"/>
     </row>
-    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C747" s="8"/>
     </row>
-    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C748" s="8"/>
     </row>
-    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C749" s="8"/>
     </row>
-    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C750" s="8"/>
     </row>
-    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C751" s="8"/>
     </row>
-    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C752" s="8"/>
     </row>
-    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C753" s="8"/>
     </row>
-    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C754" s="8"/>
     </row>
-    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C755" s="8"/>
     </row>
-    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C756" s="8"/>
     </row>
-    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C757" s="8"/>
     </row>
-    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C758" s="8"/>
     </row>
-    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C759" s="8"/>
     </row>
-    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C760" s="8"/>
     </row>
-    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C761" s="8"/>
     </row>
-    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C762" s="8"/>
     </row>
-    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C763" s="8"/>
     </row>
-    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C764" s="8"/>
     </row>
-    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C765" s="8"/>
     </row>
-    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C766" s="8"/>
     </row>
-    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C767" s="8"/>
     </row>
-    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C768" s="8"/>
     </row>
-    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C769" s="8"/>
     </row>
-    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C770" s="8"/>
     </row>
-    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C771" s="8"/>
     </row>
-    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C772" s="8"/>
     </row>
-    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C773" s="8"/>
     </row>
-    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C774" s="8"/>
     </row>
-    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C775" s="8"/>
     </row>
-    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C776" s="8"/>
     </row>
-    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C777" s="8"/>
     </row>
-    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C778" s="8"/>
     </row>
-    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C779" s="8"/>
     </row>
-    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C780" s="8"/>
     </row>
-    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C781" s="8"/>
     </row>
-    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C782" s="8"/>
     </row>
-    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C783" s="8"/>
     </row>
-    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C784" s="8"/>
     </row>
-    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C785" s="8"/>
     </row>
-    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C786" s="8"/>
     </row>
-    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C787" s="8"/>
     </row>
-    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C788" s="8"/>
     </row>
-    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C789" s="8"/>
     </row>
-    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C790" s="8"/>
     </row>
-    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C791" s="8"/>
     </row>
-    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C792" s="8"/>
     </row>
-    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C793" s="8"/>
     </row>
-    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C794" s="8"/>
     </row>
-    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C795" s="8"/>
     </row>
-    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C796" s="8"/>
     </row>
-    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C797" s="8"/>
     </row>
-    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C798" s="8"/>
     </row>
-    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C799" s="8"/>
     </row>
-    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C800" s="8"/>
     </row>
-    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C801" s="8"/>
     </row>
-    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C802" s="8"/>
     </row>
-    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C803" s="8"/>
     </row>
-    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C804" s="8"/>
     </row>
-    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C805" s="8"/>
     </row>
-    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C806" s="8"/>
     </row>
-    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C807" s="8"/>
     </row>
-    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C808" s="8"/>
     </row>
-    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C809" s="8"/>
     </row>
-    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C810" s="8"/>
     </row>
-    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C811" s="8"/>
     </row>
-    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C812" s="8"/>
     </row>
-    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C813" s="8"/>
     </row>
-    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C814" s="8"/>
     </row>
-    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C815" s="8"/>
     </row>
-    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C816" s="8"/>
     </row>
-    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C817" s="8"/>
     </row>
-    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C818" s="8"/>
     </row>
-    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C819" s="8"/>
     </row>
-    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C820" s="8"/>
     </row>
-    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C821" s="8"/>
     </row>
-    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C822" s="8"/>
     </row>
-    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C823" s="8"/>
     </row>
-    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C824" s="8"/>
     </row>
-    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C825" s="8"/>
     </row>
-    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C826" s="8"/>
     </row>
-    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C827" s="8"/>
     </row>
-    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C828" s="8"/>
     </row>
-    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C829" s="8"/>
     </row>
-    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C830" s="8"/>
     </row>
-    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C831" s="8"/>
     </row>
-    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C832" s="8"/>
     </row>
-    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C833" s="8"/>
     </row>
-    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C834" s="8"/>
     </row>
-    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C835" s="8"/>
     </row>
-    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C836" s="8"/>
     </row>
-    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C837" s="8"/>
     </row>
-    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C838" s="8"/>
     </row>
-    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C839" s="8"/>
     </row>
-    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C840" s="8"/>
     </row>
-    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C841" s="8"/>
     </row>
-    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C842" s="8"/>
     </row>
-    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C843" s="8"/>
     </row>
-    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C844" s="8"/>
     </row>
-    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C845" s="8"/>
     </row>
-    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C846" s="8"/>
     </row>
-    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C847" s="8"/>
     </row>
-    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C848" s="8"/>
     </row>
-    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C849" s="8"/>
     </row>
-    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C850" s="8"/>
     </row>
-    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C851" s="8"/>
     </row>
-    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C852" s="8"/>
     </row>
-    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C853" s="8"/>
     </row>
-    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C854" s="8"/>
     </row>
-    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C855" s="8"/>
     </row>
-    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C856" s="8"/>
     </row>
-    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C857" s="8"/>
     </row>
-    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C858" s="8"/>
     </row>
-    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C859" s="8"/>
     </row>
-    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C860" s="8"/>
     </row>
-    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C861" s="8"/>
     </row>
-    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C862" s="8"/>
     </row>
-    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C863" s="8"/>
     </row>
-    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C864" s="8"/>
     </row>
-    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C865" s="8"/>
     </row>
-    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C866" s="8"/>
     </row>
-    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C867" s="8"/>
     </row>
-    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C868" s="8"/>
     </row>
-    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C869" s="8"/>
     </row>
-    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C870" s="8"/>
     </row>
-    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C871" s="8"/>
     </row>
-    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C872" s="8"/>
     </row>
-    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C873" s="8"/>
     </row>
-    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C874" s="8"/>
     </row>
-    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C875" s="8"/>
     </row>
-    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C876" s="8"/>
     </row>
-    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C877" s="8"/>
     </row>
-    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C878" s="8"/>
     </row>
-    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C879" s="8"/>
     </row>
-    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C880" s="8"/>
     </row>
-    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C881" s="8"/>
     </row>
-    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C882" s="8"/>
     </row>
-    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C883" s="8"/>
     </row>
-    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C884" s="8"/>
     </row>
-    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C885" s="8"/>
     </row>
-    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C886" s="8"/>
     </row>
-    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C887" s="8"/>
     </row>
-    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C888" s="8"/>
     </row>
-    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C889" s="8"/>
     </row>
-    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C890" s="8"/>
     </row>
-    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C891" s="8"/>
     </row>
-    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C892" s="8"/>
     </row>
-    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C893" s="8"/>
     </row>
-    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C894" s="8"/>
     </row>
-    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C895" s="8"/>
     </row>
-    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C896" s="8"/>
     </row>
-    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C897" s="8"/>
     </row>
-    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C898" s="8"/>
     </row>
-    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C899" s="8"/>
     </row>
-    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C900" s="8"/>
     </row>
-    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C901" s="8"/>
     </row>
-    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C902" s="8"/>
     </row>
-    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C903" s="8"/>
     </row>
-    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C904" s="8"/>
     </row>
-    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C905" s="8"/>
     </row>
-    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C906" s="8"/>
     </row>
-    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C907" s="8"/>
     </row>
-    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C908" s="8"/>
     </row>
-    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C909" s="8"/>
     </row>
-    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C910" s="8"/>
     </row>
-    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C911" s="8"/>
     </row>
-    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C912" s="8"/>
     </row>
-    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C913" s="8"/>
     </row>
-    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C914" s="8"/>
     </row>
-    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C915" s="8"/>
     </row>
-    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C916" s="8"/>
     </row>
-    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C917" s="8"/>
     </row>
-    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C918" s="8"/>
     </row>
-    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C919" s="8"/>
     </row>
-    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C920" s="8"/>
     </row>
-    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C921" s="8"/>
     </row>
-    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C922" s="8"/>
     </row>
-    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C923" s="8"/>
     </row>
-    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C924" s="8"/>
     </row>
-    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C925" s="8"/>
     </row>
-    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C926" s="8"/>
     </row>
-    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C927" s="8"/>
     </row>
-    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C928" s="8"/>
     </row>
-    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C929" s="8"/>
     </row>
-    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C930" s="8"/>
     </row>
-    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C931" s="8"/>
     </row>
-    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C932" s="8"/>
     </row>
-    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C933" s="8"/>
     </row>
-    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C934" s="8"/>
     </row>
-    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C935" s="8"/>
     </row>
-    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C936" s="8"/>
     </row>
-    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C937" s="8"/>
     </row>
-    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C938" s="8"/>
     </row>
-    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C939" s="8"/>
     </row>
-    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C940" s="8"/>
     </row>
-    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C941" s="8"/>
     </row>
-    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C942" s="8"/>
     </row>
-    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C943" s="8"/>
     </row>
-    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C944" s="8"/>
     </row>
-    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C945" s="8"/>
     </row>
-    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C946" s="8"/>
     </row>
-    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C947" s="8"/>
     </row>
-    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C948" s="8"/>
     </row>
-    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C949" s="8"/>
     </row>
-    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C950" s="8"/>
     </row>
-    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C951" s="8"/>
     </row>
-    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C952" s="8"/>
     </row>
-    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C953" s="8"/>
     </row>
-    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C954" s="8"/>
     </row>
-    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C955" s="8"/>
     </row>
-    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C956" s="8"/>
     </row>
-    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C957" s="8"/>
     </row>
-    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C958" s="8"/>
     </row>
-    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C959" s="8"/>
     </row>
-    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C960" s="8"/>
     </row>
-    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C961" s="8"/>
     </row>
-    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C962" s="8"/>
     </row>
-    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C963" s="8"/>
     </row>
-    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C964" s="8"/>
     </row>
-    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C965" s="8"/>
     </row>
-    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C966" s="8"/>
     </row>
-    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C967" s="8"/>
     </row>
-    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C968" s="8"/>
     </row>
-    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C969" s="8"/>
     </row>
-    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C970" s="8"/>
     </row>
-    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C971" s="8"/>
     </row>
-    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C972" s="8"/>
     </row>
-    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C973" s="8"/>
     </row>
-    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C974" s="8"/>
     </row>
-    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C975" s="8"/>
     </row>
-    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C976" s="8"/>
     </row>
-    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C977" s="8"/>
     </row>
-    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C978" s="8"/>
     </row>
-    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C979" s="8"/>
     </row>
-    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C980" s="8"/>
     </row>
-    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C981" s="8"/>
     </row>
-    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C982" s="8"/>
     </row>
-    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C983" s="8"/>
     </row>
-    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C984" s="8"/>
     </row>
-    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C985" s="8"/>
     </row>
-    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C986" s="8"/>
     </row>
-    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C987" s="8"/>
     </row>
-    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C988" s="8"/>
     </row>
-    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C989" s="8"/>
     </row>
-    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C990" s="8"/>
     </row>
-    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C991" s="8"/>
     </row>
-    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C992" s="8"/>
     </row>
-    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C993" s="8"/>
     </row>
-    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C994" s="8"/>
     </row>
-    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C995" s="8"/>
     </row>
-    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C996" s="8"/>
     </row>
-    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C997" s="8"/>
     </row>
-    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C998" s="8"/>
     </row>
-    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C999" s="8"/>
     </row>
-    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C1000" s="8"/>
     </row>
   </sheetData>
@@ -5132,19 +5122,19 @@
   </sheetPr>
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="71.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5152,12 +5142,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5177,7 +5167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -5197,7 +5187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -5217,7 +5207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -5237,7 +5227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -5257,7 +5247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -5277,7 +5267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>25</v>
       </c>
@@ -5297,7 +5287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
@@ -5317,7 +5307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -5337,7 +5327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -5357,7 +5347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
@@ -5377,7 +5367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -5397,7 +5387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
@@ -5417,7 +5407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
@@ -5437,7 +5427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -5457,7 +5447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>25</v>
       </c>
@@ -5477,7 +5467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -5497,7 +5487,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -5517,7 +5507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -5535,7 +5525,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -5553,7 +5543,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -5573,7 +5563,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -5591,7 +5581,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -5609,15 +5599,15 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B32" s="15">
         <v>43552</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="7">
         <v>58</v>
@@ -5626,18 +5616,18 @@
         <v>0</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B33" s="15">
         <v>43552</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="21">
         <v>367</v>
@@ -5646,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -5667,7 +5657,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>12</v>
       </c>
@@ -5675,7 +5665,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="7">
         <v>812</v>
@@ -5685,7 +5675,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -5693,7 +5683,7 @@
         <v>43553</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="22">
         <v>4330</v>
@@ -5702,10 +5692,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -5713,7 +5703,7 @@
         <v>43553</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>2030000</v>
@@ -5723,7 +5713,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -5731,7 +5721,7 @@
         <v>43553</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" s="7">
         <v>119</v>
@@ -5740,10 +5730,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -5751,7 +5741,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" s="23">
         <v>4340</v>
@@ -5761,7 +5751,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -5769,7 +5759,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="23">
         <v>81400</v>
@@ -5779,7 +5769,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -5787,7 +5777,7 @@
         <v>43554</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="23">
         <v>1620</v>
@@ -5797,7 +5787,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -5805,7 +5795,7 @@
         <v>43554</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="7">
         <v>299</v>
@@ -5815,7 +5805,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
@@ -5823,7 +5813,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="15"/>
       <c r="C44" s="7"/>
@@ -5831,7 +5821,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="15"/>
       <c r="C45" s="7"/>
@@ -5839,7 +5829,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="15"/>
       <c r="C46" s="7"/>
@@ -5847,7 +5837,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="15"/>
       <c r="C47" s="7"/>
@@ -5855,7 +5845,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="15"/>
       <c r="C48" s="7"/>
@@ -5863,7 +5853,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="15"/>
       <c r="C49" s="7"/>
@@ -5871,7 +5861,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="15"/>
       <c r="C50" s="7"/>
@@ -5920,16 +5910,16 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
     <col min="3" max="3" width="65.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5937,12 +5927,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5962,7 +5952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -5982,7 +5972,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -6002,7 +5992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>67</v>
       </c>
@@ -6022,7 +6012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -6042,7 +6032,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -6062,7 +6052,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -6082,7 +6072,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>66</v>
       </c>
@@ -6102,7 +6092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>66</v>
       </c>
@@ -6122,7 +6112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>66</v>
       </c>
@@ -6142,7 +6132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
@@ -6162,7 +6152,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
@@ -6182,7 +6172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
@@ -6202,7 +6192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
@@ -6222,7 +6212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
@@ -6242,7 +6232,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
@@ -6262,7 +6252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -6282,7 +6272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -6302,7 +6292,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>63</v>
       </c>
@@ -6322,7 +6312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>64</v>
       </c>
@@ -6342,7 +6332,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>64</v>
       </c>
@@ -6362,7 +6352,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -6382,7 +6372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -6402,7 +6392,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -6422,7 +6412,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
@@ -6442,7 +6432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
@@ -6460,7 +6450,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -6468,7 +6458,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -6476,7 +6466,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -6484,7 +6474,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>

--- a/Suchdokumentation.xlsx
+++ b/Suchdokumentation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/IT_Projekt_SS19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F2CE6-BE29-334F-A82E-D7B7551ED909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23140" windowHeight="13320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23140" windowHeight="13320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -19,12 +18,12 @@
     <sheet name="Merisa" sheetId="2" r:id="rId4"/>
     <sheet name="Milos" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="135">
   <si>
     <t>Name:</t>
   </si>
@@ -393,12 +392,48 @@
   </si>
   <si>
     <t>advantages of crm</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/dl.cfm</t>
+  </si>
+  <si>
+    <t>requirements specification document</t>
+  </si>
+  <si>
+    <t>Article: Inspection of Software Requirements Specification Document und A Methodology for Creating an IEEE Standard Software Requierments Specification</t>
+  </si>
+  <si>
+    <t>software requirements specification document</t>
+  </si>
+  <si>
+    <t>technical specification document</t>
+  </si>
+  <si>
+    <t>software technical specification document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requirements specification </t>
+  </si>
+  <si>
+    <t>Article: Software standards: an information requirementsframework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requiements specification document </t>
+  </si>
+  <si>
+    <t>Article: A Metamodeling Approach for RequirementsSpecification</t>
+  </si>
+  <si>
+    <t>Article: Specifying the requirements for requirements specification: the case for Work Domain and Worker Competencies Analyses</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
@@ -466,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -489,12 +524,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -542,10 +605,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -575,7 +651,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -614,7 +690,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -653,7 +729,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -696,7 +772,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -735,7 +811,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Bild">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1065,14 +1141,14 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="67.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,12 +1156,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="6"/>
@@ -1113,7 +1189,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
@@ -1121,7 +1197,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1129,7 +1205,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1137,7 +1213,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1145,7 +1221,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1153,7 +1229,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1161,7 +1237,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1169,7 +1245,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1177,7 +1253,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1185,7 +1261,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1193,7 +1269,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1201,7 +1277,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1209,7 +1285,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1217,7 +1293,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1225,7 +1301,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1233,7 +1309,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1241,7 +1317,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1249,7 +1325,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1257,7 +1333,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1265,7 +1341,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1273,7 +1349,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1281,7 +1357,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1289,7 +1365,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1297,7 +1373,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1305,7 +1381,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1313,7 +1389,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1328,7 +1404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1338,17 +1414,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="142.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="142.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,12 +1432,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1477,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1421,7 +1497,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
@@ -1441,7 +1517,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1537,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1557,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1577,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1597,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1549,7 +1625,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1557,7 +1633,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1565,7 +1641,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1573,7 +1649,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1581,7 +1657,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1589,7 +1665,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1597,7 +1673,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1605,7 +1681,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1613,7 +1689,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1621,7 +1697,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1629,7 +1705,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1637,7 +1713,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1645,7 +1721,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1653,7 +1729,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1661,7 +1737,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1669,7 +1745,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1677,7 +1753,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1685,7 +1761,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1700,30 +1776,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="122.5" customWidth="1"/>
+    <col min="6" max="6" width="122.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,28 +1808,28 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1773,7 +1849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -1793,7 +1869,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
@@ -1813,7 +1889,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -1833,7 +1909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -1853,7 +1929,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -1873,7 +1949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
@@ -1893,7 +1969,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>79</v>
       </c>
@@ -1913,7 +1989,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -1933,7 +2009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>79</v>
       </c>
@@ -1953,7 +2029,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
@@ -1973,7 +2049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
@@ -1993,7 +2069,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
@@ -2013,7 +2089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -2033,7 +2109,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>84</v>
       </c>
@@ -2053,7 +2129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>84</v>
       </c>
@@ -2073,7 +2149,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="13"/>
@@ -2083,7 +2159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="13"/>
@@ -2093,7 +2169,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="13"/>
@@ -2101,7 +2177,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>84</v>
       </c>
@@ -2121,7 +2197,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>84</v>
       </c>
@@ -2133,7 +2209,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>84</v>
       </c>
@@ -2145,7 +2221,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>89</v>
       </c>
@@ -2165,7 +2241,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>89</v>
       </c>
@@ -2185,2928 +2261,3279 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="7">
+        <v>152</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="15">
+        <v>43553</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="7">
+        <v>9268</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="31">
+        <v>43578</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="30">
+        <v>160988</v>
+      </c>
+      <c r="E35" s="30">
+        <v>2</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="34">
+        <v>43578</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="33">
+        <v>251893</v>
+      </c>
+      <c r="E36" s="33">
+        <v>0</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="37">
+        <v>43578</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="36">
+        <v>127319</v>
+      </c>
+      <c r="E37" s="36">
+        <v>0</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="37">
+        <v>43578</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="36">
+        <v>230758</v>
+      </c>
+      <c r="E38" s="36">
+        <v>0</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="37">
+        <v>43578</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="36">
+        <v>454</v>
+      </c>
+      <c r="E39" s="36">
+        <v>1</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="37">
+        <v>43578</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="36">
+        <v>296</v>
+      </c>
+      <c r="E40" s="36">
+        <v>0</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="37">
+        <v>43578</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="36">
+        <v>284</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="37">
+        <v>43578</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="36">
+        <v>247</v>
+      </c>
+      <c r="E42" s="36">
+        <v>0</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="37">
+        <v>43579</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="36">
+        <v>10161</v>
+      </c>
+      <c r="E43" s="36">
+        <v>0</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="37">
+        <v>43579</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="36">
+        <v>3221</v>
+      </c>
+      <c r="E44" s="36">
+        <v>0</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="37">
+        <v>43579</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="36">
+        <v>2272</v>
+      </c>
+      <c r="E45" s="36">
+        <v>0</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="37">
+        <v>43579</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="36">
+        <v>1016</v>
+      </c>
+      <c r="E46" s="36">
+        <v>0</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="37">
+        <v>43579</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="36">
+        <v>797</v>
+      </c>
+      <c r="E47" s="36">
+        <v>0</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="37">
+        <v>43579</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="36">
+        <v>180822</v>
+   